--- a/employess.xlsx
+++ b/employess.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuhe\Desktop\Northwind\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tue Hellstern\Documents\GitHub\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6817E0-31AE-456E-8324-221089202FA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="5070" yWindow="5070" windowWidth="21510" windowHeight="12870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="employess" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="81">
   <si>
     <t>EmployeeID</t>
   </si>
@@ -63,18 +64,9 @@
     <t>Extension</t>
   </si>
   <si>
-    <t>Photo</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>ReportsTo</t>
   </si>
   <si>
-    <t>PhotoPath</t>
-  </si>
-  <si>
     <t>Salary</t>
   </si>
   <si>
@@ -105,15 +97,6 @@
     <t>(206) 555-9857</t>
   </si>
   <si>
-    <t>FFD8FFE000104A46494600010200006400640000FFEC00114475636B79000100040000004E0000FFEE002641646F62650064C0000000010300150403060A0D00000DC7000014F800001FC700003018FFDB008400030202020202030202030403020304050303030305050404050404050705060606060507070808090808070B0B0C0C0B0B0C0C0C0C0C0E0E0E0E0E0E0E0E0E0E010303030505050A07070A0F0C0A0C0F120E0E0E0E12110E0E0E0E0E11110E0E0E0E0E0E110E0E0E0E0E0E0E0E0E0E0E0E0E0E0E0E0E0E0E0E0E0E0E0E0E0E0E0EFFC200110800AA00A003011100021101031101FFC400E60000020203010100000000000000000000050604070203080100010002030101000000000000000000000001030204050006100001040202000503040203010000000001000203041105101220213113063022143234350723154041163311000103010505040703090803000000000100020311213141120410516122132071320581A1B14272231491C152D16282B2334373247430E1F192A2531506B334751200010305000301000000000000000000110040012030506021104161121301000202010304020301010100000000010011213141105161718191A120B1F0C1D1E1F130FFDA000C03010002110311000001AD5B446C1B5EC6C4AEECC7412721D247155CD9D4E3D06495374259AD2C0FAF8AB5A19FEF767D1FBBBC122002E2AE0C0C9E013598523A3BB6890E9898B2D956D39A6CCD8B204631D4C4DD8C3076AAF9DD8F1C048F1AEAEABD1CCB6F032BE6553811E355AD9B45D1C61BC71C5BA549605B5F4C3B7C2489B5883D91C7BB3EE3A10A30BDF1EFBB8F2A4790F69A7A360D6D17F9A083531A331516AAC195558A0AF6296B3036B6216AE6784EFE59384173AD79DD2E267ACB7D4D0B673775B8ADBEC5022F46F92E3062ED1BF5A2ECD1DAB841AC5567A1755F4B360BA1B8AC92A204D8F7BA6C251271B3F3356DDA1B4D7C967B1448BD121AAF3885AB6E9F55AA82F66A25ECE3D52C9754967572A415ED4B4197C984E24E381167646C595535493505E6B9239C66ADE615423409B92BB0673FEAF9E1D283E646A8ADBF39A9C8D08B01236BCE31A51F78DD187E8F5CA0F317B6394BC8B6D620F1632D1A1A436F65AF40862AE78BB9E5EBD86E44A1EBE1454585D85C70A5AEBD66887754BEF03D416334BD1CAB51B0D946E11A7A0DB628147D4C2666494A0B670D6965FBDD6064EA14DDF32092F009B96051F484132AEAF61DD397E81F591697D222D562A907AD73CE0DD732FC276CA1016EE01D0CE8135B354B2E1A588091603A6DE9EB1D098FEB148D29B09BD06D896730DD9A71E0C47A9AC2497FB19998E95D18B09D05555CF9E832CDF419ED674643C2A6E0894AFCC7F4E72BB96668341F61496D4ECFFA417157B7354C2DA72231175AD45E1CCD3A89D7EAB25ECA872560243AADD831B176E26890AFA0ADA103E97B0735DCD6D00AE1B449D13CFA6869B9610A0AECA9C8BA994FD1594B54E0F44470D2A743A3AD65665B30057136D8F1D03F1B4DDD58BD9A7529BCDC66CACA825571FA78547DDA35CDECADBDD8F18E3821863DD16ADE031B563E3E92E34B7C6C3AAB41A201B5F47D04797CB728FB28E655C93A587A5889A4FA3B5F70394311DE82355684F33D22CDC8DF295EE1D8B5C41687556ABB99298AD7095144D07A38C74A65774A27D895024A157BC761198ECCF1BCAF40ED8FE9969D53E902A18E04133189D1E49DAF3D16697F767EC1D9F76FE3542B427C94DCCA93FA1B0F6DEE99534AE0F39ECD7C9D07B2E052126609E7FDAC4AAAF66EDEEE9A53ECB8F26B2B558DAD4C0B7F776EE8B73A8922B960C055BE82F33EDA6F0565D9964158C512E67F3AEE79CF0F5C716746A9BF11A3B8918F01393F0ECB832C858C569919A389F4B617A5B6E3052468C084E0315CD3BFE547B90DA25D6507603B4913B87A7B866696CE36DF38E1EAE8D7A823DEF1BB32B6EFFA76971570041D4D6C79EAEF47272EEEA983DD22733117C079ED9C396650E9F9BC0AA0326BAF251ADE27EE17066ECF4467E82EC2D2D467CDDE8FC6C0640883D4B072DF738746D8EE8328D11C7FFFDA00080101000105028E6056C6D0899EA59192A5F70B7D1764DB2E62876B23541BD6B5336CC9CBDD14C8D6424666F572D05C83D770BBAEE177C2BD297BC150C9D4B9FF006D883B18A08E5475F2F531B9A610A9FE3955E18B0E855885E9B85B2ADF8F265765DCA2F28A99FDA44C3850CB92D6031CB41C0EB685872B1F1995CBFF003D66311D3B2C31D791AA42F0C2F93B7E4F74D7C5723B501AD2E5650529EACE694485A50502E5AFD6B310D36E3F020727EA61729754C8D5ED6C6F1B2A93D791B31327E4BEB5AD9B05CAA780ACBBFC7C431F673A75A6AE0CD56A795566142321A1632A58B2ACD5EC36F4FEEDBC0EA96ACCC255AC983A2BB0FB13A0AD7E84D1D8B9DD180AD23B0A8CA1F1D66A87180827AB324310DCED20B136F1B6C83E4B5927597690092310A112B23ECEA49806138F9AD2B4FE3EBE46C423F90C4651F26FC66D7F98D79CD0D9C5705FB0F861B95EE6CE561D1EAE2B37F4FBA5BBA126B7630C9D5416239A29ABFB3261581F61CA8CE139307675184454E56D99E5D5D3A158497F5F1B1F6A84926B67AD0B9CE1232D559649779A3A376968BE0B0D7B3FD9BA50D801C2A73163866C45EDA91B96B9B85A3D3D2B35773AF66BED43FAE9C7DAB3AABFDB769FE4976CD1D17B742AFC462A4E144C0CD5CBEEC7EDA15D8E4C898C5F2AA42FE88A6B8B4EBA6EEA6886651F64C307E332326D6EEF491DBA95F592B6C541D454014746295368B5AAC33ED931D350EFB9C0E1A78B403A2B51F4B0B4D26242E53FE9B1FAF5979FAEB96238EC51B551B118662A84F914E66F50E0E12F50DAB718E9A2DBC14ECBEFFBB055FC99211229A5F2FEC56D076BFCCAD737169D2A954E3FC9D32FF8D58FCCA9B1D6BE0774C2A52969A363ED8E6F2924F292A412BA2D5557286AC5137B00A477592E122BFCFAEC334F528FBD522A2DAF1CB1909DE6A66E4FB7FE7F81D3D5DAB7BF6B28BCED69DABD0355698C6EAD297A9A711B7FDE0749037E4361DFE93773ADA3DB524D6D2B0CA7F2FD9CDAAD37E3DAB126B58F8E1727B41E1C13D803FF00AFE66CF77FB42A472C5A6D339DABA52870660AD74A03B67ABABB0ADFF973AC9F5FEFB4BFDC7B21A71C73BBC99F36BC0CED2B28A3CCCDF273A6AF2CDF35FCEAFB1D9D3756D6CE5D56AD90E503D4764B98E83DF0ED37631EB26C54A22017246430ECEF3F617E37A1C611585853D1EE9FAEB2147ACB2F3A38036BC8D92B3A9EC5AABDC6154EC34A8DCD2B2117B57F64FC8FF12A50B9EF91E49AF40F115F8244305616161755AA7749E5ADEE46FAD82D7D88541B69A355BE427AFF00B8B520D86D6CD1A1B0BF63656E094C32FE457C212610938AF72580D7B71D868281E2ABBACF0C5EE4766B98DE034AF60155AA80A28C307CE3E43FEC6CA8D8E91FA1F8B6BF59461A34223B6F83D6B2361A0DCEA8711C8E8DD56D899A1CA36BE4572F3693F4F209EADDA45EDF61CD2C6E143E4BE5BF23FC1AC4E78F817C77F2E78E2739E22FF0C96AAD7309BD5DBCEB74FB1B32C5AD8E05B8DA7539CAF82DCFC8A32E3A4CCFBBD16C3631D3AD7EE497AD2F8DE8A5DF6C6A3E8D28E6919F812DCD5C17BAEEEAC738D66B61C656B3E37B1D90D6FC4A9EB9D61966087E4361BAD878FEB89CFBD3BB0AD9C12FC9F95ED3DE99004AF8DEAA2D4526CAF1142DBA9FBC9F595B670D2F8CBFE4F6BE32C669BF90D5FEDF69FC5BFF0097F9B7F21C7F5CFEFAD7ADD455EFDEAD7FEF9FE9BEFE075DFF00C361FB9F917ED3FB2BF98FFFDA000801020001050247C7D57558E0F11CD9FA79E3B705159E30BD144FCF84F8BB27397BCBDE5D96503C10BD0B5D9FA04F0E77002EABA22DE03910B19113B0793C958521E421C1088E23394D18527AB0E478E4E472515D7CD98CA94281DE1287127AAEA80594D72714382D2987C9C882D2C77608F07977AACAC22B3C05944A8FCB891AA13829DC4B21098ECA28FA80810BB270584CF07FDF0461C8F130F363F08C9E45041613B862C72537878E0F0F6E42CF20ACA3CE505944AA8E24F251E1EBB780159E005859E1DE94DBE44F9B472E59560A89BE45A79CF2015D1C9CCC2EA9ADCA098DC7808455A67DB51C019AC624E071D90E1DC443C6F6A1828D4C18E13977AF19585D1752833868FA1D78C29C79AC700A1C65307D4B238CF3959E00F1E7C330FB7C50B393C765DBC6EF3E08F044CCFD79061C8F0D098DC0FAD3FA9478819FF0274539043D3E87FFDA000801030001050243C60AEEB2BC90E26871E36F8B1C80835639963C1E31C0F17551C68D65F8EBDB2BA27059595FA839B8F037C4D8D6308B97B857BA83D1F34E620B38330C8E5BE1842011451E1A535CBD54C305C533CC11CB3C30A08A77213576C0973851953859594DE07308E3B04508C14F8F0A36A2380E69520C10861C246F529BC0E583C8E49EA070139A501820F916E50680A5F3E1854EDC84DE2080384D1F5299E8E458F2BDB4C202ECA50B2B2B2B1CFA82820A9BBED9E2EC84472DF4722EC2EE9882990E5A9C3869E1A9AA27F529C103C3DAB082737C9CDCA11F9BB19C2014EDC70E3E49A99C4527DA3CF809C1108041C53A528BD61043D6C3B271E4E767809ABFEE341DE65E091C382017B6117C217E4C41326EC647FDCE761176548FCF8014144EF395A48862FB471204C7E1318D4F604005DBC94E7C71BF864E9F38EAD3F6828AEABB617E423304F932827BB27C6245D82EE155765A46107AC2735158584FF20F6F84B7C545DE6516F1D975057408E0271CA2163C25A88F0553F7F1858E0A9DFC80B08C68B08E4845BC6146DC129AEE4A99FD47007D0C657B7CC672C0870E38523FB143C785D51479ADE8D4DE2CC9C8FA051F0554C4C453BD7E87FFDA0008010202063F02D306246C7F19CD888F4D47A5F9666119D10E95177FFFDA0008010302063F02D30E24B114071DD2CD52A6AEF8E4202D946D0B5C47101A45632D34061377FFDA0008010101063F0246978BBBCAAAB10CC3C366DB0056B5B4F4ABC7D8572B9B6EE3F950A8AF1FF059DAC3FA36ACB73FF0BAC3EB46565ACC7876E980D962AD2ABA8D14ADB95115A382CECE60ADB15EB9A667A68AC687772A64E9F1CC86719D9F9D7FA0AA789B750ACCDFD93AEE1C3B476D02A6FC37A25A8370758AEA9558DA6ABE6E9DB5FC79566310A70A9546D7E090AE4043B06EFEEDEB31B1D70237EE28B1FDC42319C2E3C3B04F0EC6772C9A7157BACCC9AD75BEF3BBD3452810AB79C7AC2F0AB9728B1104647EFC11176FDC8B1D63EE3DF826BC9B1DE2084F1F8D96D9BB1EC1EC18D8793DA80E1ED599056F608C16478E0D424DFF00726BB1C7BD74CDA0FB53983C3876681646DF8EC2EC6C43B45D2B835B89280D2564A580B712516EAA234F131F4C7674CDCEB5A78A6CCDBC5FE9EC50273B1036B5FBFEEB155E68D68ADAB2476B3F1159BA25C382A3A32C5F2D6760ABB72CDAF97A3A41EEE25558DAD2F908FBDC9DA489C0BF729348FB9B6B3E1372E22D08175AC772BBBD64C2F0786D205C51EEA6C01318300844DB22C5074F4B3172B226E4A5EFCADF6DAB9A068A62CA11F68404228D2AB8204D4D5D4B17460D1BDDAAAD7AAF35FBD7D5EA6C23C2C06E2A0F358C787E4CBE9BB665F75D871543FB465BE8DA53B55AF73830BB2303385EB242FCF03866638A1DEA3EE5589B57E0AD7E46836006E084434E19ABAF3EAA47F52422EC458BACD928DA5246FE2DCAAC35A628C6FD96D572AD6E9E9698CB9BF132D1B2A9B26EB0AAB6E28A2A4D37EF2293353F35E1366690C9582B529A1F75531A9ADC1078E53C17312EEF54C111B915995BB1CDDE08F5295BB9C47AF674CDC551537908A6CEDF0F8646EF69BD69F2782402AB9703626D5350D86AA6EA5841C772018EF964EE2BE4F88DCABA8CB9B0CBB74FAA0C6C7A8EA74B4D9685EE88379F391B8AAACD80AF632A6F96919E78F943314229395F96AE63BC5C2ED810DB9F2D1FBC2E7602A8D140A815463610A438E52054D2FB2F5A4D147A8EB49A48FA3334781AF1B9D8AA8F13CAA5EFC4ED042A7E2BBD2A77EA39B5C1DD36549A3585879A9F105E4FD49C03D373E47935CE3A9757827C7A77545F5172AAB6ED99E4395BBCAE9E8D86571B0598F05F2A37B6DA5B460F5A3D79A36FA49F62FA5D36AFADE695148A16BB25379770519D649D49FC64A967D300752F2228C3866F1703C11258E2F71A9277AC8F6E5A5DD98DFC69F62D6F9799323E50268DB767319B47D86B45A497494C9A7CED8D83185D4B7D0E5FF2CDFDB89FA61B5B3A407312A86FD8DAF723A694723B7589B2C5A99A91D7A07378495C9ABD4135CF46CBEF1BEF0A923A479367CF9896FF0095B44D8A16D5F5CD2BD7A141A21EE0EABBD360EDD772EAC4E2C70F0B9A6853619F4ED133A2E8CEFBF316DCF6D6D69DE8E9B43D402CB64770B6C1628A61BAD40A14437AA2AD083C106D5D4575A9D23CD18D152780536ACFBEEE5F845DFD856334E0AC15EE5CDCA38AFA7AD72AA8B900EBD5F6762F4DF2CD2BBF999ED7D308C7E55D297C781ECD0D878AB3B397076CB172DA3662B92327D4A5D6EA888E2636B4AD49380526B354ECD2BCE380DC9B20C0A0738B6D0AA2EEC586ADDCACF16EEC30F1D9C0ECB9556E0BFE3B4C7F9480F39FC4FF00EED818C157B8E5006F29926BA164FAF88897541B19D4BB9BC3137DCAEF46276823E848D3CCE8A18E3657F7761CCE2BAFE587E925F7B4F2D48EF6815202CFAAD3BBA35A7559CCCF56DCCD342ADF1ECE509AD6F3497D97261188550ADDBF49A577F3125951805537EC3E6BAA60E845FF00AE1E0B81907BD945E1BED50C80BE48DCD2DE9006E37BA91D1A2B8927B93DBD32C8A0358A6FA5696378451DAE278951EAF50F668C4D4649F570FF00372EE1C87977A7C6236E9A06D040E8DDF57338624B5D6F61AE8E32C67FB8FB022C76493502D399D6346F29FA385ADCB4B6461D91B4DECE43E8D8763A426E09FA87E37776C6691BCB05F349B9BF9541A2F2F97369F265859A78FA9636F7BCFE10A4D46A22F309B471BACA9A3B54EAEE6DAD6D70B0289DAA9A6D3F9DEA474E0D3C8EB34F8DAD0683D29D0F976A62F35F362FCD23B557405F6FBA2EA7723E69AA6410EBCB840FD467363A95219CA6FEE545D46372422F7B9669586792999D23E81AC59DBA563DE7974D1177FA8AFA39B461BA99AD9661BF86D9A1C051C3D282AECFA18CF2B7F69DFBB6505E99A12DEB6AA46F535718765A666E639BB8594E2A41E61AF8B46C83E6EAD9A5BE2845AC8B35B85FBD4BE7ACF306EAA321ADD2690BA38E2A5F79CF427D6993FF00D934AD779BEAF9216E9F357A723A980A0A0E354D8349A2D54CFD6BB36B678FAA4863AC19492456DC568B47E67A6E93F9B2C324858D89ADB8BDB0E6B5D828D316B7E3FBD796FF000FB13FC23DA86C729FE377B7669FF8ACFD60BCE3FAE83DB12D57FF004DFF00AA57FD6FFAB77FE25A4FE33545FD445FACBF407B4AFFDA0008010103013F21C63B9C60FF00A12965B72CD56D84D50146B88414CB1BBF797FEC66AEBBFF00999AA5BCE0FD8C194B97F91968C4D655F6866439B747D98FB94B147D7B4FDD9DFF00899609D2444A0E6CDD8E2511475EECD35DC0E6D836DA6E4D3CEA66B12CD67BCF8D03612845F54A1E1E60A5CA2A986FDCA8D2B27807D42D375E413EA7CE26500166F2EC3E97CC5A8BCEF95DD19BC7B9D03A25C78B43D26A5A87407ABB9541938A66D2DF6CE3B5F12F41B2AF1DF3106D91766FE238CCF0DC0A51B95671DF995CA26ED7C0B2E42E5467D2E673999FD98847F4A07030891BCEDDF897DF5EEB831AF4650FB328B6C61330D46F3D897E4673937DA1C7B194FA431332D71DA62569B7DC8EE8F62602B5FCF12F1016F18F79D9200E5DE5E443A6DBDEA62D57CF4DBCC1A0D5E53FD94F88F91E2F68A0CCE2D5DCAFA8EE732BAF5E7506B01DBDD19D940AF672837CB32F93368CA1E52BCCA88235308DA835B83767A5D678845D0ABE2DE20218A6117832F0E7C89DD86FD30B859F2C7714F72D436D8C45100D77C9EA4B4F6F6EECCC77BFA97611D12AC6541287668866E491743640A8EC2A1C31A0219AE3F009FDC3AF2510F946BD4F04BA3025B306E05FAF6E908CE31CBEE8A45112B13C04341EB0911B87B331B67819F31259C6AF0C449E2834CEE55925A3D1FF00924BB99E868ECC15692CEF9946D37FFCE5598E9EC8FEE33ACFB92D331994F6CC7C26CA989E151B4F38A1F3368161F318A7B2EFDFDA255DC5BBAF596A2E8AD71C6E94329149EC747BCD8346734BB9451706BD8005D1DEB5898EE81A6AA7C2111C05F1E05AC4C8ADDC76C9BEF896639B5E07E860AA5E1BDDEFFDE8B8BD547C910F9EFAF02D897E85EF29E1F49F4DFB9E49587381E056E3B4282B8F157311B0E0956AC6237C40A5549301D2ADC9DF73701B5CAAE588C863BCC0C7BC42DDFB5D105C29EFB6676AEEEC5DF2434E6100C325BC1F0E20D9564A350AFF001FB9E8A3FA8F54BFDEE67C9381D0008F12A57BC4173C7D128F00B89FAA79466E22D00C389E826A178B63ED349C40F54B2A2FB23078545A14C738D2954D475D432A234F68FB80A3B9999E6F48C611F3950985BBC946CA4AB65A2E502FC74858CDE16183B1BE11A689C9997BD5456C10E58FAB94950E9631F71AA9993E8AFA41E0CD6B3B96BC35792EA568E0DC501CC9922BAC4C9F20FF0050683BD4E383E75AC277C45C6DB18E594454E364CA9F1F1056584E0C2597C47E426F03EF52A0E472747210583E9285B0CF33882AA68146CD2F86E591983BA51392F7981343E195664F9E3561F1304A619E614AB90C09CA5202C9561C037A94A3B18CA00AB0707AC1FDEF43BA7999E90F7BB2843B5C718A5B8CA9489FB0488F0DCBEEC3C6314C5655197F0276FB8E79D9AF94764A0AC52E6BDA0A01B26F6720D060EA004AEE60FE1E1DA4AF44BE892367F6267E33D6A4B4CB4F46D8F22E66D8207385120174253190B7ACEA1CFF00C1DE04C4C6BABB5C7B5DF763DC81C875691BC61F882C3F7439D847DDC0FDA6502B912C368F81029CD15A966383FA44CF283E7FA901E85D291898B95C00EABA61F1598C4784A11524FBA22CA20D8585B017BBC8CDBFD41E90A4778945D6310597B18530FA91DBE48308F77FD607B06DE6FCCB950F6C17341694ED807C4E262B8E6368279CAA54B19C76B5ED11D3EEA6013BF97D11B2CAE7CCC87E7897975CA09A3A1EB16DFF00C999257B842E9317AB7ACFFB988A946365C90709C4C1662396480ED09E212487A07B72BDC9705712F74478981B7658C16346E1C8E4D7D627DD73B4C3175F621C658806E97D80F04EF1D3E9CCCDCC3912EA5882DAD2465980CB9941C8A5C1D728083049D9F0CABFE712D09C93192DD1699414F040AE9CF6949C7068FF00A8B89308DB29404BEF728F99D29A734EE4D82051A94B2177DBBC66C0BCE94A66338DCE18602E5D674F7AEA3A9138706CE8A55606DD1F31F62E16C01CC7DF427A2152885F38FF00B31A29E9B27B427C0DF98311296B2AED605CB670AB429753F51A10894852B6F6446528C409BADA3E5B48039345B86686C216AEC07C2886C9AC726CF617E7A82E0DC6D172861F79DAC999DA04AA5B162DAF6F12CB2DFAC47F7BCF38521857688B7A772B757AAF88E8DDF1EDC3A3F89BDA9650F2E212FB2C8E7DC0262F95DD4B428A384415D381A07306675EA497C7CDD619EDB9C6040A84018C2C0B4E3B47C5C54342B165C31982C05BE26747507F44AF1F8A17BF301B91B6BDA9230002858B34B9EB62B905F06621E676212F55D45D8DBA7C3A1802D6025F79CCBA967145256DB471D00650DF54E16AEC876C6322E1BC2F447B4676CD9C8B7EFA55F8F6C75D99372B2ADD93D654402A9416F4781796FA4FB3FDCFB38FBFFEA7EF7F04BE9CD7F9E27F64FE4BBBF121BF27F0BDF3F80EFD766BFFDA0008010203013F218BF2A8CAE2A372D29330B065F4B97D18F47A10B2907A5319CF4394A74EE5F4BFC8C5849C1132DC4F78F494740BB8947F07F11E8AAF46BD40D40983A7CCBF32A8740E58752BAF12A54D6812729D5E8E205F530E91875328AB0E97973774547F19C541CA22FAB294B04DCB2074C9D87E211688AE0A25D63D2045B2E0CC70C4562B46584C2F79CF40C5312ACD3A5740934C474E95789A85409A10958E8474F3D05F84C6D1C170AF4B368C1D484E99C86A38F40AA8F40F5949CC30CBA4B30E858574197A1E9BC4C1B94612A0F45E9B2158C2E67D28E252A2E1299712693022526D3844017D48B96F43DEA9DC43BE0E2C144BD6FE361644A731F9F430BB0A9B3A2CC408F74B70BF329E7F7053D393FF00834333284D29053224A8437838428899941F81F8314F45123719BE929718B1B8371FC2FF002C372E1164A9625E0DB894425CC4BEA45FE172972E5CB8BD282DD54B6105BADC1E9715125535D0BEB7FAAF4A952BF025C61D01EAB1983E8B195F9D4D1D461D5E65397ABFFC7923D09BF55B4D5FFC7FFFDA0008010303013F21866A5C3F0A61356040A984A8AEC952A54A95087A54BFC150214094E853345A952BA2A6D03F00E945E85CD43B5052896E86A8623AFC36FC0212F801D3A20A59042C59E86984AE8C3D425CB2007E1AFAB21D096CD4953D1EA3F19F431E90F13DE4BE89195B2BA1197F04F4C30A08DD08CD43120560EB8949BC4DEA6163A8BC063AFE028F4AA4509521BDCF5471D00615DAC56E0A5F4CF337DA1D7748C190DC38C55A88DACAF78FE217654D93297229858A8C1CC198AEB5C8846F980CA0AE82C2DE8DA0C446A3D36943D2B18BD45B61926798A215D069D3815285328CA57847A5219DF4A3A1742437375B8837398FABBC1740CF4664D50B04ACAE4A8A3CCAD258B1B206EAA6530E8AEB3DED4232CE691F81F30EE12B5CB16CAB447F0F34608A5A5BE63BDFE92584751793EE52C87C7FD80715EC7FB1CCC26BFC15D78A2A3641AA49809B845E431CE17429D32F4F3F07A5CBEB7389E93D0B47880C7A22CB414D1946BA5F553F2C8837D0A49E519AA94AE2A98A5A27E06C53F0A64B2AFA95514E1FBF509484EBF04B255D04C4B7B4560C1FC03E47F3B1F834401B810EBB788421712DE83A5FE226149A7E078A0E9E25B87515D2FA5F4271349B4771E9A469D4DF18757A109FFFDA000C03010002110311000010498D3166E2D5968B2EE595D3269EFEAC56267A86A4EBAE841541499143A2FA471539C67CF05FF8677A3644FA424CA16A889A4EB3AEE39A122E38709C212AF46DDB76C4AA87F468B46AB07595C97130DFD1ECC92D81C7552E0DE2BC52FEDDC0B2DAE3CEBDA1FB4D83F452831461BF225BDCDB38F3C3745C435E0E56A0F584BA2F66093ABD730C9AD11DE92EC1C4204909F35504C5C83CC3474AF5592E5EAECF13C53BFB27BEFFDA0008010103013F10A01A6D63598A747619B2A15E3707C5A59ACB0207DD46E34695B05EA871C312F267509517E219A611A0B50FF0A0A6F57B0798902A4B0CD2D570210814C01A7D4C09059A155670D1BEE4484637092F0EC12CE6336C593EC51F065E1BB641B1E51CDBBC22EC0A59CE799B77338B12B14AED2E7668B5ABAB612A35CB0A109C2E50775D99A1990B19018E6E98ED991B6EC00D0E72415050D500F40CD608B87C05ABFA960E0D615930C735F465D7B79987859D6270A8C70CCFE63340FB0CFA44A05801A864B29B235265B2081D9537E2EE18F6A8E19597828BE732C710B3632F94EFCC734C789C929423CC6B7BEE554DF6460B06914118280D1B3B1AD579609AB5323505D34F111AB19652961371B047B1A2894F262A219C2F98D78577F333A4BBC4F471307F4B205A620BEE3ED0C341838E0C4B39BA6300E88ED2AADA73EEFB413165B5477881BB06EE5C0DA21A3EBB3CD73DBC8D94A094A614DEB8616F62D39B47ACB51BC06DA883C5CED9A8D6BBBCC45CB5D128AB78030E45CE2BCAD55C1A2A2F0ACB576CF598675D32B2D9D856E057149CAC68D191B65CF06553A817AFFC800FB10DC39CBE6B7F3846B4C43D0F0E7B454805E39E083BCB5DCE4B5A3B575627AC455EC5AC8A942F31AA2FA94286BC587C39825B128A4656AED59AE333FEF0EE20425FDCBD2CC12E63C84B780EEF78DA8058589F0B5757ED3588C58063F7F504D466050958CDF79586C97A20371906B2C7BA412231358442B6391C951368140820BACF6890975168AB7B1851E613A97BC97961DA40FADB51AC0A1EC9FA98211B74D32E2AA676A9BA566B83D1C74B74833F2D7A8905499D8422634771B0367F51C58E5E2690142EF8BD80A989148A6549933DA35CE84F653292C358B33AC4C0BA95865897B2A073D68C0ABCAF88548C62220099AEF2FC9802406EBBBBB4B58C6EF7533901628B0C7A04F521ACA99C50F86777361151161EA1F771491A6895EA593B536B51E0DC4576BC47922D0C2DC66A11281860032EFD628A46D6A036F17369BC195CAB699DC2091612B4AB00370E156A06CA38EF07711AB3A2D81ED2AA11E266AA8BDC106B2C64D6712FC4130DAE2A96D1634F6653BCF825A0F387E650A9CA39C368FD9507FA35A1D2571829E670EF0759FEE4AE1C46405D85E90B6B88C2CBB0594F6D9B83177F5197A8C06135F55425F613CA5FDC226C056CBDA0D8311234AD05BA29B31B9E65B204D0146EA555C48E1716429EE84A90D52B080B77F32AF3B29C8D6A64DCEBC8AA200E1CF9CC7AD650660D1AD8A706C221AA047A942B5BB35021572B2EB6EC1F744B4856A317AC843B225915D20D2CBF03BD30E392C8A33765FA546C1A429B9571FE1652A179A205ACA467235734963C6BF48768CD5EE2975F71ABB501A06F358CC3CCA7883B0381BDC6DAFB72186007456A8E655147D960080504B400607362E498C18BE22AB6227679A7D2385B98B7D45A7ACD1E4F044E5A14AB4F55CC781ED25427922A80A4C2315914FEA39F4456C237BDC229940A0F3E903A34C2FD9FDC70A5D0E7C08D6995B3008318DEF128B1AB818B6B9CEE6956D641E71788B5602FEC07EA3ABDDC1ED77F7090CAB564500D2C0ED8C96A0A6EB1C4A96B2D5AA306E6BA2AD9E28C625F82D3E27A23C9A3FD3CCA2041644E653838869F956112334A30AA806196B114ECB1DF19FDCB20D9DA0C8DB35D90BFA8D3E693C14AAF896FEEB7DD980E4327999C7DDF1102DF309384C6CE02EBC5D4CC408D5AF494864959BCD8DFCF9943590CC475CB5062372880143968BC414D949805001EE172CC69D46940FB90380110AB662DBABEE276490235D2DB97BC0A5CC60570507616C06FA2812C368AC576950B813428D17AB816B95ABA0A6BEE508BCC234B1639F0CA97823D8FF12E62869EC0D5C4AF1088B92534A7B54A8A293892E8899E19745ECC8EC4E21A584A112674CFA42982BC60B1F2EB2CD10474C7C8CAC29730795BC9E2CCCF1E128C9F30C0AEB0BD71CC5D5CC521898670F0B63FB86B26E9750C15B19E224E0B64BB41836EF0198857880A7415ED1A5611AAAC6C0ED11A9171B3EF2FE8C5487228678970746015B8E3DE5B40FD8BCE0A8B01EB1F1FDEED5C47A382186EA786F504A01B52207425FB8CAF8AB530F7C7AD4AB0AB88CDB8D7B431D79BF90FF516129749302CFCE1A2D91CEE8DEEA52327B1DBCD5C42584EC1089E8DB6657454A5744230353B1ADE6242E53D958AC01661CC7F2996C96EB02FC449EFE70162565618CE894D4BB211E10C45E808F916BD20B7BF23D30D225A0E6300352A8920B6E7163512FC09756126606B94D313E11D9DA2C1DE5D7D551390C7F32B1E9772AC8B0F5192A96A1737F5D05870774662448008B14B790335ED041F255ECAB056DE4E2527F5086EC011704565D017B105D5006CBC1F62FBC10AA86188C9E664CA1B8846FDA51E7017E865B7CBEDE64C092C0F99C8E05808336ACCA703570C008AAE1A6B091F3A5C614D79ED0718E439CBAACE480B29520E16EA6B4DB129C62C8A436B60716D7DF68B06E35E78CD0BEEC0E64A136E33C893D4092D77282E9C6D20DFA894A2CAD98DBD012DC9086187FF0052F3163CA0B816386F922A8398F2EEB8986CD9A5F6399840B6F6F6825ECC11561B7EE584A94376B1C8E35DE5E5A612D2A0A6EF4C319DA41CB6847631C9B72E7C4CC02E35F337507AC70C033B388222702BB6C6AEBEA0C1E2944D05B10C091D5D88C772195156B703B11A0D3BDC0FDFA427D4CFE2061AE90095C40181683BE0A9BE0362FC9C59298ED0015A6BF988D0BCCB3BE6A3BD12ACD9AE1FEE040EB05736A5DC6C8531751ECCB135DCABB60AB5014AC5417614071781C047E6920EF7A18EE469BEC0561792EE562E62C447B24A42D4170C11A605EE8166BCC084033B48F882E6231FB9C68173B0F7C43C3D861C080773129758B4BBCE66A26222FA016FD44A9257732735555712A1C338572BFDCBC46EADD15F9B28F3110158A9678CE55688ACFE7C0454B1C1C9C9662F4E21F6179F4BB14096022872290E4C1E51E08C3ED24DCB780A6562E38F58D19464F0DE61A16AF7D0CA7883796FB4BC205A610EEB1140979832D936D4BC367DC2994AD545F62E95B7F48B1466B257D665E2CF0C36358C3CEC82FF00242D602DF038F31FB35595195576ACB118CB8A08231B360A7924BB7A3A0567CB348B556179728E825ADEED65C4159AC9F70C8E14952968B22C232A148CB4A08EB6C6397115015600CAB1413588CEF8DBD8960804FB9D0B358B2091CC95CCA60F08DA32D64BFB8C145572C037E92B00B31EB1F52C7018A99DCCE0F2B800AA65A8E9D289C2B4AFDCDC3E4B7E3262E11107BE884EF38550E14526F9C32C9CA1D0840A7813850A390ECF8DFA05A94094B4098453DC44EECD14E0CB0696CC569141D2CE45A234291A016ABD82374888072856F59A3949A8AA0617609A98682D3015C9516F8F1C083441DA5AEF30DCB0C787016FD0443C63FD416590FBC7FB168CE57C5470A6D6B14CDA2EB6F4560901B570105482B037373CA0E68A8DB3C9EA7C014D89C4B6091CB22BBF270D88990C0A8525D82AB6119158C5C3ABA2B4D20439A58736A1631AAFC8E598C37B3C3F75FD93EC63F93EC9FC8768DB021B67F2BDD3EEBF7357A469E9FEFD2573F92EE84E401FCE76CDB3BFFFDA0008010203013F10BAE891832FA2613DE765052B814B34C4375A4738B0E85C589B74189599DC886A1CD018A887E223CC551B73036F32A74209BB972DD290E8C35D00E61B2744A6B8BD282C296199C1BE9C10BF83815D19C64C32CAF5379053316D444A6589ACCDC805AD9138883CC2E5C76C7ABE5629A8DB26D1DF4194C133C48D4CFF007153172ED2BFB21D378B51D2E5DB63AA9BB154B2DC45F42A971E2516623A21B4A1F73C88DCCC90211BC58B210620660459650E8CD2C6A28798D76CE25C062533CC171C463E33EB08C19844E60C8F4DC32CE32CEE14D588D5A82B643361D3975E09508F78353A985BC41F70AC7736DC7ED35D026A50A1EF6AE6D21A72EE59560CCE0012CAA4D70CA96956C44B770020D88AF310A18C55CB1D83E3A0684A03DE367C930E99DA0054010E12EB50155104A6E52A305E4984B7D0D421C3D264A9B40A9335335732852398C43804CB304DB20E68622025670B291CEBEA1B6AE16D2284205CF333D914200EC9D41AD39377889371CA2902B3D3296040C558954352DAA94E03CEAFFD8AAE50B772D72E20DA2D5231847CD673973F11AAD960E33CF8B96C943F3D1897441B9E21C05C4B412C290822DCA60B518E2D30480D712E4AD66A6254BCC45462F112A1A6B8F7F68B4B6DDDBB3CDF8841F72FCE6885D9312885ACDC64D3F51402B593EB6FA8146DF48DD116A3B32EE5D449B892EC902CD5298EF81B0CEFDA1E8A7DACEDE678465532671C0538328D44DA5A494E40951A969512259398278209967E60E0F88BBDC155328A86C490A2497A095537D0BCA9531095314F10CAE619771017861CC9DE6391930C81B8A988E8A71D50807A5F530AB30A759A0F351790E25E6FA3AC03BFD47370BC3A542ACB8E8827A493217789C4B12E66E3DAE8CC000AE98A52F49D67A248B9677394B5256A6D158A47786037380944CA1150212E54C41F267B4F074D9532FDC7FA8F88B302320BD3A3142E074210DCFE7886BFD879A6EFAC3A3F7BFA9B4DA689FCDA8EE3399CF421D3FFDA0008010303013F10196C0A4CBF05C4EC9576848CE21FF17058B9FE6A6D18F4BD612A99417D11B80ED2A04BBA96BA8D73BB802EAE347246CE2C8AD1C8F1DA3DDB3529C7486060B12A3A3025E451322D425DC621F620B88A3532631FA85B3A859AE215FC204A8C17D572F95706E54B498E1175D4438110975320658E0F089844A83F186B886B32864D262C52E4A58704B993262B29E44BF398EBA0C082D8B52EA399138A582081BA83338299819F08B5177E960218E5751A92A1C316631B2751E431F5DC779F69948097333652A425C806A138165DF0B8AB1C432305E71AF4889B8F309B09B40B4257CA72182AB88ECC17AB4CADC4B02E5D98312B0D206D99475A4836DB14A4D5F3FA4D22CF456CF89BFB32C0F597490BCA6220F58DB97EF99520AFD4DE74E85931D2A8A665DAF6838948A82EF20FEA1E91E677C051C8CA03484E2A097AC4F2508C0445E772D462336BBA5B352B398E844A5951453327986F31E1F30506837E91DCFC4AEC40C22A15890D5228909599A837C2AFAB01C902EFDA0AB67BC73FF92A5D77958982A2C54CF52D00387A2517918622D2A5D32CB5AA80E5B80E7A389CA4F872883FCF32A2ADDD5B02B351316A1C19532AA7799C12E8879BC87EA6555514E1E32F996D6EB9E22824824B1A080E8A67731D19CC17E87EEE680725EBB68E6531A35EF3C9A02265948941328DC77320BC4417CB2F6F93B77F981CF7C7CC64440F3AAE711D438B9942355C8C7156DD997F90B4A7E7FC400680F1BF36F9210CC1D9DFAF78CBBF3351B8E4840B8C6A66534A0368EBEBEF331247078DF985D22AB936D1852DC45A84E72336EA5C7C7A16F533085198ACC4F3436A5A771FA971D6019C301711920312D9A552BE6CDDD19AD422C8338E9A97D33D33C779E832CB78830A132153B68528D1142EA58866DC450D42BBC1254D4EE3B9EB572ADC6A64891180CA08FAFE7F097365F77F538A9572A6A2FC45BBBEA6E33E9D44D319CA8C6211BED703BA92C53286510CA57A5E22AADEFA724B08CBC63311755C4C4044BBA0E8C4C2BCCAFF00188DBEB8EDF1153D713BCB60D147437309A8639E9A985B449A66765660510DCB78A27DDCBAD86C8B3744B3995D0044A88EDD328D77E9236CD3B9B7A19FA5FDCDD349A93CDDCD99BF477D0EA69D1FFFD900</t>
-  </si>
-  <si>
-    <t>Education includes a BA in psychology from Colorado State University in 1970.  She also completed "The Art of the Cold Call."  Nancy is a member of Toastmasters International.</t>
-  </si>
-  <si>
-    <t>http://accweb/emmployees/davolio.bmp</t>
-  </si>
-  <si>
     <t>2954.55</t>
   </si>
   <si>
@@ -138,15 +121,6 @@
     <t>(206) 555-9482</t>
   </si>
   <si>
-    <t>FFD8FFE000104A46494600010200006400640000FFEC00114475636B7900010004000000500000FFEE002641646F62650064C0000000010300150403060A0D00000D0E000013E000001EA900003004FFDB0084000202020202020202020203020202030403020203040504040404040506050505050505060607070807070609090A0A09090C0C0C0C0C0C0C0C0C0C0C0C0C0C0C01030303050405090606090D0B090B0D0F0E0E0E0E0F0F0C0C0C0C0C0F0F0C0C0C0C0C0C0F0C0C0C0C0C0C0C0C0C0C0C0C0C0C0C0C0C0C0C0C0C0C0C0C0C0C0C0CFFC200110800AA00A003011100021101031101FFC400E500000105010101000000000000000000000502030406070801000100020301010100000000000000000000030400010205060710000103030303040105010100000000000100020311040510201221311330221406324142331535233411000103010503090407080203000000000100020311213141120451611310207181912232420530B15223A1C1D172337314F0E1F16282B24324A263344474120000050304030100000000000000000000300111211020314050022260704171130100020201030305000301000000000001001121314110516171819120F0A1B1C130D1F1E1FFDA000C03010002110311000001D0940FD5A7E47EE818CF98F37B8533BAD92E9C71832E498B56D0DCFB9AD91126F73F6D7D5B1E08BAD7B22AAF99D51FB34E548F5AAEF2FB0A13142B6EBE4233AC4FD099D666D85726A795F516D1B8F492B64B556BD96BABE69584AABFA5D580C6999318133346644D020B00F048DB952ADC0BC5A8FCFB7388113875D680E56BDA9F5DF362C35D5A6A0D55CDC9ACAD370A36BFD7A1A06070CF006586120A5CA0B58A975392620BA4FA48CCABF65FB539D462554449E24F6D2D65955A905C3309004C0C0B0DE6E0848316335598DD5E3833ABB1B8BDD374A93EA980C0AEA0C0921A4F6A7459A234B632E932304C8B0B2EDE442A71EB9123A91D1E68E7F9B65681AA970B97ED5E03A59DAB0412D6F97D2D0D576E5B85BA0B8D1B0340C0803099A821D799A7A85EB6902E873751754BE172BABF65F3BC5A4DC9E1354F99D1B1AAF1EB265CAF43193B312F7B4A97F6B390B606B40D2C1345DA401FE66FBD6E6D8E5AEAD52F9CE84F554DAD87E2FA3B58728C31CDC5771A6AD633767A8AE5D9730A7A8E910E81E61ECE4E7B4FF2F5EEB73AC1799D51C9AE73CE3E91D955AF39EF6F43E65D0A111B353A9A370574656C8395D9AB96ECF005D708164535BC68BDAF336CB84B5526EB9D8794CB54970E2FA87B9F767E8A8A6755841F20701864196F1FB5103B26513C3082DE473D9D53B5E4EE1AB7E52B78E7A0DFD2E44AB3A7D427C7EA890B5061F329D0BBB7CDA58DBF33A787AB85AC77688FCDC1EC71EFFD0E45A75722EA36B38782FD9266B35803ACF13BF6EE7375C60EB683A1E96C4C7D3973072851F04BB61267A2886EC79ED235562DDF9222564A3A455BFAA23AD649E63E93ADA3C6AE9F78FBE4D0074E6C6ED93341B5AD013B2E419EFA4F2F7D286FFAD16B8EC9F54C7AB11F3727553765E57F39F59E9A43C9169539AD4239B3DCF49BC43605086D00EE215FED706F999A46ACB5DB5249958DE84CD5CEBA000F45C83C8FA6EB80F3BD20B708E399ADE59AD4663668EE03174B51BBBC392C73EC589A96AC9DC6EA9F9ACB761F2ACD8CFC9DCBFADD144F0AD277CC723AEC7C1B11AEAA27856744E94E426DBDBFA3E5661B9A4AAB4BB926E33541B1A866196197D43B1C4EA7D606C1C0D2F0768CB8A5FB09E863CDCB01C89894D2F4FA47A3F350FAA1772D59922A55EE576F7D209B522AE88B74F9345F4D8333134BB1621A5E531A5DBD0A4619203E9ED86E274B37E26964C64DAC85AB959D45962895D6FC7788B898159FE3D1FD2ABE33B3A133A047D2F0C88B7619237090FA4698F3BD733CD3F0060A31A5C66E5C66FAAA996BAD783D8F585120739CE7B2A18FB716C50088A261BD09332BA24DC3C19CF2FD438F3FA2C5AB74C18CCB7EB254CBE44D08AF1FA7A0B2AE6E17308BF51560FA86EA08273636D2FAB7EDC556E4E1AA7F43C57468D0E87C2D40C1BEBD9ED2FF003BCD3733FFDA0008010100010502D0697B742DA389971E4B96CC15D5EFB229CC0FF73246B9ED92D8892D8C9FF3C51F3DB476E5B25A0A306F9642C65ADA5D5C4B3D99ACD8D9DCA4C74F1B8636408630164D65248618DF6B134072C4D18B8B5A2CA46B80DF9199B1C58CB192DACA3883D0B0E4A4C5C6E0EC4C6D12635957630157B8996551E23C4ADF9467C946D9CEE128EDB4AB2B517994B88FC8D8E300009C9C9C02E213DB54E6857B6E6586D1F33C433DDDBBE078922D78AE29C28307ED91C7A30AE48BAA9CE4E7549E89CEE8743690BD4AC9A0585979596B4545764B21C5CAD0E12973637AEFA49A3BA878D5B42266728FEAF04F141B02C9D7E25B3CC6DB59CCAE882EC9D2757CB40F9681D7345E5715C8E81C15D4A443F5E944B8ED6A81421F336FEC6491626DCC42F64918DBD97291B6EB259C06DF377F1496792F96AEAF9F0B6E73591E6DC96524661AE324F337799C6E5B8E89B05A576029B23989B753490D83DB22BF33B5B97C37D96E5AEC24F028F193CE7EBD88F8B8ECEFCA8E5B83987AC75D7D8E3566F374CB83421BE275B4A031AF40E8502AAB251DCCF7D87865B6B6255C63E3B94EFAFD8D6CB15696AA265197D6AC9A56D8163A264AC4D68AE5DDE38E627E45992E6B102AA8EACB764E9BD2567109EF6A9EE608859DC36EE0FC5972692B4C64B42A2BD644F8AD9D33E0B3FC588A0F55D02B09DB5698D3EF3DF717BC239E67DDCF71659382CDD9EC9566C85D3C174AE16770278EAA4844A8757DAF40D72E4B9AA68D59A8AF7E2FD365BB38D9595B9CCFB1B87B6B2B62F9FDB7F6335CBEDED5D037C655AB24B79EBD66BB642D839175B5557A54A28E8D5CB8B3EAB7A65B9751CFCAB259837EAB9A9DF1FD78B6DA3C4E35B1CB698A8656DF670CF64F7CADE40273BC92D8B47188681108E8C4E67387077ADB1CB81EFF001F211B782B8C9B98C7E46D254D6C721642C2C3EC175351ADEF62F50F50B9208E8C59EBBF858C94FBB0FF00632D6DB4EC9D9C6A2E2C8CE64C6480F8648842D591BB82C6DA1B8F9912B27F5824E9E55E442608A0A26B5ADCB64E6C94F275D313F62BBC5BF1998B2BFB775CC2D125EB1326F23BC8C8DB9ECDBF357B8F88C562E56B251D0C838998046E9807F60D5DD47075CC97C78B71A993B91547A2B7BBB8B47C3F69B9567968EE109DD1B7EC39E65CC585C73AEEE4F4533E89B71456F92A29F25ED7643935D9173531D64C8BE4406F7393D87F5321E2F79AE85382E4A8104D0BEA9908F1D70F82DEE8DE60E7736EEDEEAD1D0DCFBE7B8AA61A895E2B1BDE228CE4BE7659993763AE2270D5C7421513535596427B5C8C1F2A780DCBB9437E6564DF5FC3DEABEFA9E4181EC9AD54B3B797E500763FFB5BF8F18EB1C8C1E19A414716955474A201057371E3970F2639A3C934C2E263048CBA92904FE452B61BA8EFFE836B707EB9FE7CFF00E966BFF05DA9FF0021DA7DA15FFF002E2FF924FF003B11FC98EFF46DBFCD9562D7FFDA0008010200010502D8E3445D5D00D8468D29A7AFA04A24B8AE4B9AE6B92AEC081F41C9AD468BC754615E254D392E49AA8987D03D4BBB00868753A075103540D0EDA68DEEE4D55D4E8515551229BDB6BFB04F726B90D0EA7588E91F6DAFEC9C5355112895C917AAEB168CEDB5FD8854EAF345528008B7408342A046899A0EDB4A63EA89F7393486A3282B9203926510E29C188A677286F3ED7FEAB822D544C6F4EC6AABA47DEB57EF91A8F7680AA9CE099EE43A07F7D289A543D5C37C834E6B92017146AA88843585BD37BDB55280DD005508BEA8155D9132BE94A8209AE0516D17145A02F6EAD141E8B86A1794A2750A2654FA32BA8139A82017154D40518E9E817271AEA59540F15CC2E5A81C437B6FAAA9DDE345B4544D1443A9DEF93A7E8C1BA9B23E8ABB827745FA311DE7403A7E482E61731B1CABED8C847D18868421D555725CD07A957ED8FBBB51BA3ECFEC3B9EEE410D3FFFDA0008010300010502D8C6F241B4F42409DE8815428002805C5715C553572288F41889402F251099791072AAE8884FD1C10DE3A0622740821B084F144687D0726A2A880402036152E8EEFB5BDE89A116EA34086B28D1DDF6B3BA684740100805C1535974777DAC40D157A462A8342F1A0D459454442A14549DB7B7BDC4218A9ED8E8BA3D32DA8885249D427F3A33C89C13FB774778687407B51364A2F2145C9C7A83D2A8E87F16B4361DEC928C4535A9AC253DBC4FEADED445141BC8DED1ADDF0B8A2831358BF11E4694D635001553C5114C2AEE4ABB7C2FE26AE72FD2372797141BA15C972A82A4938B7D068A9BB8F804C29EBCD22F952A6CB33916947A68F353E84668EBA6736208A6C4106D1172E49EA67F16FA38CB7F24A54F02228AA9AFA2E68A2A95372DE327A0C6D55A45E38CE93428B5712B8221156CCA9BB772977F150B47245108F44E6828FB57309CE4C88BD4CF1047BDACA2AFB98FA3AA8E8539AB995409AD09A164855BC571D69B3F72B77738F47E842A2620AF9DEE751A9DD550AE2760A2E1EEE0563DDD0A2D55474E280416424157A0A9A16AA2E282FDCB1FF939053A1DB41A5FFE48F6D1C8A0BFFFDA0008010202063F02DFDBC926B8ABEC4FB4C69D9B7C9F31FFDA0008010302063F02F4A49F14910A336751D8B7339290D645EC190D9BD90975D1B0E35C8EA3030258C4FDBB273FC4A3A10A852562E70A4A5D29639485216956B938D2095E24A27DD67FFFDA0008010101063F02E662E91FF86C68A945CE706906B47774845CF95B2305CF165CAD7B6469AB738B3F82B2D63FF106CAF997CB1F26469A8D8762D3C97010D0EEDDF4A90799B98FF4D1AA38B2FF008DCE277D6C46137B1943D489F1136377576A6FB0716DAFF285C79230E26D0F757E809CF934F5DE2CEBB7ED59A175FE2AFEE0AA59981B246E050A32ADA10F6A70AD8FF038E0429086F8728B7A289DDCAE6A06545FBCA8E28892F36CF2BBB69B827323B69E3936A6FF00C8AA0BC61EC0B736532582969B7604CE2B32388CD92F36ED2B30ED56DAA9942EE8FA15D4DBB178457154A772972CB97336B52D1891B50606D183C8DC56692D3E56A8E94B5DDE1BBD8333FE1E9CD4EF3804D60146A000BBD83B2121EDF0D13812ECC3CA7F82A96891B5A7EC531EDB88E713B1677DB23DC49DDBBD9DD949C6E4E697671B1F8F5E098285B427BAEBC7389069BD39D836C06BEE43673ECE5A1B93A271AD7F0DFB3729B887B81F48C7BF9D253122BDA98D7798DDD2AC356E0392F5E314C79379E6D15458F65C0E23626B9A6A331A6DE71AB33B45ED4E95ADCB93C112756FF315961706BC8B1670F320C42F165070A8438F2BBA2A9C41B0016A2402E7609D648D186505011367326D70A0FA135BA97B687CAFAE6EA4DA58704E8C0A6F0B4D18A55B1B7339B89A73AAD7655FEC558F748E657EEE3D6A47B6E072F6273F4FA63A89E948C5C3B519755EA9C007FF005E2395ADECBD3F89307486E92A4B935A1EE73C5CD015350CF9C45A360DE8C5A6B00B4A7B9B9C3BC81BFB979A6A5BFA7923BEDF8931CE8CE9A56119E3B9455DBDD557D81C6B4098D183473F49A285DC26EA627BF89BC0AA6433538AD273D3A558BE7461DF7AF59B208DB8D171218435EEF3629EA4CE2C2BBB760420299B6D8AB8AD3BABFE66AD29B9B47BDC3A90279FA7D55D240DF96E1D8E0B712AA55E8BA67801A9B331B958EF0A76FB2A8E519C628806EBC72576274937874C0CA06F0146F9CD6490024F4A1CF3A47D9C405CCFAD1E11AB5872F62732BE155CD40991839B31B1A98DF48D508648ADE1CBDE69474FAE0C8668CF7DC0F71DD09874D94371778BEC5C769F9ADF100AB73B11C84386768B4C5F16C4D662DF121CF74DA02EE3C62CC9E2E90B551EB9E5DA98F54FCD5BE8E00AA5DC504665140C7652478CFBD710EA7F5339F36C546D9D29D4CA731AE6AA113A8FA5EE08AA5F1BB62AA7508329B1AD40DE4FB0738DCD153D4BD5D8F3DE90B6703AC83F5261F84D5658CE0BF53A4F55769E6CD4E1389A53AAE51BBD4E6999A8E27CC71398500DBD2A0C9EB0DCCE70CF495A2A3A159EA4EAE7F0C6ECEECB93757153706368D0C67BAED45B21EC59A500118723DFF114D3EC256569998E15E90A17C8690CD5D3CCED81D71ED4F8CDEDF72B42B2C45B23330594E959506BE1B7DC8BD8C0CAE002CB94742162CA2F7FBB900439EF373F53F2E2FACF6276C2A1D2EB5DDE8ACD36A0E23E17A0E1D6158ADAEE46D6AB458AA6F4FD4EA5D9638FE93800A3D5529C619B2ECE51CB7F2BA699CC6451B4BC979A0B119A5A36BF870B4D5AD1FCA8AA14DCD5D469BCCCC40DC84F04C1EDC771DE89CC2BB11F3515765C8BDEE0D005492A9112341A53481BF13B1795A561BC462BCCB4AF172C79B339F21A32260CC6CBEB82F517B7420B7865A739ABA972F723CBC4D34CE85D8D2E3D21535356FF00D8CB47585DC9A396BFCC2AB33E58A08FE27108E834329918FF00FC9D4ED1F0B53181B58A1A3E776C03EDE652AAF57F27163D4C7571A32478367F4A64675CEF95157811B697AD5174DA8682FF0019DB5F72DC6D1CEBB9642F88CC666819074DA893A37455F383459B48FE37F21B0A2DD440F88EF1F5F25EABC9070751A478CD76379C54B48F4DC3E10CAE17E0A7EE4125BE0EBE84E8DF1F0A588D0C7B3772D39DA76699A0C8E6E29AED5EAC318C19A8DBF2FEE4D6FA7373C8077DF27848DE427366E03C37F1A036967DA1712360D33DF73E1BBB2E59B48E6EB19834775DD8570F5113E17FC2E1457A878BE9D13DAD92FD3BAA0762CAFF00D469E5921EF5B65CA70FD64F1D1D52F1B9DD1FB76A84B753FAA8E785A592DC6ADB0828AB16FE74258724AC3649B028BF51AB7CB296E60C1BED2170FD3E310E95DE19BA70EB5047A19449ABBB8EE167DC7D171C6A0E5AFF00B9E9ECBDA76B531EC7CB2B241F2E52681DB9DB0A306B34DC784D8EE252AD3BFED464F4DD63B4E4DF0CBDF03AC5A99F98E4CFCA77F6B96A3EF9FEF62F4DFC97FD5CC1CDEA5E99D0DF729BF2CFF72D7752F53FDB12B57F7FEC52FF00F38F7047F2D9EE5FFFDA0008010103013F218741A8D10C55F4FA441FE9339F74EE0159142DCB8BFD44A1DE10A714EDF2454E58EEE0AC36772205B0C5D8654FEBC7980BCC3FAD457028764F1607F5110A6FB0DDFE350331C0B19C3F1297EF5DB9785DCA9F359EA3A54A84124232B45F98A36F9945629AC7DDC1DDAA945CF631174EF0287E42FE63A753B163BF98D35B09BEE7C4B1A4EF6B81F994254FB4B3DAF312CB08FCCB2AD66EA2791DEC20D867D488AC1DAB33CA97C5CBE0EB63DD8771067B7334E87425465EFD6AD638506D751E0B7857B3C01D8259D76A95CBF30347BBFE44AA863CAF3C777B4A8A2B86D4284E2F657A4768A94A615FF50E990185E070D7980CEFC725EF668F898A80729FF25D6D61CE8E9A8EC269310EB5D496B42E70D0F6EF31886DEC7A4AB81812A2692B39F10CC1B41638943857DCAE2593159F977FD41A0001812DE720AF33460BDBC7D222E0D0B63B12D1BABE41E901B1AAC33112A74954783A74CEE0F0C41689BABB7A91D07615D0F4D3EAD42B8F985F83D3B7D222C18D2B41CFE2585CB6555F261A3FDF6949BE998E9837881B9A625B7E9289708C42CF596036A59B0D8ABB728259BD9BCF678875B8A1454E4BB01FE43F128C8CD2C5FAD46F8DC706F7114BDC40E832FE0AF6FD4B0447B45F7CB8D8046CDB0E4970169A788B9AD5EA16FDC46DA8F7280D61F7843A6FD23062CF7BB4487ABBB9D08EA644A9C9CBE22BBACB4325DA2DCF90658EDA0FFA54D7931C5F198B997AB16EE1660500BCFA46E2EB421F14622C00DD820F77EE5258DB62DE868983B12C6F788595E3353E585D568982C985BA5CBE83C2977252AF9C68B250E230E5A8AD5ED398BA1B3CF64BB19B294ED90AF784DF62CC55E8577CDCC4521A8159CE5329A3CA544397E68E0B980ABBC16F3C0D7AC51757638503B31CC6CEC1FE9339655EE82A9CA2F7C54431A267D25FCF4062EA57691134C1F9080C8A069B67DE51DCFEBD610A056D3F8108EB1EABE97709CD0A59A7ACD4729282144CEC89B8B6A984201556ABF86BF11C16A57B7A41C5B07CB28D2845F11F76650142D81954211066C94B0FB982CFAC0A26C7E61AF33C470D0F4976C652702A7E68C5B0AB6D6A8B8D977FCCCE5B66105C4354CE93999D142AAB985C50550AC3E08FEEF04588AA146065A5DFA661DB48D723AD779C526C2BDFDE23A1A06325A077559A14D1D9B69E2085AB376729D7BC161817965F4501E606A0C6908710C2FE94C8A8151359A4728EC776068780F422A5E25466252348C041A8E0978340A5F90A9C3890486128AE6318288539013F4CC6E61D55C5BD26E50EF45B742E60E40FBD65FDD5A2A2CD8163588060FF00EC4FDD7C1ED048E13CC880A7BB39A0DAFACA2AFB4B740583A2CCA6E4FD2173E7A0BBF670B998C0AA17933BCF531E1F1460C28DF64E5879435C95D836A162995E5722016DEE7BE05178320F7D5BDA15D09056FBDC43B0EF1FB86878E23D066B704A86A03E8227E26676170DD91AD26BD804610CB84E5699426E49430A6CA8799C70EF11945C83C9DD82832E35FBC11639C265B0707FEC55C583FA8A83060E0C04328AE39CC11CABBEFADEAF48A89FFA4D617F4BC6FD3F31CFCDD730C7F844EC036C07BC2871406A29C8CC6582E206C0E3BA601CABA8DAC516BCB8F68E230651E947086509D45EA161C1BF5E25152D1AE1CB77860B5C8406D108FBC3BAE09429FE2F203654FD80B8A5386FCCC8AD320FE22CF1B1C0195809A4F677E81D8F5981BA57A97FD8EA190F31C3338E225693220EA52802D744AC0E823B25C1EECB76CA24C5553DBB7EE64741A768A8A1C25D712CFCD55E8F6182CF661BA8F90F6B84DE89417B8DFE2393ACB86F9A985B8EA3F40F2C647488C2B9F56220568344A30D6E301EBAFBCCCE30969DBC441CB9801FB52AAEB1FEDFA8E6079AB74BF7BFE76982A51623E7EEAFB6E587AAF86042C22371364B732F6F6EF05D5ABEB3B50F0C9CEA192BC1366E95AFE435190A8D60FDB50206E583DB4621BC70686A3E5625817A83604820E535DDEDFF00AC6556E713CBEFD2A0BB6C53D25ACCFDBE6DAFD8CBFE15159738913F1D40E9C7A198D52E77E933B28252F65784216DE0C2B3B07862A38612EF279098A656D6FE6F6A38DD88FE27E6589DEDEBF32CBCA234376C8B5F8DFDF0CAD84B614C737AA82260B0290F0FBCC6ACAD381874D54ABF0E7E652BCFC468B78EC62C7ACAE8CDD36F82A2D59B2E65628AB60FF6C8D7C755C67259D864F883FAB6CDF93B1D30EA894EC18F21C41147417B20FC90C01335768B8F022406C6CADD51FB4FB9773AA8E1B7DACF47FAE6A6B71D751BE9D31F69ECE997DAF9E93FC046B33AFD8C27FFDA0008010203013F21FA2942507A5570D44B3DE50C0953D031FAE83A429250807AA434F43BCC65847E87ABC4E4658CB740A25C94C112ECCA69D07EBC783A74C47A10EB49625089F495D090EF1622C745DC58A2C714229504CFE954750EA60E9652BAD061ED197FE1874FA2AD439E8F24AE343A166532BA071FE0A5DC6B1AC4B373970388D8C16F409C1C26F2E0AFA82C8F8ED2C515F136DF29A4220876E8B3E614C4DE39C18B12FEAD897175A85B2CA26B72A51B8651A47334CC53B43EBB18306CB10C339986FA0370338E84352F67F803ECCC7116C5D4B2625CB39C7D2612BB778753E9CD61D3340A50C432672A254BCDCB96EBA1F5EA659FA06154AF727311A1E636CA94875BFA489896112A0434435B2CE23122C4CFF6E97F4BD09EE3D2DD7460E9B1D19735003D187D55625CEA5E2CD080265D2A7AA4343EABE89E258AD7D06625EE55D458236981FAE096E13D709D7D23D16C58C5698EE09D1847A3054DCF9B0E7A9D0FA1BF0C2A54DCA60D04957025E5292D4671D6BADC7A253DA1775589667995CE54E20E08E8EDF10D7D7A1BB08FF836CF59A7A9F6CD233FFFDA0008010303013F21FA1D40150E8CE60F5E4831087D7726BA5FD4BD426653D2250C3E93A1B65ED11894E80BF42902021AFF0010DD8B3D25FA518E96CB50043EA3734A873D194A259D00810825AE0DCC3EA1B860FA5A83D35D4AEB38667F5A09866B3700352D96C04A1311E84CFD66D0A0BC064C7B882E276506131B821D9868E8388B9832FE8559442F5A83043C944E0623355CB798D4066550F0216E057C7C54AA090A419FAD32DE26507744D65F1D6A5826374E51C4DD141BAFF03F62CE259884C1463995620B8BEDE8C25477CEDADFEBFC0EC76851CCC5705662161AFF00E4066A59CC00D712FF004A8D90B883F7FE02877BFF00A8350997A62CCC2EE30C59E2154398B7FE0A6EE84134152F10A2A6C47EBE258D658E220D3F842BFB2A235F65CAAE96CF43EBB9784CC1C662C74C76C6364B9356371B336984EFF59D509773FD4C652BA2249D00B457309841198E3FC3CAD43272E586E2D6196E6160D044AA29E1D09277FD7D0CBEA2C4A5BABEBB6271E2674DC6F69DE5F018A455CB47AC5BCF5A952A243599C41111C7438B00EE32D928DCBF8E8A8256BCCCA2A540E83A1733F1828E258B93A317089C7580E9BFC489B040E517EEA25332FA15A62B5ED1ECC6B1316355931DEE2C4AE8A9E9C73873E19422A6B89684B2223D9D1F7FBFBE7A7AFA7A759AF13EC61D37E9F7B1D9BD4DD0D4373DF37E9FFFDA000C030100021103110000103875C26779B4B6D6118B605B47D3625621415D1FDB25CEDD99AF0E0877E3A4B4B360F35FC0B0B03C2A9E9FF1CABBB6B31A7DE515CF495B4F02F8DA995E4F0DA513178DA409ACBD00BD74A26A3663ECACBCA3F21821C4B667FE0BC2F265E6F801F05A6E0D5E4E31A15788DFBA9415A0FB134F542F5520D01AEF53E0818FEF76742BB270B13DD6EC5F3A65671136B30D6CF20B5D9FD1482C26C73FC1E83DEC02BDDE26CAF97BFFDA0008010103013F10832B2A1FD8822DEFCC7BBD6F072B1DD4322BC978878A3D211A6A2E9542AC39A476F314A1185A1DAE4D6CBB0EFC56022A05D02CB90270D22DD42ACEE06C76629415E6979308F2912D4066D740437B8E2DBC8ACD0745B5BE2E2CE741E3CCE2A8B39B3307B2DE547329742C6622306469595A56057A67D113D083B33527DB067A37FF0070544147884CB99213596E8DB44489A89434CC72CD230C8902A5302040706551E2B456D9AD3540BACB6DDF10CC2E4F8D1002871461B7BCAD39514DA034ED063DF70D6C3985A85CA161DDD6611FB010539ECAD2CA8E0825A96E08872D56AD29F134C7505AACD9056D4A379C78005041B1634AF2E25986094C285517B5683B445EC9446850C8B72B4F494370530A82EEC94ACCA0442A24BBCA18A9C3D665B9BB042A90DC25F8C61D8A178146D9DB12ED11DDC514666CFCD6731F50EEC3877A63D48D52CDE4A3ABC6739CCC0E215C21AC28C62BFF00213B789941B73BB51B7D08252520DE1AB479CBF3059783A86C342A9BA1A78D3924DCCDF8702B97711445A49B3B85C9BA3CF925D625787532CCA81577080B82870CD7C1EB16003000BA65BAC17605691D011480C3660C6202438078C40A02A50C8976037CCD0267863480AE08158C22317491C212637C84283EF08A840169AA01CFFE21FC780280E54247662CF9E0DD8C3EC4A81529204B768BDA09AB501BA0B664EC8576FB1B472EBF4ADCEADA31EF02EBBBE621ABF48A12E5DDEA102F6EA1D897E901B1895DDDDB3C80F319577501D2DC87AD577227905D2D3AA5FD82F7732BCE673E2367379642D9983CCBB81284BF882BAE309B2D735825F10CE2BB63200115685BB6CC5BC8EED6D479CBF882DEC8E235B750A5DA32C56F99615D2CC440D938A43797FB1050C92E9C3128C4948C12BA53AF092E8D59C4A29375D48592E32C7AF88338F786E1895B9A4815A4A92025BA4C72F13372ED6B11500B0B1E614B06BEF9082D72988741CB502365A16A618160936D6B6A88B0945B4E63F0B1E81AAACB0AACB5A739F512349AD88406E06B3B7528B90B52DA2EE55ADCF837E8CDA0182029792C2F88AB7B994A8568B2DA8429AE0361BC33C9DA1010561776CC03582B1CD4C602BD898476BBFF00952D1F6F6BB79326BB4CB86C60D2C034AD60CFA622061909A02F96D318CE20E51451642F73F82C0DE6AD70A54BED613158A20D2CB07FEC3119068B6A814C79FEC0F06A71B6B915E1FCA61ADD1B06926CD53F8624D480B4E0D35DE0F8385A5759318B6C6544A38005AD0B6AB981CA09BFD421CA5759D432B71671D9349EB0386E8AC418E03177519758A761100DE74371D5D4FA3A8B00725844ED5AED2B07AE9B571237EF716CEDBF26BD62446A66CC66ADA4AE2076A879B8C8314DF695854A246C702EBCA7AD44915EBB00A381B52EDCC682F7A86850077157DA0DAF5747342CC5E2EF8DB00C08C6F75282F1ABDCCA941B8B9BA156B788B0D42D8C30C3AC5A19E8016F431339ED17A8506CB51EF211D05B6D3132F955F30280BB21783DEAFC1CFA661A58F76F8431F1752B2A35BE40256C649141AD14657566E094B10075A6BF72FB1022D1EDAC6263EE0CE00F3763E88C0296C54E1AB4156B1032E3DEAB0E386E58E56F8D388697B6FDA3D413DA4683AB8D7DFD225ADB0CF787A6562FDE1334207117FD12F6AA51B77D19071B12E711A8F72D5731DE813554F77BBEB2E23E097F1037AA0E71C01CF8994521CABDF22B512A370A6A9055E2318BC050AB5C1F0EA2E61BB92CBF88A0377DE62039576B2BF32CC9690561B8DE752DECA42A410AAC2C231F040D170CD8C36163778F72C025D732B01C6A78B1BF986663B905085B709CC173000237604F1306A0AE5D9BCC56E90B660B05DD5B1B43D0967415BAE9C76A848235C69CA5EB913E1815BCA1E4B0401B4BE082BDB5C1BA1E06C654B862D322ED0ED513839710C98F0BA2A2EC39FF0093014038DC45E0A950F67E28FE462B477986F0FAC6BEF2BA85C3337151BCE3E541182F2C5F8B2391BB50BB12B28236436D994821CA6282F7D8D22F50118E8432A521C4DA60D046A6CAC8002B157064772907B29A3BE21983660A821ABAA876AD156516DCB88E168DE632E6CF3FEE11B0335289100D242E9E006F3B8AC2F77CB92FE664CA5DFE6996610A6BBCC3739835752C2625438ACA770BF04B71DE40C500F1546AD261ECE97E2E18629C0BE069BAAD3DE5C2F6A8FD3984F00798C3C68396C10665206562105040DE2F8C5388CDDB1B512200D056B106F0052612C0A2A51A36F64CE4292B18723C5D7110A802D3828DC5489726C4E1EC41649A7762AA1B530012B8546EC858A2102B8899AB99497800E268C80F8B897CE4A0086B02ABDAE575EFB30CC1EDB8981987D9984E8238359C6712CC0C05105DB8E065BAC819618692E08D41DD95CB82E59746ADE8A1D76ED00D662EB38CE1771EA056EE2DBDF509AE1198C38D9F9203FC1FA22ECF199A0304E5B83504709AAF989A9FB521DCD961672936616FE199B95EEB132578C7C7DC963B26601C3E6B388B58E3105E5D9D0D878176D54A28896ABAD98ADF38B8B0152C4F3BAF3718A42CAD6FFF002583CA30FB71981FA8C777CF07BBCF08707F309DBA17F14CDD343E6A5B4B8565752E2C7A5C57FC86D96D444DC53190DAD3B3DAA1CA741BA9C0029705ADFA5C0EC5FC4CBCE4CA2BB1CDAB1EA0E357588FBC0BEE8B572F21983132072E703E25A28103694D9B2BE63562A0000E54059863B97480761780CCD515442581CAD23FB1096B7270DD3DA0EDC46E0CAF2F3FF3714CE1F9E6E13781DE3641A96E42A9CB7F825813C04B55D0042E16F8D32D48631671E261294F3EA30559AA6ADC292A94EA1C00C057A4ECB2DFCE61AE33DE3645CDEB0DB41561F90DC1C13876DB36FAD48035A6B3BDCA0FAC620A6918DB6AFC2621E644FAA12A9346CC40238868401035805F782400280A00E2A1D8B5B6FD22BCBD7FED424298512FD36A3072D12FF1E2F7106B1B29696B80A88F52B2F7F896BBD4537D219ABC8D66B266268C3CE27656802EFDCA340AEAD4532B442299E5290CC1BEDC1C959ED2B5E6A5253B8BD2857A0D129B0EA65A05B01CCC50A684B0300838041EC186D410FF007352B2785B4696BBBD42C3A5BBDD87235586A68C48B37D8BF6181DBE2C15B878B51A5DDAFB635160B2E65BB9247D986FBA4928814AB8A09C459EB6C35946B40E2A9AA51482A2D14AC5CD4D357BD64482EB43333000BE154882F98DDCC4AE46624F7435712C6A162F72807113942E15950B1B3BEBD63A4BA6325940B3979147699A6DDD7AE4958A6471B94309E6DCB6EC286AF32A6913546D4600EC0186A20E001E513E903DF1D97A5D50B3C92CA0552864CE77A8AD8218219CD5686AB9CE22C2E0852B616A870601E4A71694220622A95E5739A1DA00C5535937250C36DD19C8C0732BE15B4BDDDD5A9F994CF893F0C1C3986D2B0087598D7905AA290539C3E261F18F494816F91BED30ABB39F260CC0D37844816BBD0B7465A64328171E7E928650C2E1E18698568A5529420468AACBB923652D50BB15621374B7C95D9061B2FE9190FE80EEF43A6FF78DFB4FC0871E909BA693ECBD3A63FB7774FC797E410FBDF6EB2813FFDA0008010203013F10A8C3A05CC40FFEC25D4CBA495CB99472DC043C2278264598098915FD049513A15CEE563291D8FD4378988603999E48211475965C6D13461954DBABD0CE253A663D564568DC59706A6A1976B9E9A398E4447A62327DA3E8DCDA2D4B972A2460EC1CCB6AD42804ACA6BA442F12897325711FC10892186A5DE632BAC8A47D2E7ACBF894E1362048BC256C35866FF130CC33067A1AB0971D11C32FA55F423D4B598CE1A86E1965711B62C625AE42019218E552B751CA0223A9B29F696329B89D195D2834CA498B4B820DCB714806EEE2D1CC7A0258CB1BA376AA60B34B920AAF449517A5B0ABCC5AD2BC4C6B10DF9650A6FCCA6597E63495518F0E7314BB2118BE333C4A83C4495D183192B7C7ACBF668FEBFD43F03044765DF46A7343CB97E388405276FB082AD012C23D2216266E3C1ACBEBCF88836978203D698FE918E654B972E2501795C7371CEF0C3CCF071E7EF71713D339942EE889A2CB2E1CCB0F588A592AD91F74B62ED2FC47FA44CB83D2E5F4451766ABF27BCD834C44C90EC4C99AE2270E8EDCC165BB8094DCA5A6010B724B57065C3CE3316219E84B65CCC261F24538D48C51A8BA5C48B85D3C0FE60D0DEC8E97C4E423BDC5344CF532F33FA4CA04A984DCD40944B2CFD4A8D426BCC0568DC3DB444AD205107B700D48C5DB20ADC22D67DB8851835F4998A84BA5F6189BBE60CC60E66641F3CC50A5175AFCFAC18B20BA552F83DDF9D4162DF4557E4B9C0D4781B7EC9E2D20C194972E24A8196A2F865CF882AE24CE12A5024419A9323188C3728A133D31FB4730A43A5F41288332FC37846565F8479A6240B8FCC7725C398952121DBFBD037D0F54E9AADB156FA04FD911D508CB0462F3987314E09BFDFEEA54A1121D165EE281329C921558CE177E91F3BE83290228D939DF9984AA897882BF17986BB1B815D5C6A0AC496C0C9ABC6BF93B9594F1C3DA24D1BB79889B84085C20A651C928C468AE2DA6A66C31DE28C3D0E21E812B61CDF3169A4BB7D35F7F6CC6DA3394FB3EFF00043A6CE970F33CC4CB8A3B82B6E9941B63FBDA27732A00BCCC3E49C2601592B80358797BC334217EFCFDFDB00A8CDF31D74ACB2A0E73D04BE8588B148FB22B302FDCA36D36778014512C51067046B26205164D3AD7AA799FA4DFADFF001FBF4B9F913426D36E7A3BE8EA137FF3FB3F05ADEA7E23F6F8EF35FF003538EA6FE9E77346BDA6E4FFDA0008010303013F103AAC1271008202A82A563042C049A122E655372F8D782B1D47421D31DC42230600A198A9944C41634635A8EC7333396D91F34CCE8755D1EDE083B4806750D095339C4B0CEA659562353DD45CE3DE107512BA5C5C45772752A2C5BE80B96DDCB3A99711B06A162D4ED71C9056254A812E5CC81DE3B0341F33021B60FA0309592E6AE38C132E26E10B299108E612AA5CA89715CC23E65CDCA044E262E6502A047112EE309E664B9809198204AEB705996B04BC45AA0DEAA6F0B86AA1BBE232D63123D745ABA660A0C1FA06D75309BF3066A52D4AA546700457004065082B6C9C9A11EC6AE51B416BED2E5EBD40C489049D2CBF4E7FEC3CA2C3F2424E52580ADD9CB302578A3F6ED8810F7D7EEE23336BD8F5FBC4D5C10A12C1DF276BFF00915D6EE513E2CB806B63F88F74E226226674B830CC49535D209E341F31055C1501381FB98869E9A9AB95FBF04BB5C474FDD4B8A0C32C22BD7BC0E933166C8803DD84A895D2A54AE608C1A6C7B9A7DA1C669910C931E6E5BB5A6FFD4B04E250DE18894437D0AD3360868D541EB0744B8E21123310CB913BF2D3F30814DCD060B2B1376EF167E1E7D663DB4165DCB24CA260C91D65603C4D94F6EF0F358FCADC3AA67A6E5C00AD3B1ED31D6C986A8460A99CED52872DD466AA896AD17D05804C5E218B106B3B8743B9EB18F733C1C79F13BCBF3DE0A4B65CA583D19E4407CB021AF81A23444661215C1E4DFCDA8D880F06FD37115BAEEEEF12CF5AC7037E665C1EE3ED9A20786E08AAEA277559504A892A1D162845D257A231B9CA460B20E0E8D7E698B60AE30B2FAA333019DCC65CE1D448D32A54B746183CBF28E1F3F88ED9D2CAE796C8A665CE657C42161346704573243FDC58AFF841FECAE8741CC1874B77FF004FF500A0160EEFFAD4A950B904A8959F9F68370478121A4A35A97BEB1C5986BCBCBEDAFCCD6F61F00FE7461154208115962D9DA997E965FE200506A62B08E63785C2D657DB8885D9D8CFC9BF7CC32C6FC13180ACAA3839F4EC42E514A7BD3F46E3356DCFCF4AE964CE2CBA057D6530374EF3CFB1C4765513412984D2092E3128208B174E83443021CF45C2D5100009C8CD9F609418DF418712C8D20A8C296B0402DFB6601FB7DFDFADBE5053EA4552E2B63F9198BB097AB1A6A10CEE560F9FABEAD7F22359F5EDDF10B28CFC4D4FD932054AE446B88B00B42FB916F07C12B7DB7F7CC524658E2926659860B67F12B6E4E1C27A77F682539771C2537D7148657B38204C369FA8ADCBA7B78F78E02F30D9700D9C71D334729C3D1FB6383F9F7F6D4FB857DF6F33427DEEBDE6BF3E77ED346FEDC4D21B9EB43DFDA7DBFC4FF64FECFD69EA68F59A3D38FECDDFD7FBE26CDFF26BFEA7FFD900</t>
-  </si>
-  <si>
-    <t>Andrew received his BTS commercial in 1974 and a Ph.D. in international marketing from the University of Dallas in 1981.  He is fluent in French and Italian and reads German.  He joined the company as a sales representative, was promoted to sales manager in January 1992 and to vice president of sales in March 1993.  Andrew is a member of the Sales Management Roundtable, the Seattle Chamber of Commerce, and the Pacific Rim Importers Association.</t>
-  </si>
-  <si>
-    <t>http://accweb/emmployees/fuller.bmp</t>
-  </si>
-  <si>
     <t>2254.49</t>
   </si>
   <si>
@@ -165,15 +139,6 @@
     <t>(206) 555-3412</t>
   </si>
   <si>
-    <t>FFD8FFE000104A46494600010200006400640000FFEC00114475636B79000100040000004B0000FFEE002641646F62650064C0000000010300150403060A0D00000CE90000126900001C8D00002C3CFFDB00840003020202020203020203050303030505040303040506050505050506080607070707060808090A0A0A09080C0C0C0C0C0C0E0E0E0E0E10101010101010101010010304040606060C08080C120E0C0E1214101010101411101010101011111010101010101110101010101010101010101010101010101010101010101010101010FFC200110800AA00A003011100021101031101FFC400CF00000202030101010000000000000000000506040702030801000901000301010101000000000000000000000203040100050610000104010303030402020203000000000100020304111012052021133114063022322341331507423424253511000103020306040503020700000000000100110221033141121051612213042071813291B1425223723314C105A1628253732415120100000000000000000000000000000080130100020202020104030101010100000001001121311041516171208191A1F0B1C1D1E1F130FFDA000C03010002110311000001E650A36764C06D8FE5D891E948BB5CCCB2BE40318A678C6AFCEE3E8691319964A94BC6292A2EB2B22C94D7B3E6EAF521E35F99F7CAA5829E97482B52BE51B428C4ED609692C0CC87A3EF6B31769DACD6253193292F5F61AB7983EFA32B07D0F8DC37E0FB4552C30A2DB8505CB1B42A52F5B62ACD299A4C86EAD852E98F5B6B5652B968248334953229849C9B27DCF2F8C7CCF4C80E06A547E474F5B463D53C34BA5EC4A74AE2179861646DCB2AF5B2DB351BD3438EA659DCCAAE78F561E465538960DA1361F9758D6F4760314B4492E3CB7CA12C1792CF8C31640C582D9AB56CB5720D927738CCD746A3966BCDF862284BE79B5905B0552AD5B8E733A6194B4398C309333CEC92785AA9D02B8E975F12532CAF3EBB47D6F378AB9C650719836079B6473C967D3C4F35EC2A67CB318D14B525A3D80A1648633763D15B671159DA48329ABE6C7E8D72E489593E65B966C3A95355C2FD08B568B04D7949DEE004298A57AA69C402B856C0B3ED695ED87D9CA5580BA10E10D76079F5CAE3DAC1CF87635615E9918C6292B70DC04D9D16D8B26A4525B090ECF727AD9664CCE5FF00564F4F1AA2A1E61B088B0BF6CCECFB7B36068D2DEBD38DE2CE427AB5A9CBADDE8AF84378EC859BAA1DCFDEA4733349298F9E7DADCA713DDDFBD23B37764660E43D3DA5625D30399BEE6D40D8D0795380F5E6B9C8FE7AF6602C0DDC24FBE7DAF48710DC9DA723BB5E88E20923C59C4E164F0D0E9059CD6CF381704E5B37091B59535E84C4C0E4036C7F36E7002265D2F4FD1D1443F68416ACD4EF61A15094666C4F2CD1E6CB591D9E816C07399B4D7A12E7C45277D9505CC19930FB79F6427EE8C360E9EC23AA69A420CCF50AA4A5DF24A0E39351B849852DA37D48B2EC6592AB1A0BCE764B21D9BC3374AB07C3CDD9D20C19AA4C595B43550AD92E5A8DA26A65E7398EF2D7AD19351CF59593E7FA0CAA6CC20D6CC06F548E617CA628B4B12B63FCF8E9CE7FF43CD9CB64A0D6E92B796298525C8BE92082D84D4C2CB37499E5859B8B333C8E5BA78A7EB0D601FA22A2992A83409A184D44D49A3A6FDAF1881F7E6E4D59D9E8393BA706EEDCB4DE0713E82328251662C0D9AA60DC5A6CD52B024669641B08ED8063D0DE9F9BB737F3EC28170DC692F9A3D2C78D985D8CAEB85EA8F20CE6941E26E551B54598EB04CE21A36EFA10FD1D77B7A3E7FDDD44DCBE56F0FD79CA74A12983BBF86CE4D85718B9ABD87C24A715B87C191DF1310ACE3D2E5EAC0C4B3710DF7B913D99398BC3F56B496CFB3A6014E1EB126B5B51429BE633C591887CC90066B81B3D5F232BFCE747036A8B3CD9A86D7BED4759F9B6731F9BE9E3C3E76EEE1B3A3BDFE2AD15E9771D0E7B91A0603267138310C5F45F34EE587C0B1DE2923FFFDA00080101000105029A1F13DAD9A550CBE0969F89ECE5608EB4C571EDDD0455CC723F0D4F664B5B85505792A569BC22F71BEEA18FF59E326646ABC404F1CC72DFB816A9C47E6899BAAD6AB24D25B8E78D59B1E52D05AAACC589B683D46D254F078C78B706D695F2D37D76BA2195CED0F6CF864C58E2EE7EC8EC7236D70F61CF8DC1484678F0EDD5EC6D335B6DC964E3DFBB077C71E1F49B0F8A3398EC44E78844C2415E4061E3FF0064032ADD26DEA2237453C64B154BDE3878CE4E9C2FA5620B90D1AEC94D890D30D9A42E8982CBEE80D635C152AA006B22628034B1CC1891A18E8AC485ADCE60EC6B771F2BAA697314E46B5547C7E40E8F670B5C57A958C504B2073D363C17536EDF0C884787C151B2C30C2A18D3E2738378F90363A333178F2638DC1556AFF6143815B0D34FC72AE319FB2AC570BF8D81B665BBFF0082584C8EA0E9CD699EC736518746C78315634694772BB83E6CB2BE0AED8DA133628A6ACC5FEC12C938E8D8F55F0C938973BDC5B9BC3057326FB704D343041B4D36BDB0E094C685D97BF7CD01AD048A28A6AF2F1F75CE4C76E576DFB763AD5FB0E8AA9279FA95D9C0D581EE651E3DF2BE3A4D0D655B855531D5866E49CE65198B8572EB91C51B6474A0B071FBA717D96A9BDB6CC6FAF2799B033EEA916E1C8323648FB6C61AB7EBCABE4FC8B1F541DC219EEB4F19CDBDB3CF7990AF3EE6BBB9E1228DC8FEB92BE49F182AAD6F1D8E42AC77626F13144CAB56480C0DEF43F3E6A23E5BB50CCD6F1B1F235B9FE39D4ED46C3108E6919251F6EFB9FE2E3B223DCE326D78F8DEDF23C465D5984A6C4321ABC0D2BDA34A7D7DAA2876AAA763F91E3CD81FE2FEEE36896AF9E43B39085F2791A0CAE14B69A13580C8CEFB0D8FDC1E28BA09239DD22AAD1B400B6A6351ECB192A2F56333567AE09AF96AF9C4FF00FB390B18DAAC129B7E4127163F4D46B8CC47B63472E7546F7AC3EC6B53588353C868F365441CE514472C758F62276CA00EDF26B3EEB9ACB276C35CC2BCC18B8C7DD13D6DAD5636B5BC737EEA91F6ADD83534A2F5392E550460C9F21ABE78ED922972E6375394ABD71B4B8DDCE91D1ECCB442607C0D79E3F96AD03191446273E091B459854DBF647D834ADFA61AA46B57818E5446C919146D420D937CEAE78E80ECD688DEB63230031D2C3518F534FE28EBD8980A0E05B4CFDAD298B706A75D66F63C60BE151CB5D44035F0CD04820904B2FCA2FF00BCE69ECC2AED556B0962AF59C66A3C55CB6A4EEAB863D951C62752983DB19C86BB0A5765A78D864732B069650748A7A3CA4669719C94CFE538DBF0A16CF17C5EE73DD1BB2A2DCD754739CA950E43DBD6A76DCD89997C7B4A8E35017C2EA771B2074A181923256E53896A6F21E2439DED579874C9CFDECF92F2EDB92411F9088BBC7198D5400B782A71C3C536888DCFDCC7D6048631358865A7E192436EDF2FF1C6314338947E4BDAB1E9B42B954B8E8D87E51CC36B27EC95D035C1F0B7F77B0924B1C2F191C96A3608A35F29E31F4ECD63F6B0A6BB09A415C55DFF001BC855E5E3E426F9754771B6E2E6192265D95A196E07A9797878DAB34B2DB9A183726420AE3284A6CDE8E07719F13FD7674F92FC7D9CBF1203A27325C213A6CA84BDF8CB4F88FCA9CDB3C2D7A10B6B46FF0013AD71E18F8EB49E634EA4828707348E6F0CDAEEAB5D80D5AEC9594B86AF59DA547647CF7843C4F2BBD7930596004C9DAA84A246CE7C943839DF19B11E0D6731E1F09AD2464055A7198276CED81999AB478509FB20792540BFDA1FFC81A05FC7C7BFE83BFE9B3F2B1F933F2E57FB19EB1FE757FBE0FEFABE83F083FB17FFDA000801020001050207428A61CE8E59E83EBA14E1A35C9AED02FE494101A158D01D4A08A288D22777074722B1841DA14E58D0ACF41D47651B938A1DD6341A38F5040A1A1D6172282CACEA4F7EB6E851D1AD4E29BDF477A841140E4E35CACE8DD4A2B3D8A6A251E80D59289CA235002CA05128BB4DA8F741A9C3509C135A8B5108E8100B6A1A602C698D24E8283CADEB3A84D722567577449F4422346E874CE9FC27FD3210D4E8515EA9C8FD00BBE33A0D32B0884504E47A8AC1D013D5958D5DF4B0B09BD64277D2CE8342B3A0194114511D19E80163086A515B4E034F4E3E8808E87408687A189C3AB1D0135BDF53D0D3DDCEEF858D469959595FF18FD747B7B1E92B2B3AE74F55B535AB6ADA06A53DBDF4C68ED0A1D31BB280D0A3ACBD327D06FAEAED3FFFDA00080103000105023EBA04ED02C7511A0D084E1D18451D0759D06AF6A3A374CAC6810EA28A1A94F0804753A01A0EA3A0D641A1D31A8F41D65390434739008F6D074EEEA28E834C774741D04AC0432103AF72B09C1041AB2B3A6E4352822F41E81E82E5B938E992B2B0B3A335C2C23185E3406A51620D58D47433EAB90D30B0BF94DFAAED06A34087D13ABBD563508A0875E5047476BFC740FA59D1FD4504D43E9B8F7286A4A3A040F4610585B116E84E99D022513D20F482B7A2ED09E92B3A0E91DC74E7A49EDA37A4A67A396ED309DAE34FE5FE9A34A1D211F4D30B0B088C2DC89595BBA1875CACA6F41E8919859D46B1A1A951FD077A74FF00FFDA0008010202063F025C7FFFDA0008010302063F025C7FFFDA0008010101063F02D3F0437453FA1405DC3175A625F554792A2D18BE28DB3F1434D689F65EEDE679A55085938160BA96FDF152071342B4E12C7CD0BD019F81ED971BCD54CC4556AFA23EE2859BB3A8C4221B0A45D542D0A3022AA8848E69C289074C625CA8F577B03C767F2AD8E4B9EEFD4B1A1C11B130DAB092FC5C911F52367B893DD863B394AD2FE4AE7651B71D4F81FA934A2626D8D35C68874E40BD46498E23155F3A29DCFAA2C07075A5BD5510860E86ECF7A8DCBB3274D630C03EC9D890C453CD4A377E82C57B71CC2D2D4529CF5199C5756D554A271C968B742D8AEA9AB627342EE0FEEE2559843100BFA9528C8734B097152B97A88F49F9B107040E1C363851006AFB934836EDB323D9786B1FD5073928EE47A5115CC21119D4AD5193F05232E6D59ADCA3187B407F82E7A6E4E56A94D8BD10D9A638A6BB539268E07135F07677FF00545FFC555319E9211B40D0AD026D018230BA58B72AE94EA7108C94B561F25D3D3577D4AB9AA1A4B250EF2F563731E1B93BB79A1D2CF13C3C155CD303D576B76D9D43A988FD2B528CC9F341B351E80D53392D55A6E5D4B87546157CD01BD4AD98B415539545FC79FB464BEDE210793C4669A418ECE29A24843AB7356F0AE4C48B894181DE889FA21297B1D42564E9905AFABCD1C02BBDE30990D18472AA9C3EE5184AAD8142118B11845737B58B79ECD31C9F5CF31C0A84AF76ADD5AC5E4A30BD0959990E1F9A2573069663632AE489E58C47D72A2FC5DC5A9CFF00DB7627C8AED2C5BF6DCFCA7D2884EDAD16C28F6FDC0E0EB509638451D03483F0D9AC87E6016AB726D07956A3BCA9040E03090DE0A8DABB767F8CFE206A19486BF78D273A62B4996B8FD273D8014400FBD59976F01AED93AB555D0B776DE9EE4CC56DC348110BB6EDEE5D33780ACB242DC6AB560062B54CF33B843BAD4CB98AC18E6A7AB064D014DFE1C130D80AEA471215394A79D5976D303E83F35F25D329C162BA24BC4AFC21C6E5A6106E2E9E258E68038EF43C6144AD59A65DB5A1942BEA56AC19466FEA8089A47340BB92874E8575226BB82AE6821E1A6CA29180736B988E09C2757AEC70B67447FD2B13196EC96BD78E49E4B576F6DC15A89D2460B4632963B86C1E1647A9923DBF6F133D3EE9014084E271A85D2337933CA1C38AD2AF775334B7127D51948D655280346C148135FA507C96900A3749603175F8F11F02821B68ABB3075CB003C946243F9A3A2222F52C8E9C32567B007F78EA9F9453AD71F8280897A3955F6A68DB60335A584DD7B0086E6410F0697AE4154B2F7A6D485C320C9A33AEE4E15EABC2D7E387A2A2A2D598C90308EA03DCA57213D11CA280182DC5A9B93E4715CA76B2EA4873FDCAB87043A577D0A1A6D890CD90D51E9C379C94BF89DC72C702D52AEF7978F3423CBC667046E48F348B9F54C572AD51C7308F71DBC5C4F15A6D920E65480C40788DFBD011869D9AA059693492D44B04F12E99516E4C4A68A79619BAFE2D8FD8B269FE696FD9A405820DEE56A0D88AA7B786E5A5AA9F6D15DED3BB846E3C1C0907C15CBFFDB23D2BB025ED8F6C82C34C852513883B2A9884F15FF9764D59EF91F24F804236D366A31B8744542D439B7951B71C23B2CDE22930CFE5E1B3DDE513CEDF69C54AE41C44FB5F12A1FDCBB68F25DA5F03E69AC8333C16BBD64C63BC174E0A977174E1FB71CE454EFDCACEE93291F355382FFADEA84E6B96DBCC0C5446DB96E03F2439AD1E21184A863423C0C871F6A95350C7E0A13B510C4513AFE4F6D74C6D4FE9FB24B5F752EAFDB2CBE0BA91801700C061244E00E498055155D2960546E5AA3576E8923DD5A1F83BAE61C2598DB54EEA372381460735FC1BC790FEC9DC7727F8A976F783C67452B172AD9EF0A898169648C6439C26408D841DB63FE4FE9E1879CBE7B2D7EB1F353F5D967F47F543647C5FFFDA0008010103013F214CAB12E2BEA3A7AA9BC1EFF17286BECD0595152CB53DB2333876A534E9996C0AFB19683F27CB19FCA590653A8BB4BA6003C567B313A40EC3C9021B051EE08D6ADDE919B5E4F655C4D9D788B446B99A58725AFE6741143F1319528AE7ED05C483A37AD7A8D9F02DC9FB546AB674CB0C6DD0C4A8B1CB9FDC5AFB6331549E21054564AF04276D42A38FB8353A900E8FE04167C0A59C32C27434F544272D4F943D983EC7982B18B21D113A585B79713BA345C15327FC84C104AB3A6FD4D52A5BB471FAC5F223B28502D944A43204CAB67F52B287B199997346082DC166E0959896AAB46A2AA87DC3E65E83A159F53A98927F08C2DC947930928B3F4ADC55B6EAC5436B4D37D3338A6AF28B1B5BFA809EE8F0BF13256A1FD46242D8AF5AA59BE1B4DC3EB4C05F6780F30F46D432D1F12B65B80502CF981B72C5C64C08CCB3D36BCA4144AD3EE03D46F1DB8FDA16E8B58F9CC3FDCAC75BA9544EEF7F79990E561092E2DAD4BABCC42A5774D35886DA5B1E3B7EE6EF459CFDA08164D4A052D9A4AB987CA28547FB183E607C4EDBFBCC60143B41DCBDB515C9A8805C3A4DABF8450BBD622B9FA0798D9467BF646C83651CC353DBB868354B3C91827BA2507BA8578ADE26851FB44856E0691EE6CD1668FAEDFF00D255157D934D370F0C533F5081B63B667DE20613A8270287255A88AEA47AD8E108029457C442D86A9F963411390EF1E9009A45358C4BF98018CBB76ACB38D56A6344A978D7443B5033F5A86696E6ED4CC133D10DA9B189B9563E228B82945F40844ABF623727818978883AC6D446C81AFC278192550DD33AA361911810F0132B2C26F5A4F4EE0FF4F980751CA02FBB07EE5433A14C316C3A8CD453206435F27516430F843BB304CE590E9BACECCC1D5DF6263A4A4515193E55885136A948363C297542DB312E005A7D603F32FDFE25A050DD1140E5F823A5DAE0AB833DCA9037A872698C8A451F5B6625CD947C4BBEF47E5CCF44BC4130CDD43191F335650A57EEC9338DF16B697A9EC3C0A07865462FC6465897DAB10CBDCB037D6CEA62C78218AD805ACC60B4414BD626E8FA990AE22FD4B4C15BBC31B0E82B1A9D81428464A257812A25B1AF33004432DAF728035056DC3AAA83B25CE883DD43850DB3D070F86C7CE3531BB7C71CB6D96A640AF37C46736D42DC572B3D920368377A49736538BD62B3BF71EB89FE4CC276B6F1506CBFEBF106DE770CF0F4C148C9EA11081DB4A5A03BE52F6B3831244E8B3BB9880169F0BC416D9129E99F297892BD9EBB97792C7C91A7B2B7EF1ADF72D0225C49411C2F072E9B8F31AC91E477A84FBA1E196B6C09BFE2E3F093DD030E03225F53F3DCB300B875A99AEFC87A84964566BD957E67F0FDA6721D329304209836A22BADEA584CEBFB037F698E6640C4CFBC5C87FDE7E735F2CABD06FE9FB990A453CAB72CA582F6DBA1EE28663BA8542E93E2282C93E173032500990EF799797967F03D4C697B3C22F19CB88A727E513667C8CC10203D06584478416B0B52B23C4C613547DAFDC2116650CF70E4A03EEC2FE8289803DACA024B5E708CC7D7C1A9F798E9E1067F1BD4B0E0E431876BB228A7F2678C7E330D6AABE4A94F073637FD4522C2C5859D30FF00C95E307FDDFDC0C5E25851B42D8DBCDCB737357E92988B66E23A85B294A9272CAA53F9D0875B21F0044F2235CA64EC4A534F2567EE590BE0FF0092D21259BA62E1BED2E9DBF697E0A8A6AAEFE267590BF42846FE90FE556C53FB253AEBFE4A3F5206238BF195F2B57F50324B035E0FC42382ECB5FEE1041161FA843E127BB2165339F24A413706A8B64DADEDCC60772E65B2696B4A81D722DD777C3C4D11ACC64E74DCE4F994EB3E82668B327B8BE8337EE8ADE83CC15E70AA62958E15DC0EC50AB5B3BF98D0DAA2367274D771E2A4F48363310A6E1C322038A1BC1B6A75FF0070D31E02055BDFC4ACEF62E67873753005C7C30E0A000E2BA36D5A2E0C030DA83B71420DE30D9C10515180D5255C408FAED35FE653A8F43FD9560364A9E50CC10C3F3E61D051ED3A3FEC43DF720AE6D506D529BB7665ACE1CF1C536F3AE79A1093FAB7DE187695749867932D771FA6322DB6A7BCF966F1B658C8295756187A8169F12869AE996A8F4D04F10787A8635E617AFF004980F7515FFA4B3E5FBEF57A9BA376CA3D43B265F6860A16E88365F00BD937945CD7F11872984D4347D8DF73A70129FBC5BD656DA3FA245C6AEA2888EDFCF3D93064D3A2699B2E0EA1B1267DE1A003F332421506AB50037C8F6CF0EEF1DF2FF19E5347C3FEF21469F9FA311FDBFF0027F6CFEA9AB93FFFDA0008010203013F21B2344164B9A8C38DA664330E1315983C32458D2E78B5458A08C732A38331632C8B2E5B80831C40135B88E03B831067516226E6D0C721A84AC704B951C5D288629A8B457D15BE2F822E05186245E2B24C39465F0978B837C8C5CB18B1D712A313B632916E6C046121C845197C95C4DCA5440F06FC1199AE1001CC17011F197CAB8286169902659923866A65324C329E4541C37867CC60D4B97E381132B11831D90B1B46184C201C3A473988544D4CD4618E37F412E5CBE1925F2D63838DCD6516A6513EBA8475C76866E198EA155369AFFF0090A83873E358591B460391C5F49C0AA66E1B83270DCB4661172DB99228F347D198198CB03E862C0B810461CD40E2B8A54370E2114691D4A5C86FE80E18624CC463036F0F0A412C46BC31631FA24A594C2E5DCAA2A971718128408E5CB9708B297E9AE06231E174BC257D3A6D2CB4DAA5E54BE6C3E5186A5F3BF82A54A81C0D25B8B8C2DC3A455CB980AA86A7D0AA2A571AE0418B8B878B838BB83C0CC3CF4FA09B4EF823F4E467734E3FFFDA0008010303013F2185306A650571ACDA32A540C4BC54C908F108730F0EE06216678459E43C24A94C2A0E1661C62823C09462F810C23C54AE1B701AE05CAF89D4B817F43082572C4823BE55C66E0B95CAA0810254AE520FA1A4099A5637358C60CD170106E3C547973C3A9E485DCC881F4F04520497F0B516079CACC4D782C463598E13321AE4B8AE9740E1E10B347216843150701182110A4A211823B30663A7030972F3023CC3E8A95F4544822867109709B80BE07FF8F7C54DE38E0DCEA5AE6B88FA525734B2570A1A48520CB7EB23858444588478547054C454519589BE26BEA65C5845C788EA6E30DCA8B1145348F2B2F9AE6C815C020E653C02E61C4FD20252111CCA88C20DF01BA813B840E2DFA44949862CBE19E09D4C98A97982072AC193863C318DF04657C95C3E8C898522ACCA32F8612A04F49550BFA356F0B97C3C45A9552A60C32CCAC4CA1C3738B61C12F38BE478841CD3C8E2A6C1AE071B704DBE9348477C1C1C6C8EE75C1C7FFFDA000C0301000211031100001088C3E23A635350DCA8718253E5A7675F226830CDC429EF43F459C6BB434FC8FE36AEE2F7F9B20ECB31985115568FFF00043A2B68971078534B96EBB434EA9153AF350BE4AE3EFB1780BF621B0B9601648464E2DD15586AD88B6F41E6E6C2EE88E5F8333ED2535B640B497F922613D7D5D6C8DD2AC5700F9B3AAB37131879E753A4172C7C3F30622C294ABDC5014D4A47383498B91951F17C77DC6062E6F294675E4C8575426CFFDA0008010103013F10AA2B7714ED29FB92B18AAC14251A3D45A9653414B0BD67A84261E205035E0CB37EA4E0A181F3333B464E7C1682DC8B59966684012FB33DD454D8E5B10B04C47A61A7EB11FB86165290C1410E2C4F531F11016A819F114C5418B442A52EE221B08B10629217B3212CD499D25C64DCE38159BF107D41ACBB1F706FD1048285D441E795EF2BAF52962D4AD36154B7717601BD2D4AF658F4692EE55A9B1B40175880B0F479DC4973542DF3DE48ED7684EDA8672575168BA00B5380EC8FC6E200042A96227DE6CF86E60C2FD987B1CBB1223B60ACBC340665AF2AEC193F06165E5961B47D50A36347B201B6E5BA206AB50C120069B0DB6B88FC2179047CEA3B7718C63C08510B896D87235ACE189B368BB1147D24C2BA0DD01B6229194CAF37A1E5D0B8D305CBB06C0365D95BDC5ABF1B0A4C089E6154F0C52D46FF00528EDC1105517CB4238015300D869F0CB2ADD1D37DE7DC4017802C5A4156EA5BB523244F55618F3307CEC07A556AAE99480E31710428BF347BC42C97C1322E3FD4EB6BB73AC98C8C4AB8DAAC7866FE220BBC4D16C663BFB5114874CA11124BA57018716CC04F63B08A82FE3171611112C4C89827A635B151EA72D790BA8A2078E80893E2E554B760D34EFD8371F5AAA0AB5AB29E88F52A1E12D323A3B2B0CE924065E0C6E1F584B7D67B300FC146240F200732F38B369419AE8F1DB2D9D555C16DBB7F44A73540AD303D0FDC0DEAA5B2FA267F0CDDA0AD6627168C222E3344486D6DBE4A2E3DC49B9047377D9E61E40BB0B2D5E33031C8565997923905CF621791B58A6A51431155DAF1A9990B6BB1F98C89807903C37922971681B4C9DD4274C7C4C3C8AA748A1824D669C1CB57208221A1581014990ADCCED2BB80701150505BD7A330EF97665201FA65F9D87CFF00F971058289C5B359845605BCD7675B232F463BD60FEA55A58E9576ABF441A7191115C37F38FB4C659B58082BB762D10DAF035997B58EA46FA1F388EC2E5AAC382FF70155CE0684BAF564B9C8A1BF6A9F08C358AA36F8994C4C5CB6543CFF005023BA0CF755014263B275417E26385E455042A817182B51354700B02EB57501668F03D89BFDC6923707678A96AB2A4C6594B86CC6A059464FB451436856B0A0A6BE634011D095903A1FFD8E03B8E70847F10EB15DD8A03DDD7DA39C5E41B3AA95483AA13FEC2D2159A37F88984B632006B04F3710644055ABD8367EA38A311AD35EC018ACCCCA82CD5B061FBDC397BC45D472EE5ADD7F72D5C1E9ED553FA853B4C445D74AB2C6662A8581F4B12B5C3E0019A3CCA4C058D96A275EE161041CD9559F7063264C6052BF6982B5C0D4B1E143F700A451C156783BAEEA1B36DB7A3B7DA0C022406D483D2BF71F8B70AA4E9D3549918F2C29D6657F7B8495C6CC8B553E61C0C0A57B4B90E961A3519AA4487A45CDF6A8CDD8F73A2471FEFF00933A6EACADF4FF00B0C8016E6A6DEA2B4242F0F830C482694AB06CA8C5EE6450B775DAFB9FC4C43D0D5BBD247D9842DDF6371D21076B68D52427442DAF6B1FF6325A629818AC96D5CB4A51B18508D0EB153DC40A564D6E40146BE5845CD400C36D7B62C510DBCC06BFA63341F3CF22A8537E9A6589EC951BCE40039B26633A41E3863B194DCB12AE9600BC162630CC008D556253F14441AED75A9B445B312BD220FD5494AA3495534A303C72D921746882F472ADD0061F79DC11A539EE05766130995B2110A0C1586BF33212C8ED1A31AEE6593C01E8C1A23F586440E71FA8D740A02DD0C7BCE21B522B959908E0AD1510D0B4E35DC2EC578BC7EA6943B142C758FCC255D7565D7E6681FDAB328ABF6D27FD80009689845DF89FD2FC0070C854121A3481013085CC9882C8DE29C35D46C1B6D16B4D9A2AE0B3D6B430FF00F216181BBD15083ECD2F67F50D3112C765F794875616CA341F91733E6B8351A6A8B814AD451B9669A02BFC875966803863025470D9796EA301F82635463B9A56977865851502F4BF32810E0843DD998F2CA0CFE630A41EB65CD1D067E48646ACA8F57EA0086F0B2BCAA0105D2E89B456A8DD8E07EF1C3D2E7B4A0B26E0AADD31D3F10A9B36C59DAB456A112B43F95114E2FB3188E8254956FB8CC25DEE395CEBC4B652E97D0FFE4A06A2D835289DA5345DC72AB0A645436F06638F8A3EF399781974CC7E06B4A34FECCAB581545B8DDDF52E9B5AE9973577D329111685D59EB32C209744B6614409C45063A796EEE20000828B064CD0CD436E145D7EE12F1548BF609554F3F8C1FE457B77D432932260EDE5ADF7500B585985ECCFDA02E92D19B34D6DF0623D404020E49936412AAF20A2978731417A1B1E1ECFBC05CDA5AC843F7442EB07FB24FE589B14D59A3385EA1D4072E29D62F0CB95033B9A895A332F14E9A99C801850466B26A17D946CA16D498F232AD3C9F771FD4B1BB6BFA4558C57FAC10CE2155D8F72887EC4B26AD66013A406BC4A2321B09F904C3C12A19F922A8082D35AB465833A00EAD567E7505787DE6347DDFEA6149D1F13B0D019D3F7992A0B762E4D4CD7D81AB5FB4C2EAD65AB9D7B80985797382ACCE1229AD1DB8E1C8AB5DC2D6C4F6237FEC03D21F8A1072C425FEA08FCCB29FAE0A420EB0B72C97058255C1BB1E8FF004219886171FCA54BE5E185A754598BC0502D42D0B9782FD1BEDFF26AA9E1B28D33E5B0014BF32F2C80F7446250092C83C7717564C174CEC803F55B6AC5BE26C5E52F16D5E3ED2FBEC5BA154A74B50E8611E50ECF642F868C9D500D9D4139DC3C2F3006658FC92BD8857B43CF93D426694D8FB19D7C4080A968DC1ED5B08491B41456118F3306FE2E600569AF100B8F0C29AF74097522256EE87B465C2AA76A27DD60A35A2AD1351694F2EA5C02B9A50E05EE61F6255D2C337695800E2E9F30850CA244AB7E5AFDA00036A0AABF740026B51E360B3B0749D93DF80F23F12B0836A83E618D01689712147DC8F1ACF0C520DD3592CDD623217D5859AF89869C12A16E6EBEF1C5E8A8814B55D608AAF12AD8C52E69AFCA3D7A918FCC068DCC4A942A3AEA1CA539E834CC2B2ADCA65FCB702B3B6BDCD2DC68A28E7D622B8AF0FBD4A0D660BFD21B4D681A4F848245664060A0E4A3884D00CD261A51601F315810BA5501E4488B8D93B22E528496B35D9833EA61FF00382AFEEB7D412FC01506F0F699CB544A4DD6206BBC76CB40DEA8796565969440EA9CCC007A3DABDB88B397692D13C3EA7DB842870C0543246B00F8661D2BFF00B0AA3282373519BF0E8351EE9B3D91B9A9153D31D5EC25E19C6F2D8EACB5513D79DC3EE8A3F31F0E2F1516A280EF188156D49B51F1571BA9814A65337876E888B8896AB16FA3AF5052AA58B2DCAEEB1B39F1D9082B0B6CD97DAC494D51A262AECB752974763C5B747E79105B06695DB3A546898942BA1F848D458AA30A89068F89D3B1F9352975C9400D4A2CAA86B724C94C2A67151DB1AD4B1B1AADC7A83A20A57B04627A9F2C36D82EECE58D7880EAC017668346F64D53510D5810C1ED897B989EAAB0A5CD6196CD7F506959460725545842F6374D63F12C01414ABBCD308846353764A7DCA09B04FF00D5691DACEA08118202FEA518446F29788C8ADC48D875668112BA8B9E8B4B2A2F18B6C97C12D6063DFCC522C2C0D14CC5172B045D2634693C9178B969812C7E4CFA6553E113687FC9A60697563AF9F13FA9A23B2F500054B8FB27F901ABC8D3C55AD452DE8AFC11F1BAA4D74C753FAD3F5B1A46E9FEE76E357F0BE38E1FB9FEA7F13DCFE6FB4FD89FE1FE4FE27B4FEC7F735FF1D4FD69BFE5FF0078FFDA0008010203013F10A917DE98E9622C1E21AA98D888B2773B8A8A8B041EA6378557C1F28D0E5DCDE4B9DDDCA00EA1FBE6B93D445B96172D65E254E009015984EA24E1BA542CE0361A81552FDCAEE5A0DC4B0D998C324B32EA684C0751A58958A24038373C9B8ADAEA653A4D08BD70AAE22D135095B1AB853756235EA65A225B8ACBC5B2A1A6E225BC070751AEE25DB10943051488A546D0579DC1EA6918A54B63124E94AC541A2B8ED8B999C2E84077280A889743706A502A037200FA894A8060AF8C7956E2AD4A4A47C3923112E950E615200A929E772C99DBB85054C35C28AA0BDCD469826A5CBD53645C5348C2983A4135C5A8A349A81D0DEE561B842484B962A312B060BDBA22611C4A75329462C55E07B5F13D46DB1EA6A39DC1573C0CD10B65C58961E7FAF89482D91368097297509719B6E2B72C6EE191A8AD0C90C80B9286A5E351968B72E398AA048DE29E2C5B8ED983D401495B08DCA6509F71366E62A95FD01CD26304F8E310163D42ED2854BAD1691182430A653E95F0B504EA246CD3A81DA75055605F50F1A88EA51DE65DC46DDCA3856F873C08E26DA8D29366C1A9AA4AA9E08CDB690ADB1C48099E270FA0A85F73E52FB3C097894270A8532D5B6249EE97BC463BCCA9987D11B289508096562BACA615EE7BA5EA816D1316E0A891802310C4AE254A9D84A3B986E2DE208CB7331C0AD403B846E520B2620545C12E777C344A8D29815C28F00A62B944C592AD98613C2815288C3C14D4B975E38A870262B502256B31B50634CC1F515BC3DC833189332ABA40C6C4A3469D4A7788A34C511AB44B095C520595DC3319E792364CA32CB024B912D8C11CCBB80AA494982A28AB8FE498E8343C59FB84E06264BAE5545C34F0268DC0854B46586CDCC0100704D710C04E74FBA3CEDF531E757F934E2F27FFDA0008010303013F10302CBD728330DCEA5DA3078407514B72D0AF29A38CD82D180886AA75A256E11BCD8371BD102346334DC062EA1B3D4A65E2D2C33B80CD45215E3B8B7D54D818FB8421660D77065416A3869992E0547EA0809C5E21749BD3C2C25C33431B180EE31C4BDDCB964F5804ED619A967042EE36C198FC172D18EE095442F2E8C319D99521422701768B088DA03B8512A34720C4C3710ED886481326668458187944EF34B86A51A975C7972959C2B8B994D202941B9772A6FA47139DFF00D866A0C547328EE18C4D2E3378C46DA512B5B1AC622F6B8700596ABEA3815894A630C30F280CB688960DD4352F3316EEA0EB08DB086E2C5E600E353B48543CC71A86B0818BB8954C2630690335C17CA5F533350F58AAA69046BAE2C4AC5695954511AEE32DDC0EF2EDC43151C04A95298A60086624A171C0DEA509EA3ADC16821B9B92F4CE8105472AB8A812B90835244449522205B732713922DEF9CC3E80CAA5046A517770A4A9724EA2DA89DE19316B13183888F0B8638DEA80C338255CB6619DCAB72965B8180512994B20D41B465CB971CC44431B6711854C63CCA16261D92A054A3E90A752AA45259328C38199AAE308BC6055CC8DC2C966789D086B50D2D84708961425592F2A3E5CEE28CDC134C0B718A8C4CC4B2DCF211A50D46A590766E548F49F8F116364D0662532A054ED27BE1B84A1B972BA8600813A9AB46AB71454361BE0A254313133A940372B35124CA24C21DC01FA81E21278DC7B392571CB95288601B1B815FCA3A1982ECAE083EE378772AEF335B3BB0E9CEFE2852578C353594465342218AC2CF79286C2E6B164163D5915BC3A98AC8C553612C94959482CACC6B744712C964630D544A531672D37CB187EA2FBB876E2781CFD2FBF11C3638FFFD900</t>
-  </si>
-  <si>
-    <t>Janet has a BS degree in chemistry from Boston College (1984).  She has also completed a certificate program in food retailing management.  Janet was hired as a sales associate in 1991 and promoted to sales representative in February 1992.</t>
-  </si>
-  <si>
-    <t>http://accweb/emmployees/leverling.bmp</t>
-  </si>
-  <si>
     <t>3119.15</t>
   </si>
   <si>
@@ -195,15 +160,6 @@
     <t>(206) 555-8122</t>
   </si>
   <si>
-    <t>FFD8FFE000104A46494600010200006400640000FFEC00114475636B79000100040000004A0000FFEE002641646F62650064C0000000010300150403060A0D00000D42000013C000001EC400002F56FFDB008400030202020302030303030503030305060403030406070505060505070807070707070708080A0A0B0A0A080C0C0C0C0C0C0E0E0E0E0E11111111111111111111010404040706070D08080D120E0C0E1214111111111411111111111111111111111111111111111111111111111111111111111111111111111111111111111111FFC200110800AA00A003011100021101031101FFC400E40000020203010101000000000000000000040605070003080102090100020301010100000000000000000000020300010405060710000104010304010302060203000000000100020304111012052021130631302214321542233324340743351636171100010301050406070507050000000000010011020321314112041051221320617181324291A15272231405F0B1C1D16230E1823343532492C2E2738312000104020301000000000000000000002120405011000110708031130100020201040104030101010000000001001121314110516171812091A1B1F0C1D130E1F1FFDA000C03010002110311000001A1AB17D49B2A8E19D0C2FE8873C1A13ACB24C9324C9592F5D56B908BBC91680298664C35F3E2584C9BAA7D84EB86E87E266C9012A9103C9324C932564BC9324C9324AC2F3AFEAC9CEFCF6C8C8448CD2FA1F4B770B8A60FB2A752CFB93E6EBDABF65E499264992649E495AEDE7F3772CA52AEE86B1FF492D2DD1086B4EA411526147F443A1AB224DE061A8C8966DD7B7324C90225F2062CB3F2FA3373D3698A195EB40473C2C662F62CCC3AD353E0ABE0AA45647954F043AEBD93EAE65CE36C38588E5AFB1CB79B64029BB98B0637566D360EBCBA641849333E8AF14F746E5B25D9DBDA0685CA0D4B6957A538D7161FB92E1E85977A97323866449E774DA05B825E014789832C69083CEE1A3132B55352DB20CD6BCF85389F260F6474D11D2BA096251CAD32E8D9B94C86532469995345CD120707E8D0E1A72BD314E76A99D48F4A705E7E7955242AEC466E866366F27434A1D53D822EAC768F2BB0EAB67862418F8C5C7D0F84AB8F4E3B0DB98BD01973F3FD3CF3C64B013F076460DCC5631EB7C25454A82D5D8ABB5130502A9591EAC41836768C2FA42CF6B234AF8113CF34649893867EE4DA7A529A73800F0288283B6A88B88ECCC9171734E4BB79DD21DD9595D9AC351D98FCE8531730C41550BA29C4F41AABAE4AD9179B5C55DEB309CD682AAA3295AA1112B508C53737D3B3D9C0764967A4D7CFA99824542061344EE5B43E77A45A0D1A6A8F8320DBFB6A55D8A685398D89262D05F92CE7E23833A88671006A664B0F40BD6DA7C56A451729F9FF004EAC0C87D7964D5B6341DEB717C8531A75CE68C732ECE6082E69F3B176B3021955E7A2C037A2C09393642F13B05E6D165F9DF4B090B4B888657CDE446607999EC88D2FFAB0F8AD338CE120E8E58B709AA3C6BE3E91E71091AA4383D9A4716D9D437A138BDED6506138E0D312F678788DCB26CD77DF4B8696681C5288915E212254C852BFD1FCFE9E76F71F3FDAE5F4BAD6173BF1BB52A55A45D855F061AA82380AEC625FBAFC4E4FEEF2A51CAB239BA7471F5D329434AEA17E8BE7ED2E0F6E97C1D0AF16CBC33EC038FD6218AD68D5E4B31C8358AFA5318744E80E8F0A9DD19A85EE73192C7A6B8DBAB5E79D5391507F42E1B0E2D91BC6EF04B63664D509C6EA112425DEBA9BD8A98130A1D93D4E7DFDA7971EDBE39E9F2E79A0E4ABB0B2B01E36AA0FDE79A0D6D6CE2F781C5B9DD2DACB85D73C0F5ACC8B105C1F02C8ED99BB03ADC8D8E48A67493B254D4B91621834E7BFF1B39BBBFCAD544C983A25F1FBAEA0558F1FA9A706CF81A18E09717DEAE8FEB736C8E8734307FDD5E4B8635D4C1497BF93667479889D0C43E57ED0D2E1E7FD3B10D29737A2B3C3EAE548364D06226FC7D87D6E5EFD19F4234C767D125AB18D4C8D92A2EC79FF003A5CAFFFDA0008010100010502DAB615E32ABC61D2FF00AFE8579AD2FC48BF33A9EC6BDB042C8A3D3958BC6CE4EC7E44F4E2DC8448429B0A6D6DCFF4BE323A1C5472B5C3704CB07C9F4B9FF5E635B4438B638936142155BD7B90F355124752A4FDA5988304C1CE6BB216567AC8047E17867862EE215E9DC1560CB1C846D56B98ED4F9481D63CED2A373636413B712D96A168E7CE0A6CAC53CB33668A7C81F1AC955AE745F3507F3439B050B738562656A9B9EDAFCF5C85915CFCAA91727B13A7639198AFCF2133D868790F291154E76974737DBBBB039D58B8E9A06BD97DB72ADB32EEDB2EE85B2BA4BB598171B6E7AD20B75276B9D004FE4205CAF33296CD149E2E36CC8E8B8FBAEDF1D9C8164B61AD2E75CA0F217AFDB924A3636354F76B355EB9F8B469CF3D94D830D0084E95E9E5EF4F891886DA7F6A8260ABCBDE166F92B81AF95795705CF8A51F20EF3321A566BCDCDF967752A7B5597AFDC2488C5345334A2118D3D8428AF4AC34790DE29C9DEB35CE03E109534A8C053CEF7F1552E3DEABD704589DCC5CE4BCB39F1D9BE25E1EDBDF1EE715BC05F6AF002A5A6E559C6397876B546F603AC49855331BEAC513E588FE9746A763B75CE36279A1C7189C07DBCD5E6C114BCE9317177458142C4E15F9836CD2BEE10F1975B2B1AE72C841A981302E34FF0022AFF58B53C8CBB08C61361CA0173B55CE51F124B0D2E46AC9C15A3660B2D1FBA476C7E7F1D9F1D697CADF69E4DFBDAD41898A9C802E31ED92CCD630F332B3798C14DF6A63F706C4CCA9BC2646D08137882156E31B5E5B9062D430CEF9389964067B15E856B9726B13040A6A0B803FCAB04EE9ED3C3E381C4B647B0FEE0A2E5A169E639061E46BCE7656B0318533E7772505382AC163D86B56AF73919EDBC04245C77AC5E9055E3BD1D8AB4BEABE0FDF383B534E3EEB106EB1C656B8EB7245C8C68DB8B70654910899E463B0291DC7907F8AA71D4457A3CA5DB0FB124BBE763935CB84E3EAF16394E744CECC93BBD7BDAFF6DB3C7DCAD17BD4DFADCC3E4B15772839B96364FF00F8FBE0E620A75A0E3A4B8F8DA5EBD7E9BDE7CDE7B9CC5A7B99235670A37A6B9729C8B9F2CF2E536A4D578269EFC14847345ED28B7ED0EED6226BD1AC73F8913543100B8EA2EB3665E15ACE21BC4D584CDC3C9615A6491BA493060932A356A42E34297967F70987FF00365EAFC431BC7B1DD98F063C04004EAC0A35F03EE74BC2D7AD4A2E4B8E8EFF001FCBC962A5BADC95981FC7FB7D1BD0F3DE8D1C95E0739AE85E0863A20A4A956D7ACFB47253721C651E31CF7732C1578B8CFD9B884EB384DB8C51DA05CDF2CC6B16D7771771F25EAC36C1FEC8F5A75DA1F91FDBF09564F370B9862F72E02299F09EDB331DDE4E37F0F5AA6EA55A1685EEE76411BBEDDFDACBA6F2BEBCA9B04C07E54A196F906C117FAFB8D9DD0597ED8AACFDF976C2399AF6F11D6F6FE6201C37B4B2C2E5FD2A19948E2E70CEEE2706131ECB9CDD1FDCFD7F8E9BCB5B0A3F9253E676F91D86F1B41FCB731C7451C2CB136539D88B95F4404892DD27FE680A85BCAF54E65D658E7268CBB88958D92E43FDE71270CE469FE0FB03FE07C3DE3635CC0DBF6A473BD3FD7FF6EE3CBBED1DDEC70723B02BDC750B51F33E8B49D1F17C759A91F1576DD77397F1D4FF002AEFF91C5FC7BA7FD94ABF86C7E8FF008F88FF00DA21F877C45F143FA2ED2D7E8B1FE63BFA3FFFDA0008010200010502E81F582C7481A91F51BD18D07D666ADD0BD0768741A6163AC1D5A1128AC2CE99D32B7ADE16567AC207508A122DC0E9B8273D650281D7287446539656709C72B6E9959D020741A8D709AEC277741A9C5008BD67A8140EA3A73A14E4D6845A1386A34C20821D4E5BF5C2EE11EEB6ADA831118594350EC74B931159D33AB56E590E58434C2F944F410A308944ACA0B6AC21A6346E9958C750F83D1B9028ACEA34CA3AB227397E2397894918C1E8DAB09C8208F64167A20AD90006891DD89CA28AC2074C20148820BE50E968DA1C54CE413CA7698D03D6514026C6856714E89C3A5C9E549F394EF84EECB3A6356A63B6ADD91F29F5822DC23A14F27749F20297E0E9B741AB0772A37610D25EE9ECC6842F1F7907752EB95B96740A309A138262CA2C694E85399ACA3BA7774750356041BDB184167083B48CE5588F08E92B16116A99BD053028DBA140ACE854213E3DDA14FF00828A9FA589BA14DE88B4FFDA0008010300010502E86FD63D4DFACE6F50FAEED40D03511F588E8082CAC69858585B56C5858FA0D3A94D08C4B611A6D2991ADA88447D11A0098D59D36AC6AE0B1F45A894C6A2506AC751088D0F544328841353C941E720F514EEBAC3B16610D7B6995BD6F4082884753D357E244DD30B1A95B32B696ACF671D4A71E8AF26D323C14D080D0EB8E87EAE723D30FC8E8C22105844229C9CEC22F59D4901091AB70511EE34C9696B9AE5B516A6E8E5F2652023D124B85DCA8DBDF6A6A089413A047785E4728C944A7140614EFCF49EE9AD5137460EE34083917A2ED1C548ECA3395F2B1D0D4C099F099F29AB1A6752329EDCA211EC84AB1A84DF88C76516BBB43A9F829CD4ED22EC8E80A0FED11EC54486B85858D1EED5C884090848B1AC27B2087C0E9794F28272DA9CD584F50C9AC122CA054450E8714F768D442C2C2DAA54D7610D19F28287A5E9DA04EE89B4FFDA0008010202063F02F0C5ED15267026985E5F36C435B89FFFDA0008010302063F02EB7DC41862A2D42C33FAD8C517150DFFDA0008010101063F02DB18C8B47CC7A90AF4DFFC5777120F9BB767CC9F188E48F674CC6571429C3C31F08DB3AF104821AB01B863DCA750869C6661663172C9FA005CE8877350E6993D9B72CBBBF67F31A7F0C7C547F15F86D60153784A9195C6E21D53819E7CB10253189088DCBB6EEC41F0C3F66C55511F009101BEEDB2D6D402A105A8C8DDD66D44585B7E2AC360C13666325965DCB12E5751E85FE950FED4AC7EB45EF73D1CC098937B5C7B46C8F07330CA6EB5528E4CBC238058DD4BF34D729487970518CE1CD846CCC4DAB9B47C71BE3D6BE2FC33B9382BC6ADE25CB956119DD964518E6B310875A053F478B3E6C0C1AEEF50E51C99035D659B9345DBF57D82F0E5F523023F72B496182CD4EEF3477A07C12DD256D6007515C0F3EBB87AD1A742C7F1540B980F166B5427E76B42027675A21FB13137E3D8BDEE8588D231B626C947715C5676AF1046A800549E2700B3CC9E2BB6D8B88EC31C0A6BB2EC09E46CC3A469E4CC2A979C8366013BB4262C9B5CE9CB54860CEEA9699DB31CF54EE8A1800B827917C419C6F09E07A0E2F56B1404AC96C7C3A503098CD02DCA8D962E20627126F6EB52AD216CFC237470459C772910F1A42FBDC7728E4AE67238027D16A8C8D952E9856A0F8ECB0AB934AE4F38BB074C2E3683D2A311E5273BF505CB9DC276F5809AED9702DE1465CB027BD08DA311B3F56002E227B97C2D49CC2FA72BD18D439861BD538C7CEA9024BC636942371677C107E8918BB7A91DCDD17D998076BD13060771B4142A08CA3285A24142A483122D1D6ADF2DCB90EC453B076B7E4A26E946D51CD6485BDA8E9E99CB932E690BDCF4240E2CA60068C62E111BB6991E188F2E3B4C49B772FC5615618C6410E517833E437AA92C19BD2A94AADA63E0AB8F7A10209F665F9AE6D6B1EE8DFC4A7399F14B365EDE8D73806456488CD259EA1CD2C372B0B2B5714B285A79502F1208A9DE6C42D4CF6ACC30BD0300F136486F084EBE60ED75B7DCEB95A5B6BBF1990B9B72CF50973787263DC0DDB799AB3F21A7FEE55F11F7638A6A95E750C6D3299CA3D4B2E9E952A94C0CF20239D835E5ED5AED269694215A8B7C5A5E09EF608AEE55F4F3D4CB38B6866BB27EE5C51CF11C5760B89E09E32796EC501B63016D4ADF7296B2A06B7E1137D89CD412A67C223ECBBB10A73BB317DBF33AA0FABFE93DD0EB08CE750991F6AC65F2F0794AB1CB10F82AF9A89AB29658D198998E4303EB0B55F2CD1D3EA2A4E301808CAD60C8A75CCA72C95079A361469EA21CDFD62C366F0A98711366691B25D77A13A35FE249E54A22DB3059EB472CBCBD698DEA55241A940669CBA90AD2F0F31A23F4AF979B16F88FD670E88FB60AEEA6BD7D4FEAC32C6EA1A79DFC750B131EED9A69E399FD49F7EDB477AB2442CCCF2DE8CCF70518B3BAF978D68E9E5263294B16C1716BE9098F3538999F5629F495E9EAF2039B2969D87D82A509C4C251B251361E81B7ECCB3D4063A7A3F1351506100B4F962290ADA9072477711D95BEA1587113CBD3BF6DA7A56AC82D4E6DD4C9859E57C172A45A57D39EE929D0AA32D5A65A587DCA35E8CDABB7F3370DCB93F53D2C6A983732A30F4AF9AFA54F341B39A24BB8FD2531B378D919183C7710FF009AAFA8A1563A1336A5C760681CC400D7C9951A308B69F43FCBEBEB4F2B97D3B4D1B012F2EE0FB6DD8C118D18E7CBE29DD01DA53C48955F6F008D11751E23EFCD47B17CFE9639B51A6FE6C479A97FC543798842B6714F370F13B7A90D3C84C64019E3C27AC4AD55B5DA439AB526F9CA2301BDB602EE3DA6B7EE5A7D0D28988A12E65433639A6886B4BD8A200B6457D3AA61CCCBFEA086CCB0B5F645CF0CAF084333423744581191368BA2BE6ABF8F572E601BA26E4C8895DB96AE340369B9B2106C03A84A1DA3AB72108CF3EE719A366FC54BE6A8479A48819C318CACB57CC7D364239AFA1E5FE14EC49550118661E9447B2518E112E154A70B6AC07328FBD040FA7B71D8E7630C1194CB050D3FF421C75CFE91F9A8888CA2218264CA757E9F57248FF42A5B13DE8697594CD2A90F0BDD21F727C5BD48CC1F0CA24773AE5CAFA43B1F33975E1920447BCD8E084699BE7727DE020D82D45101A8EABFC8D3EEB7C43D28EC2E3B0A72A30A62D99CB18E24A1CCB7535F8F512FC3BB63A3B859B3257A11AB1DD208CB492969E780F147D6AAD39CFE212FC3BB05F0EAFF00055E21F9ECFB752A7EFA1D9B3E91FF00AFFB76CB6683FED086C3DAA3B4AD47BDF8297BEBFFDA0008010103013F21B42442F91393EE95D8AD88AE2D2B8BC745858EED82D6FDFE9BE8445E3496B0624CD1DAFAD04EB22DF74C63258011652C5E7CCD7996ADC7697B3C33BA461F665ABA396A5CF99DE9D3F305A3B8F7263FABDBF5FF0024129C8EC8A0A8FB65DE8FE2A503455D0A3ED3C7314752C2E8E66660152E7291A84B1713452FCCA11CFF00D81738CBB152A723B2F1E666BAA9DFEB40163847B4288163575CC5D1E195AAC7635A0E5C6499074AF3A42C01C1E9EE6D37D38B7D4F0BEEFEA3C0511CBEA0BBB9A075F8984D9DE1E3FA4B8CA317F8E227D9C6DD9C0F99CE800F571587BFD093CB6BDC590845951CAC196A5BC6799A46F04C743C6A55BAA78A62A5AB90F563F31916F2035ACE3CCA0D4150358CAEE52D2EE5D0D988187909FD9304339730FA47CCD4B57930C05E16811BED0520AC5C7DFF00C874264DFBA8591430B1E0C318EB8B988DAD62C9EE2A9DBBCB8A5B1F0A9660E2E1982E6A2D617B7A12EDF17159561B2C7FA4D70D43BCE58F08E07AFEE3B6B982CFB91D3E0841E051BAFE5A4B08A6BF407FB830A021AE5B073286B4A72117A11C31703FFA1C7956C026A8E116D667F0086BA52356AA1406F071B33158EAF485B93BD39959C57B28E588AF2AECF10709C45A0CD3DCAAB50E3882815AFF0065DE0C488BF13DEAEF11CD55F93FC8EE1ACF317200E1C660350D740D44D4A46A4940D76FDB1C4BBDE53B89B7F2F22FC329EC80328688470E1CADA5F68D47DEF27D9B9DC34CB25D1EB286926AC3853367CC7A97786A050DF26656988140EDD2F6A5B39C5F89A0E9FD45D6F2E20CA1B024039CA306C57610D3FB60C0077152FB272621A1469E4DF7878702505B9B00D7DA3F7C0303E7100088A355AA532EC09470373FDAE2A071B7B8C0A0AA1C94E32F61801EFC4A9CF53712CD133A8510CDF77B768F95CE0E3C8D4754E8515886E2DA87C38238C76B8206334C3F88346E68784DD302ADDDCAC65B081659ED194C2A60932EA6016F671A116ACAA09A1707CD1CCECD42DB1861902AE21B6A6495CD1308693B1D912EF30CAFC621B6C0414B8DC7DE2E18B6271F047DA0FC1DE1D88CD7DB7311AA78727DAA9D70C704EBF1EECCDACEA62EDFD230070024C6B8E1E3CC8076EEC0C86AFD4CBD2C2068A36768AFB36736D4EC040E6D889583A56C735F78001C3CC4FF007152C1CB751D800BE108B475EC2ABC399706A8EBFA7C7DE01B8397CE52F0EBEB29B0EE8779D739E3FD402D7C08B2FB570F330A46A343D9CC65F4348D0997F912C3CDCD7F96DB4041BCA01A4B837A45D62796629791A9549B2673642174A9579212D85197B4A55C767276ED18AD3693E6FEB11D0DC696BDC3F73D94EE3DCF85CC51961815160D7D95DB7A9851B963E8A7DA1CAB5731E461C0DF3078F963AC320D54291079E18978FA5C15B2FC0967686CEDE6D4BC3F709896D9748751319BF5070C7C1BA8DDDC0376FF00C9BBE4D7B035E2D8DB8473B4E024124A383DCC1B98A121E7AD94341CB59BAC4E772971E9AAF883F8092974BC14FCE23B19FC484E44363BD6AE0392F54D9F11BD457646BFB7D45620682353B2C99C86869A45526E06D8B6E1BD1163F30ED8359A4B6B8A1EE411457225B9197829C7F52C56D566F6427858BD9801E03133660174B0C3ABA3DD6B0D1E5CC5B02CBF313FCBFDC0628AB1D867739711725BE5BEF2D26DB3DED36AB83B3F33E4116BBDF8301863C3983CA7C2203B27DE799BC273EB996563A3F03C9CE627C7A1585D3F27E255B910C3D59CA476654283E47A41F3F51623A654DDFF0015FF00B314BC15BCDB2BCEA6DFE6B781831DAF1F9970D6501E183FD64C5CCA47C313BAE83226E0DD93C40196D546EE6F2C57973A79ADCD3026ED273E3BC515511780BCAD271C9B891F4294A2381B80E81030585D766F875371B34637DE7D328C287261845B8D7781362D2A83BA1A426B277959068E18D9D2F9370A0C7AE7CC261429AF705DFDC8BF2CC487A8CF45DE5C86B4733CD7DB93CBE0277FE7BB3BABFDC44ACAFDAF73D07E6657E4DC2F5462DA5B7CBB7ABF11D5CFEB7731D8B86E43CBD841514EF86D3423E5B9DF4D2DA2AA0F19F5714A30AED85A03E76A65E133580AB0029AEF193A81205D017EF53C98AFB332D00C540F85D4D9C7A8EA9E4750177F888BA2B3E65D10314CA66C8F03F125F973823285BC5B55CC28B4DEA6CA3C4471B2D2B1FF0015005DCCFBCB070C76652CE5CE1DA1B7E23092776166E9571EA6190A0DA519EC0E7DC696A53B1B0B85EFB844FF00F4CC3AAA17C99821A9EBDEF0F9313B9F543B0D20AD256DB0D415C4C938E1C4C201CF78371BEB71C4F9D21B4A84C506A5FA3FC65B538AFBC7DD755956F1B1F373797CFCA0D88FBC2FA6C2AEF445ED2F0356330B6613D4B0C21D18344158D546B77276BBFBDB3CA968EE23BEA62F10F99C4AD9FF00CD73BB8B10E83F41F07EBF08EBBDC455ACD60ACFF4CB756EE3EE6A2CADA310A80A1E4705EDFB4A15711DDB063E62F4CA64789637F13B586035E9D9027BD2FE0CBF32D0426EDB1B6B9974C95751F1E11B75D0EDFCE67F99E67E07F6CFDBFDCFC6FD23874FE6BFDCE1D05F864DF3F313F77F6CDD8CFC17F53F03FACFCC7EA7FFDA0008010203013F21E8F419E95FF34821172E5F56A57FD02097D2E5A2623E8FFD14B9704AA85324183AA87A586E67E9A25F58A65D04DD90A4B19842B195665D2E0FD14961888C6E5E3A94BD3B5DE3D04EB3B8BD1A7D187329297D075D4D65DDC62E90C537F42BAB2B742A9467AB61D2A27D10170574AEBA41C419B8D7539928EA50E20CB8A5742E854FD2EA2AA82711654571060A08CE2C6DE01825D4BB8D84BFA1C199B4A4BE8BEAC589331AB88654DA0119ABE8BA39D708CE503A1473D42332C43745E97D5752E649662F310C38CBE8EB135185D752448B658DC058E9304410A224248514B743BE16FA7AAD0510FA16AC66C200DCAED0E84043047287E91A271CCB514C1736B8460B3A0CE6F491311CD4D8C095D18BAF106AECE7A0494CAF4A9B4450374A0C2A1DD7432950D03071D526D17198C024B318CB2368AAA3C42EEE66D3F9E220F28BD172AE8086E3B8BD0430B05CE5ED2E7A29A8566C498F2C768832EFA516E9821A7A3D07AF44144CE30E065F32E43C1CCBF69963EFA334A9B8F43A9E581D73377B986A256600CC66DD2DA6F3586FA10DF54E9DE3D399A4753FFFDA0008010303013F21FA074ACFFC03ABF5D4B9707FE83F553A543A5CBFF80CFD055F5D48744EA423F4DBD0E8661D4AA8DA5BA19175ABFE08CC4A4B2587420F6EB08D4AFA152A27D27454B2007585812113A6C24AA8FD1708CDCB65D383A378755E87D75F55C6A659890779C39CF4B8CF562CB867844FAC83282FA6252862611A44D749A22C74A83E9194D26902FA18A8C371AA1A132E9AE6E0AFA2370A8D2691B987A15309B8C6D0C11CF512BA0ADFACB2E5DCA42FA115417D42A7E8579704D75F779830E47427B631D091E60485BE636EDEACE0455B73D06199B8CD7A0C70C1738F5DA32F433F4C4AB4FA53D27246684D65C52AE8DF07A37B750055A5F77D21D4AA670CCBA18F537A4D094312B1D2512C8F474C267D41B86A1BC421633A1308DE5D0E63A8B4621D74A66874B84553484A8AE822EA628B1833D0D6B895B63E6372C81D2F966333EA2CA95D0B61BE8CBA8C099A12E15C692C979F40EBABD5184C257719D54E97135EB7EB3AC3A713684FFFDA000C0301000211031100001089F52C9219F49E142F2AD82032480B1AC6A90671249209898E29E894292104BCC36B3AEDB942EF9AB55320B4BCC57A3EB558FBA1453874C7029600CC68FA0AEFD10B6D46FE43E477E2AE24F93C0889B407D9F7D687DF7C3D919D27B7A0AB789CC4A602C9D70F0CEE7B761D249692C6E870B224BCEC677F4D102DF1765DDF31DF4A78A5E30ACA245312B39CE55CB14A408A37FD8A72A6C8E8037896CCF392C13B35074E2A50FFDA0008010103013F10570173B798C86484ECBCAA0674E68C4A36D96C0005DCD1728D8F40E07E40E6F46DB1BD57D2812DABC1D29B929298F64AF42B2B79CCB9B739EABB187EA025615BA50112E14698E58852BA549815CEC56C2B61E564C007CC702ADE88B5747C4741020ACCD0CB46580177CDADC0341403E572E21E6E6036FF00B0E8505D3E663FDB4223969576C57CFD083B80001C68FA50000A4C88F0C163B59B28099709E8BBCB3198E2B897740C4B1E5E61E551103C00B4B800371697900C4198525DDD71713A508D19575802F98CF2DA039DA99BB99F4064C66C4C32C2C2DB748B30739D46C0C3A48D6E50DEBBCF0BEB000746B1584478618C4F0B2C2B91075044A9880DA200E5CEB1B65172046EBBC600D604142AC07BF63ED0481DA3906950BF694F80A9AB940B2F7861D6929DCF70D9E633752934050E31BA822DD8AEC759F1882E4A7182FBDD4FC2055FD9204596DAB079A48003E4A993DD03F9897295B3D0168184A61F8AE60F7C019AAABDC12385FD1AFA229E60D5F35701603B44702878A61072400C9C44202C28A86EA73F93972C180885791C8B2E257D2BA2A4E4037EB7282D0417B59A1A1E657F2550A03D83994CDF4B5EEBEED9F9E49474EAC90F0236FC434B2B5013392B312B74D6E7D958340F99B7F170CDA43012E9941F690811E4954896BC239A17DAE50F540E17B2316AA0545C14A67ED082CD16ECA79B96C81E84B042D415DB0A5D8E4429A3A986E7C049837EF23B1F303CC0C95194A153D9267D1BA0D874593F3550C5882C8058A2D2FB0661F590298798D6A5402EB4381638034501F89764443ACE689A9BF12142C760B8E286DA156EFF005062F49A010774BFA47999915214DA9877898E27B0B662F574CE625533AD5273C554AC2A29766158D1C8DD242582A800BA6B30A39A326B02DCC344EC57440B1825ACE47B949F317DA802EFD219CECBB988B99BC988D234B05C1BA0A058360EC003358055D04AC160645E90B42FB10E5174D19D73324C06AE5100AE45BF98D8B9034CBC0546558159F67FB86062D8E8714F8C903ED16AC36B20EC583C64DA1BE2D554C1CA0C2BC19B508EDAC6751B343E3C418D1D2F788474652E54D73163A11C19C97556C6AE20388245E427906AEE31CF54B2380AC61C8BB81DAAA831AD896967EA1663CAD96E3B1EB31870A41CAD3B6B89FA46916D700C7570DB887B20B7E271A32B8ED44B4537CEBC4AB0005D2342B4BF3150D7C0AAE30F0FB80A775B040B8C63C106B0185EEF699E2E817EBA2E44760BB96C6AF2EE9FB532AA8A6C782A2A324C5F9CC78408B51B4B14561DCE2A4901825BCE8BDC3AFCD8D8C5129F032B8F56F06CEB0284546A164B42D72B4CD0F62C28961947638619F12AA01AC52BE60B2A0FCD966AE2ADEF1B3E11DBEE5CCEF6B176EEB2588100294CDD8BC3C8C5EBD83D4AE42AC79E6572152CA0297BE7997D2D46305C3C1D4714A2C6429EEA356D547D96863508D0B19EDC472BC006A0C155016D6562EEF7750DF29428C8B215EF4EA33F64579365D1805DBF02C0AD9937121F898B231E4E615DD35BDCC174A75DB74DE52010534565E4B5B39C4646455B8363AC3965083BAB40ABF12866B6EAAA8D1330B80E1A0BA506CBAF87104B83CE1BC6BBEE12201C0AD66331708C94DC11E056C2C1849B728C95A61EE1DAEF5EA200CF78E540597BBA95E08DDF3F787C8ADD959C3CB154F100D45AA3695811C39388AECDA745381AEFE108D2C8059CAA9C3C8C18428D8E081EEDA788C211C06828AFA0ABF3280E8336400D348CA19369F74E6F3637CCABBD67682B3E0EE41624814C103554F77705D2101885A5CB1C8A762D14F2D843AD8CCA217556F2388E519102FF00F3987B64EFB95924D08BBED5BD42667258B542B8D5D4321E04C69CE3B2F7091ED82F02D1C5B00CA160587CB7FBA94825A42C1D166FB46AA042B2A9B90688868376C47D142144F136979CF1112E49125253C286C6A0636F2CACA2A151D523E7B898C2E8C50658F36C1D94B1ADE16BA76B60368145457A11D374267C9B8AE394BED687E21AF5A6AFCB2FED035D9CAC2CB66ADDCE0E589EAA8E55AEFDE0CACB30673EACA81D32E50B23A39CF9805B6BC891CD1CC7E6858EEEA3B5C283758F3EA35B8F1C2B2CF8C626D6B93680E1620ACE6BB731D3BB2A29D01A5C150A21933E0E6F8E4CD573AE672C8715B5690CBB0CE2B51DD211E6DA032DCCB950616A8BAD5385336EA3C87CACE630DD2F930C32C93B740665876DC470A100E29864ABF1860ADE5FC987F309AD006DAAC1D26AA1825841AF3B2A8BCCDEC8159EEAB6042F32B855B2B37CD24B8FDCC1A8B6FC47866529936DFC41C2A0307899CEECC1EC983F0B9E2B4BAAC647CCBE012AC00663B5F8892D1B7410315959B36B4D45C6A6E50560CC2A8460E4E50959A041C592020656ACC2754C6912D196B0A87653D8B296D9814231CF3297F463341B827842C50897562A805A030A380944C294BF5CCE20DD5E16F6D12740C5598CCADDEB569CB070CA37E25B9E90B6992CA1CF12DB8591951B2DA2ABAD423596C6914EF1C043AB10BB86B31F1A29D4D85E568799532C6A800CD6AA24446956ECC0060A3B92E6FDD111F68AB578EF134854A420DB41C802B22F4435A1840C7CACA08094620A354D1498C558C70BCC05E21B15DE597BB999F804CCE4E6E62A362F9E6627BB10FC426A15B062C25340BFB846669202BE2D86169DAC31B0AC6B1329C5E84A82D2150056864576860CAD05655AB42EEA7865F9A85EA511555A39B0DA17868FF8AFC44715BB5BFB45642063E00231EDBA25C61FDA0A6F72E8860133816057803DCB2AC0E7A22CE8ADB4E72C0D24DA2539016A10298B79431F72A8A5CEC40F2859DAE5A9A39F17072D855FCEE46EDBB75C663AFBC6AECB29C5C655710E23BFC156D3B00DC7E6570104F61B5F4987D9816AA1EE5A1DBCD4608ABEDC17360D2F15A2216CAC08688AC36F7C47463895019502B9CDF642AE6AF9C0A45943B97BDCAE8401411C88EA69A130FEE6F7D19100032EDA6F372DE297DC2034A0BEE9285BEDC50AD380D5702C570FFA83411E17B7F52AFD4262D6FBF1AAF6DA1AF7995F9F440BE55D9DFDA36F6A72F3FE7E62A3920D4C0F38596DE8D845C0ABB9DDCF172D90B4465063168E3095EB9120669DB4F70635556F0DE7F531927BE729865589B6AE202B6281BA2E9690715AD5BE2E369385AC805908B9F718E28500DD675B4A8604352C4C460A3178316BF0BBA1B6AAE212404B4B34215489B22E0489A810F02B82DB84CDA087A7396EAEEF707A073316959C7696B8A532B548657E007DA5376929F31AB60376F1DA55AE5E4FF9165F2152AD4E9AF988B08B6AA058A1419DA6C8E1B16165F63CB339A44E6867C3A28710B4955E431FBA83447CD4979599B98324E96280694D1A0A20C22C5021600C6990EEE3C759EFC2545B540C5051A506588DA9B2A576014199042ADABC6EB822004940C4A189824417C8AA356AC7DD9E289CAC0065C79A136ACE8D54B8C72CAD0A2554A8B56B703952169DF735A260C8C231AAFD454FA4F2DE18D2838B46B52CF8C55B0F39A87894E5BECA084F04B00763055A83C41877C10000BEC1A8A96F61DEF94C786F4EEB07F70F0AAD0341E6D6098013566F214818A03EE846B916F98565AB6858958B860EE5435CBC6215180DD6A16C1159B85BCE4EA00077BCD0B728DAAF015013C029A24512F2AD5E0AF337924715B6BDC71585A1DD1BFB545B04FF001CA989C6C505D7619903910C061A1E9715EED786133E7E868A5F7995438369E2A1B1E894109ECE087CEC0E518BD907E6CCCE94FF0088EDBC17E7F88C6860209C1D791871479A3FE4CE5CB445DF027912158D56F4DD28D7CDA5CEDF1A69DE29A582F0421742DAD2ADD8992FCE6C59A3EBFB9FA70FC2743BD5E9FA742FB7B10DE7F21DA3F77F73F8CF13F98EC4FE5F53F9AEC75FA6CCFE53BBA04FE0FB27FFDA0008010203013F10CCAE8A9DC74A5DFD69702BE8B14B5EA30AB8951EE322806BFE6E9F12CEA72A8238DC437CCEE3048CA8EFA54A7FE00911D16372A2DC40944283A8157033D06A4B918E2110A1987D09169731DBD213486798A150B152E67A6568CE64545A20626A6B705837D2EA2D9672286B94469CCA97355AE654ECC076484D3728C115CCB20C4BA88416A68E892A57417EA5ADEA389282C948198172A2691DE4A245D4A1CC33530C55437159F44C682376A3135BBC0C92A683128E92794444E8AB5149C108AB12B5756A5DB712652BB4B7989888E27317AC84C6646BCCC25B2AC6B287133DCF5D06F5D1231D260DD322711094731F1B6976EA25E61AC80688B610499660A9415CC42C6252AFAA5FA84E18CF7C354884AB2928C33152D477654605CC895C53145998BB8583897165D470D6E00A9285B96B1021BE6600863086014B1A9A974C494C903F54B1B62C6165CA111D4B264D1116E6C5CE3AE09AA99A02CAB872C405E22732E262F710A95781F92215001EA23CDFD7DA1CBE65F45C7223BC570901C8CAA20544B9923ADC2C36D18CA881CDC7635F9E25747F0CB0D418812E62BFE622C3DA73CC47288E5731EA0731AA184C308F047E61D1232A59665A9442A6E2AB941756A1B8D2DDC4788ECBC80312A3657C4BF07F5FBA9A954EE6FA131D192578E606EB2825843B1982C98BA14351C445C061CC1090A0B98902319559ECFF00B31064D91743C1CF817F5704EDFF00DF8E800DB13A155A4763A65C86A3A49531AD25CFA65A6A2B4E6A56AFB539F4AAD78B82118D3CCB1889BFC1FE31042ECAD7F3F152EAF682CF529477688CA06615D54C1898331D84CEC92F84966E033CC5B47B99E4C7EA2A86A66DDFF9DE382A9388A1DA36DD92D22A86017865CDC59699A6042D89F7952733DC436CCA146E2DE95D42ED38961789E807C715FDCA1CAF881942BDC7117BCCAA1EB73D030CB3A966599BB2658E19A88B72A6F297196FA4ADB6F867CFE82756A7A37D2E5EAB7E3A369A3D41B3518D7AF99AF5F13FFFDA0008010303013F10B972E6A02DF4E6FA6FA25CA3AD4885D45FA6821DF1ED96BF4543B7D40164C5A952E05F4638EB5A263509A7D6929E8A98EE5DD6E38C4A89C46AD3352E8892EE33BC44A71F48F46D15AA8B2D08A99E6176626412880764B3503C4B451D28CAEB72E50D305A8411A63EB0736E2EEE4A742836E896B6CBD84B4F48A6E56EE73C7E8DE15D4B84B399626395473E6056CD1131664B961647D332F4358F4BE859BE208A428B172E292F2D61D860A2530C32C963B8E9464898CC122DF5AB8B802393422630E3E609913D2C2D15101DA21C4482B7D1A32DF5154325F3F4302AA13E44FEE0984BD712882371E24060388B8AB6CCC2CD23154AE1DC58DC17245ADF5BC9703E42225542C5C89043359CC98918E5C58970CC38841423BC6A3DD1D4507BC5D854A9ABC8D42A30AA565441B5F4B0858221BD71174089495F5667022A8E111840CCCE2419AE9718023ED0154BB53711897A2A116ABFB8FC0AF895D5CC6D8A8B4CA4130B35E219D98C995938E955A772831065FC0473B439734DCAAE8D2DA0E5DA3BA430C0C6EF2D559D888576319B580F4DE235555C081A655B865B9653AEF3EE591A30F408C62E546E024052103844E2EFFAEA5794C32C62545BB89534144B8AAF100701628DC4EA52DCF111A460D350E2CED15AA10122EA59071999D824F93516A6581545C02CEF324D9053D371AFB7EEBA1DDB11175072371C0AB462A60B010730D8C62C56A11BE7A0061CB2D548BDCFEE58DB26CED19A15FBFE926012502E2E502FEEA04815152B6E6D985105B8E30992A63D212662D9BDB309721E1FDC1B9B2550D6E60BB437505FE6E3C905B2C8D0B30ACAE6A445101512EE739C741BE258747E603B9287300969E6382A56CC063C4F38B98E610CB14312E1258C12EDC329899B564CD04508AF1D4D3FD475F5374DA1AE86713E7366733627AE6F1D73D1B7A3FFD900</t>
-  </si>
-  <si>
-    <t>Margaret holds a BA in English literature from Concordia College (1958) and an MA from the American Institute of Culinary Arts (1966).  She was assigned to the London office temporarily from July through November 1992.</t>
-  </si>
-  <si>
-    <t>http://accweb/emmployees/peacock.bmp</t>
-  </si>
-  <si>
     <t>1861.08</t>
   </si>
   <si>
@@ -232,15 +188,6 @@
   </si>
   <si>
     <t>(71) 555-4848</t>
-  </si>
-  <si>
-    <t>FFD8FFE000104A46494600010200006400640000FFEC00114475636B79000100040000004B0000FFEE002641646F62650064C0000000010300150403060A0D00000CF80000147400001F5300002F80FFDB00840003020202020203020203050303030505040303040506050505050506080607070707060808090A0A0A09080C0C0C0C0C0C0E0E0E0E0E10101010101010101010010304040606060C08080C120E0C0E1214101010101411101010101011111010101010101110101010101010101010101010101010101010101010101010101010FFC200110800AA00A003011100021101031101FFC400E8000002020301010100000000000000000005060407020308010009010002030101000000000000000000000002030001040506100001040201030302050402030000000001000203041105102012062131133014223223340740413335501542241611000103010503070A05030305000000000100020311213141120451221310206171913205F081B1C1D14252722314A162823373B2431530F192C253C32406120001030305010000000000000000000021001030406011205070800112130100020201040104020301010000000001001121314110516171812091A1B1F0C130D1E1F140FFDA000C03010002110311000001EA8A9F9E78BA58A36CF5698B45E516027B2AC9A7433832C76E73242D6DCF38D66F672CE6DE6E8CD6BF99AC1A037EA0F067E7C62E96856B909D5AA5F827AE8B7019753DB018E44B3842CE6A3DAF06A7E67ADFC7D68B0391AC1B1593ABE19C338BA09EBD5B93ABDA6E353E139A0C3AB635D130511BAA9B74BEC4B5EACB74F5FCCC2CC41B3B5936272757C339972EBA091BF583A42F4634522883E8C8616767E7D5A13A8C01C96023B5162351D0FD3F3BA52A14B6346956CD23F0CA3B2EBE574EEF56ECC34E8ABD261296D2625631AD3D7A25E6D76E125629CFC59ECDE8F0663798254C69D0BDBAC30A9C6B87B69026068325E9F81D8587B71AB26EB1D669053103E8666398751C5AFBBF8729BCB149634E956DD63CE987A4B793791975C03401527EBCE5326E3D9B63D29A66C6B83A28A2B40D763EBE5D298FB5703B9CF5D2F2C3546D3A95B750F10713D1ED53D9B36E691A7AD1986C3A99E15AE7DCEA96EC62510E8B503C299746EE5A0592A66D5D3FD4F291154CDB9393AB85B85E9658349234BF89C6D02B49D772379D4835CB9976AEEBE6C06E71BA713825EFC2C516A1EF9FD3E9FEAF93848B3FD04FC7386B87E93729E5D4DB98D54CF47252A52E8E2FA2BBB473396766452703A62DACA35635C98CAA85F92D4CCEBF7A3E68666631F453E9CE1FE1FA4F52F36B6DE0FCA82F04E5BE783DFC48EECE5526D3FA31A53A47E7DD6A3B151878EE76E1B0E73A12CDB37A7D6D71070BD2F8A73025D7669CE91A73055B182C0810146A4A9ACC316E1A70C4A6D53C8F4B4F1ABA63670CB526228D875A327570DF9FF51B818D297DC1A928FB3980EA1D1B96552487740CAC5B74673AE042E6F7AB695D33B7873495F49ED57B7387F85EA8BACDAA9966E85D57BF88B04A08AD2661B792DA2D7BEEB710A49B7783275D746E9E46025910E455ECAE29F39EC190498EEC43B3D57D3E034D142030C2D5B0D31582CA68C487E87D0668B34D452E8F332F9578D5FB271A79EF5F6054C2C2A1EA70C11AE7C8C60702AE1DDEAA3DE2C36576AB11D07BB97180802F416209F6AF656475C85E73D8D812569B794ABA716CAB8527B566864BABF6595B21CE07B36BEDE0B61F9E38980071535908BF6EB98FCE7B19E4AA9BA9C28B7354BF6A48ABD926FABC864CABAC36E4B6875D5A39FBA9896E68055680F4C69666964AE78F39EC54F7729574E3175466CB0922D4D1537D590AB1D255FBB1360B9DD471977D93AB2C45E9D161810B333373A79FF562BA5C71A42B743E48C3097E4272D3EC238CDE455A6BC4E02E638BE8F56A9154F24265995505FB2E28A9E8617A2A677004A9D5702501AA8B22A10E0CA0AC53E568A85D83BB33ED67AB6435C881A212C09AED156EABDB7264BF4A8155E03014B58A15D209ACA8CD1755EAAA5DCEE955E9B9566C861BAAB1BB5EABFFDA00080101000105023E82EFEE2B14E2BDF8C20AB9C1ACF54C89EB51930E87D10CE75EEFC4A5196B9BF8E2186F176322E444044F056535576E55384854BBE3737F4A6AF2FA436AB96B77342BDC4FFCBF9A51EDC795539286FF00283F8CAC7AC713957C31413C3974E238E09DB61C257893E31616BB45AF81AACBFB5911FD41CFF28D1036659DA5A4976386BC304B35891F4F5D62C1D678CC8F8EFB6C6BA4D4DC6C9B0F26DBFDB5FBB7B63157D70F2A35684DF354B4A3FCECF6E3F936EEB7ED2692273E34E2BF1295C72D635AA1D93221A9B1BDD96BB78FD877EA672CB3B6D37FDBB6A411B8C3726F8F54F0D56533F333D939CD637CA347B5D9792DCD0EDAAB44A5A3E40577045AE29B5657BA9F656754B4F0CD816CB62087E37F8B4826ABB0A5A71252A15D8F66237D951FE767B2BDB597E26EE7E45F2BE466C7432DD9EDF8D5D86BFF00ECC2E85F950E734C12D7D5608E6B01D6E35E2B73E3B3E45A71B081B7F61A8B34772DB75653F2431FE767B296D4F6503DB1D798166B09BA63657AF25AA9ACD8C9E4BE0ACA55EB4A0AA0F5B7BEE8A08A46C062DA51274F6A2F99BB985D06E7ECADB7C4AEC9621AA33AD8DBFAA3D933F2C8554240F1E63A2B5E5BB9FF00AEDE43BE9E4DA6AF6B05E6F99F8B8D44952DC71C573641F2C93F73595BE66C51CDF0D686C50ADBAD9598F65E3955B534F1B7E3A507ACDC45EC7DEA3727C72BAFE54AAF97C82217AA49E2D77B0EC9F5DD1F9569EEE92DD6ACC92687413976BFC72CF654D252D735B735BE4D73CDDA1DE53A4884B6ADBFB594DD993868EC7054FD0F8EFB79B343B791EBE17A975DF0C5A789FB3A3B3F1CABB7D649FC5BB87883F8D3C9AB48DF02DFC4D97436639F434ABEB686FBE2B3E61E29AD2DD9DD765523FA8383ECCF6A032ED2FE18FCCBFDCD64CC28DFD8A3BF65899B62AB6C6B4AE67B5DA505E86B57BD1599E016B67E355BEDF5362B3A450549227B7D93FD546C2A8C47E4D565ACF2770936B0CD1E58E4D726B9772CAD26CDF1CB7366F6DCFF00E863B2FD63FBEF558DD157C12B1C678AED55301D45E3B37171963656A38E78C5ADC6B554F326AABE45A9B298E0E0A238936DE72DB3B6F2226C55F0FD649736A7D17A95DAB1C067AD2AFDCE920C0D96EE4D7D2D75F7141D952774667A905A53579614D7588956F29F20845BD86DAFAD5EB6DDA9FC6FC377CCB162AD3D5434EC471D41EAB21772F550E5CEA158017AC8A51D974B3C934049A779C535E1E26ACF2B361ABED229933510B9F6F470C10F87BE1D2595357827575D62DD91339B376AC71421EE737F459BBB5F3CFF002617E9BD4B4C3D43348C2C9907B1C835A157733BBC936AC82FD27B27A7E2DE5B059BEA7F97E2AF0B68C74AC7CD1678D756C2D959FB7AEF2492DCAF81C17C8F8D37E19876F62EC76439ED4C9BB4EFAD1B1B4F13BDF3D5B565E36FE2BBE6F906A5C702E415EC3DB6DD7E58668E57A83F4DBB673E59258D1CB4C2C6C8D747D8BECDAE05F2442BD863CB9CD7995FF0A73430EA6EC9AFD30F1C66C6B78DEFEDF8D5FF00B98AE536FE256E2B5141DCFD6C2D77736594313E30A7A41CACD2705481EF30B656E1D5A5C413B6F6AA78CD6B965763AC3ACB1A6D491BA0F15FE39F268F53B1D8F8950BEDF1DD7DED152AA0B96558AD4E8494AD393BE2731EF64EFCE13EB472A7503048C0336A16C89E0C69D6DC16C2771505A95F036073A6FB5FB9F1F8DCE89FE23B93B8F1E63BBA48FF004D9952B239D966BDDB36AEFECE1FF1BBFC70FBD9FC8FF62ACFBCAAFF00B53FDE0FD96ABFC5B8FF006FFC53FB38BF76BFB2DEFF00AEFFDA0008010200010502E0FD01D0CE0F0DE83F482087BA770DFA5858E8EE40F0EE1BCBBA822E5DDD0D0114D3E9C3797F0790B2BB561BD4C3CB79C2C74E51E86A2101D0DE32BE45F22F910917A23D18E01F578585DDCB793CE38CA3C04576958432BB538617F64DE4F2E1C03C6106AEDE72823C8E4F0D5947B4A3E8494CC224AEE5958584D407ABB81D2C4782135A9ACC2C1442EC28E421E8021EE786F0796A3D195959E08CAC6104161613783CB5058EA695947D501F4421F40F039C753467AB3D18FA206501D785843D3E9307D11C0E0F5019FA43969CF5B07F478FA4393FF103AFFFDA0008010300010502E1BD43828F328E83C843E9B8270F4EA6F03A72B3D184475B381D072830AEDC21C353DCE40A78C3BA58D3C0E8C2EF40BB9F6E30A61D4D77A772F640F3DA82C73226925128FA8E8017C6BE25F1A2CC204A0874BC7A44FC2F429D1F4E10E8FEC3087078EE0B28800F7ACE43BF3740E0FB464631E8E6A6B96517A2F5EE8657694E18E0FBF40E1E7D1A32D68734FBB5A14A4A0D19ED6AF40BBD33387FBB9DF87AE4F667B263F09EF011932BBDA5364685F70C4D21C24392E523BD3A072E43DBA31C14C7969EECA29FEFD010E1C9C70B3D4E083501844A3F40A7FBACAC7480814F3E9F41EEC7402B28B56392E081CA3D64E0139EACAEE5DC9D93C650EB91DF473C387016511D0E38FA450E1C30821C1E643F4C7B703DD657BF04FD32BFF169E4F27E91E7FB7F4611F71D5FFFDA0008010202063F02B24A1D6EFFDA0008010302063F02B24233047566434237FC3170BEBD9831A8CF27FF00FFDA0008010101063F02AA95C6F2F713DBFE854223172C87CDCAE67473E761C1EFAF6F3E8A847254F5AB7059B35146C32039F74D08B2BB790F37C42070FEE38B7E579CC3D3CDB392D428F15EB45E304C07BD44F605938C6FB688C8D666756C2EB79FA7D581FBD16527F330FB0ABED0A9CB9F62DD71030086793CCAA0D7A57027DD6BB1C0A650DF46809DE1DA6DDCB4E349D62E0B8FE1AE68941CBC3A667D3D08788E9673F6ED6D658F591B41EA1C351B8F780A3BAF9D069A4987DD46FCFC0169C8E5F4EE75DCC6B079D57B511A7FACF6F75A31F3A063CD04A1CFCD1D008B2D065DEAE6ADEA2835B271329B2953DB54D72678A697F708AC8CF8A9B3A56512E5737DD213746F21ECC46D3EC4E87F573733CE502F256BF5504C3EDDEFAC7256B51D08BE460918DB73C7B3A90AF25CBE9B4D7AFDABEB8CE3E1AFB10608F2F974A2CE27087E5565A0629AF06E5C276C45BAA2C131B763956175978A28E4D9676F34CDAD91EECBEE38A1B97AAC2CCEEF8735119786E86B7B1968AA2FD347248E1865AFA165D431D19F85E08F4F258AD2B336C3B518A1B5A2F7F2061362059648D158DFEA421D502DA775D82E9013641EF0AF6F32B3BCBD05BB6230345D7A1A43DECB9EDC51D26AE06BC116B5D8E29DAFF086968877A586A5D566D1D48727023EF3BD0897DCA8E7E5EB41D0BF37526E7983B2ECB7D09C4C81C311B16A73772376461E8507F18F421CCA2A6D551DD75842834B9AD8E3249F9EE4DD4BAC646DA306D5C22EDE3DD057F98F0F1FFA92BA93C63FB4F3EA2B88E37DC8B9E5582B5F52925AF76E6ED50360B4E50ECA3A2B5475F334430B403BD654BB0A74A0D7C7C313B038B3A4B7DAA2CA28E96419946C38300FC398396A547232A07018091D65678DC537565D6BA8093784DE36F69B5CCE14CDE9A28B4CCDE85E0F025C085C12FDFE9344C6EED48AB6DC13A58DCC686D6A2AA2D4F886B9B0C66B9EB46D079D47E1DE10DE27876888965D5381AC935A03466170AA642306368BC3F48DB582FEB3CDA6CB796D43F899E92BB83B1574F0DBF94FA93B4DAA0594CB94E232F42FF1DAA79AB6D86603798E595F24120C1C1CE07FA50923D4C6ECA28DDF7569B1031914BDED63F1F3D1183551B80B0FD7A56CD82DC51644032B6D027E6A10C00548A8B029E723721A16BBA5EDE6976DE4A20133F89B5ED3CBBB62EFD7AED5BECEC595CEC87F37218676D6FCAEC5A76852691FDD81DBE7685A8D635A736634DB40A236974C38849E9B958554F2D391A9B55F2B1A3D6B2D6876739BA398D58FB19F94AFB2D3EE3A3A3E673856AC22E674A9DCC6E571AD8EECA2E031E417D777AD46CF85A073DAE414CF61A807283F2D88B24150ABA6978D08F75FBD40A9AD83F547EC2A8D9C31DF0C9BBE95569A8DA391AE2E0C0DB4BDD606D31434DE1A69031F98CE47EF1A52A7A362678CE9002F690358CD848B1FD471506AF265861B5F5F886CF3F3C21C3BC5E9D169FF0079E373A2B8AE1CF63C77B93337B117B7E9C9F81EB5499B4E9C166D34AE89C2E2D710B8667AFE67B43917EA662FA7EDB2E6F605963617EDB17DEEBA6FB689E083A7EF3E95B11CB23B88EEE126DF3517166AB58DF7DFD2AA399B50E94F7BAFC074A32BCD495C466EBC7BCB8726EB860BAD6688ACA455A30C16F4797A5B62037FA5AB4EE81EE8E4949CC5F4395831A210F8980D74DBB06A8D95E8736F656B66DE46F1981F96D6D57D8C51FD3651D238DC5334AE6D6ADAE7170A733A557B170EFC97FCDCB56DF83970E5B0EDDAAD55C5583CBA901B36DDDAB45A6A9191B9EA40731B9DD94B9D8DC848D73B24ADC8E7F79F35E0E4BB754DFF00CD6B4E4D5E9FF6333B3678EF02BF10E47707BF4DDAED5F77E2329E2BAFB7F0599EEA924E5EAC39732749EF0B183A4AA9B7A792C2B7C2A3AE4237DB5346BB03EC2ACC3B500E44F6A9DE1C5ACDD88BDA6A28D6D32FE08E72192D2A5ECA64646061B1F627F89698989E1F9E122F196E51EA9D64EDDDD433F36DEA3C914B2DBC2B69814D64317D089C0E6BAD09EC6D8E677DBD7CA00EEB7FAB92856556F5ACF0D87D88B266D8EEC5C3FF00856F23DAAB86DF6856DC2DFF0065F7BA9364FC47C6C63867AE04DF4B56A3581E5C5AE8DAFD30FDB731C6B57118A3E29A3B44ACE2478585324901C82C923DAD51EAF4CECD1C80398E1883C80681BBCF751DD15C5653309350EF74E283B6A0D7599AC1547379D1CBD8AB8DFD8B27997962A87CA8B2117D9EB08C9A435D8D5C2D5B0B1C2E76D47EA88DB6E198DD804FE193C30EA6770C2B4048C13DB5E189248DC23FFB97EFF52FF1FE22E3F69AADC15EEC6F7628F15B96BEF0C14BE1F2CDC6D3D6B0D7BCC388EA59B925F12D5932663B80E1D09FAE9A37471BA803701E644EA58D7B5B6EFB6EA27482C04D40E872CE765BFA793337CA8A987B566F2D85797BAA95F22ABD47CF72713F4AB40F0DEFCC337B965E132C0E7BC8315AC22FFEF571EB5AB81BEEB43DF21C1CCB4C4DC3A936461CAE6EF35C2F045CB4F2CB289A660026736DB7A7A5491BBE254E4E1CADCCDD853F892F074F1F736152F52FF823D4F5FABFE94579BD68FEA5E7F52F33576AF0DFE6FF00CABC4BF9A2FEA7A6FC91AD47CEBC43F97D453FE61FD1CC7F5B7D2BFFDA0008010103013F21422D196659EAD3597187F9DA5C45E8C9B98E22DE7F0896678C6D495ECA655F2622941EF0630C4A1DC87ECFFDE9692A8ADE89624C4CA6F0A64C0F32F9717465D1AA7037530438389EC997CC17F225FC079F1172AEC676917757D1823D9857C90D53AE040E3F7FA1463EE60CC52AC8070C5341B987885ED827998C1DF48871E44C4CD3E6F1187C178F505E20D824D7CCD8B92EDFF9D2C0EF2F17DE3B3AD6DF01E793F04E6B64A01C1B84698F1661F66181C12C881CB65669AD8B62E0FCC6F3BA3CCCAB8C0E0D44B37B1343FEE6293C45A1CA00C8CFB345BA79D4BB560F1822B3EF150F64567A85A0549A6456B5A12F72D37CDF64D7C4ED315386FC13323385C5C3058AD9D4C066DB057E11101A368DBEE997C620482B83A78C812BD692BE3331129ABB3578764B8CD4B489391BB551C37FC5CEE9A03DE99AFDE7EFEBBE2ED2A0F96581255554500E0D4C9F5096D3976FB4A5B86335BBFCA65AC393F7B407E01243E339B9960BC6FC8213CBE39ABF68ECF3DCAB7CC6AA2D92064C697BBCC029026B03CC2E7790BC704B93591F4A9AFDE68F7D6EC7894ABA28BA81404DAADC1C5B51AC5B307E552B70CC1E43DB338D34D588AA30F21FB52341A116CFB6826CB196091B95C57E226818B46623DA624F03B4EE88C75563738A6585A2C55F6CCE0B0FDAB871F64D3D16691ABD1F062079396045B817C4B916C31796625780CE74BF1A956BE0CF81DC0EA6F726B5BCF22614C443C1FDC12BDF4E23734CA9005C77D3F1003321B778850D0E6521D277EE0D67B41EC93DC26896962C01DC86BA0DAF7530038C12D2D4521C36B4972E66D21BC210FC10E8CA0EEDACA3C47BA6CC915DBEE4871E6FB3EE13E301DD999118A3C40EF059F9467698D1C9C7FECBE2D606EB007EDCC25E3134164EEAB410D3DD864223F03F70BBCA45D17646C157BD861ABC43A0B4EECAB2464D5B02190841AC9BE5AA6BB39FB32C63F30827200BEAD413E3F51525570B7C62FBC1F941A3FB90CBA32FF81EE6A20DA6F349F885E2D62C9E15DBC469E5B815101A2D70800DAF72F116F6B3E285DFA061A9E19430D74A8E21817997FB131F56E2E6F61164D9E92A2F06DA8FCA0069B1A513CBC31E6A8E606F3B1E4E676F588FD5C25D3325ECD6A314B3737D516E63A6F72316CE98F2496B5B840DBB583BFD12BF042E49235692AABC5B193DA998734E8FCEA045715EF94FCC350F8BF99BE197EC244C5CC13715BB988B611ED23957F975F8615B56B83F3295AD56132307C58C3CE2ACE19B3B864A2D25F7331A60E8577078481742363430F825860856A4EF3474580D11BA84A77643E91FB8C9BBFEE7FB42947BA69983A81D1440E15FB1E997080ADDA1C3BC7997C97F80C696EE7305D0F6E496D637C47DB4D476A351D9661B9AD417799B312CA81468772F676941842785BF33F6200F242D664EE7CD9AF4CA820F3DFF000F71F1AB1B3F7C3F30D19B4964180CEC3D4B252F045AC528D4C9D02EBF2EE0C44EDF081D8C797B835C9B720C0B9E518A762793024A261D42F265A3C4F78FD164BF62ADEA01770CFEE559D91BFE0FF51859CC866F0E1F247EEDF5B2F4988A9FF3D12CAE2FE52EE5F6D9101F16563F30A855C0CD6C2839BF1048EB5C4E6560C79C47E37380ADD01009D65D8AF73CE56201A1C8C4B99E1328704F49DF3C8BE1A9AB39566F84DDF3FAF04009C4A6FDC6ABE53E4EE7726799368E359F1BFF00B2BBE1C61FEA0211ECFE86A661ADE0D78C4E108924DE8B72637174321E5C02327231DDD36A6E0DD33C66D52D87A978C27D884F3D053A53D724976E5C633972A379A7F09DE21A10ECCA8C47461182C3B3C44CB42AF5E7D3333F973F33480BB430FB8C4C0705F87097118D1D2039C06208C540A5AB47B39364B83754386771173DCCF4E239AFA765C43BA4BA3D95B8860EC039FE55D2665DEE257F90F2A4BF2B9EE1E6129BDDAFCEA736AEFEB717083BD279267481BF09605C2F7C387FB201411D26BFE32A1C3AFF00A2094565514231CA8F6DE6BB64C4A7D92FE60917E03493F6CCAE6200C51343E426626DE57941EE7C4487401BACB22A22714BDC3104B33E0FAB666E2B0FE983900E2FC475F63EF24CA0E30BF51496BC51A5C89660604E5C933DDD36B04767B3F31726B4B9F8FEC86EDD682E40EEFEA11AD98B2E8130DB90535DE1E1C8432865B66BC620BCB37996C13C33C3448BF67FAF301478E4081708FD043476A4D5EFAD7676F3030185E324B6434685AF13DE45B771A611D85BFDA07D8CBDE0FE219765FDD925B5E77EB060B0D9BF77854AA54B85001BB746F1F329386DFACC08A701DAB55ECD7B997463981A0ADD353109916A34CF4AB5DCD47CCE5D5E00A7670621C06B001B767C30FA2DDB65790CA66BCECF300144A8DAEFD985D5ED8603057941C540EF25E609C767145543068023DA9FC406CABBFD1DBD4D7212AEB9C865C272FF00A3F32930B330C18D5157E618BF2A7D0861EA56308CEDB2A041CD1776634B6B566DAE4A8528B89156772D79A798E113C8A65F78D27A8504D5C3473076A2C7C859FDCA873E618C7C26A5CC5901AA47B7F8BB9F9F9A3D7ED3F97EF3543F4BF7D07F4FF4EB4347BFD89F86FD3A7CFE3BB33F37FD4FCFF451E6107473FFDA0008010203013F217EB31EA21D1F43D07475FE03D09798A22636FA1A75631FA58B74B970EA174D3A33065C7E8004122988F4497A28784B25E8BAA3E908C5B9C44350A8CB972DAA9C51FA4E53C655C4E972A6A598351E99C03A06123F41EE96ED2BDA60EA5CE6270823D748CABA1B1097E82ACD3A730A6218712DCF58B81633512E3318B5384E60C7D061B8D165D89B96BE891751AE8765CC962609CCD3E91B66110C31AA9975ACA588A8B99C4D813496D6284D3A318CDE6F0974670F400386591884861AC3B74134EA63D6AE84174904014C6EAE8188C5FE81FA062A07D2348ACF403A574B8B1EAD7A54BFA0898970DB1EAA95F45CFA12542B310A8A41B100874B97D6A58A9415F5574060174632E54AEB72B2FF00C3A747587AB5065F5B9FE238E8E495A31970AEB417FE2F12AE54D662D9D2A5D741DFF852084370448150E8C2547FC0409FCFFC86FF00F848699CF4D2339FA7FFDA0008010303013F21845D4E8756DD0F4D4F53EB674210E8CE22458ED7E87AA845F41012B0891311BF54E8FD0AFA4D319CC0422712896C2184668DE5E10E8F56E49AFA2B08A0728F70A96DC215844656EF99AE0E8F5A0933DC5EA120960046D03A5C2E1D61898A6610E8F4BDA257BCBF79994B294723E9AE12D9D697001B9CF47A009BF4705CB52E531D887A61040E8D19804090937747A73D371433DE71473338D880EB195D01A5EA9A022B5F5AA8A4CD4DDAC975456F912D810F4598042E9AE1105E926895261F41087D1362397172EA22A33139499B52D178F1FDCD4EA6D3461D1E9BC204D63A8597188742745809860C570747E9B49A109B97F45B9974101DBA4C5972FA54A81D4EE46018CA3F414AF12983A5CBFA095BCFD14C032C97E80C14682AE3A54AFA329195C487D0296968C3A089897139972FE8B9AFF0B47A66EA6D826695D695C7FC2F31E23B96BA0B2AA04EB735FE2F3155A54AB2A1AE8A5F424A0B8FD6907A0CC48E09710BBEA1BC41C4B7FC41C4A897F41CCA863FC6CE7E85A7D24FFFDA000C03010002110311000010B28B9521D76CED4E8F24AAB446CDDC59BB4E6039EAE2C3F6DE5CA0ED984C4D50CD65A2771C4F270177FC62705C85945CFD23E3B74872A632F54AF0AC24FC0A9E0A4545C56A5F76179FDBEC5A5952661EA845437D2A39A744A38CF598899E947A33E0C0A3D7844619E7D1D2777B8D307E989F456137B324F8A096A7E8525064F219C751D949661714795FBE2A618CD5A77C7E8EA504F9D9099BEDB8153CF2CDB147D544D691FFDA0008010103013F10506854780CCCB833F9198FBC70A552FE691FD339D88B587128DA47A3EF08351A71B5B9520A085E9BE31114AA031C01779A81A0A133774E3110F2287CBCC426B5D832B6643C7787A3D5331103BD1110EDBFDF4253913EF1A1BA74A5BB5E486A97E144A9881173B8466F12F750ED0004D988FA19163B5BA0377716042B7E77C7BFCCB0AA5D1720732BDCF22684ED33CF69587445608EC26E16A5549569380BC63A7011FA22076A9F984438E8C4BC3558CBE1E825A8687697F7F5EA2AC5D45BEC40D75C002E3EF80E1B42BD8E6081C34A033EE6378C8B35DF88B900152F90AC7B9590C34E40B5BA8A40CEE0185FBA949DDBE32B40CA5E88C38E7266EB0C677B83659CC201C84FD1FDCB82D9FDCA17BF4664B9ECA9332D687C4C1E78D88163E022D53A49857CCAEDBA8A1DEBB9005A0B3BE25E9056C12E2D3F71B4C1D006B8C62556B6DAC6837E7CC5BB28A84B560CD1190F5121A377283525029B16B1B1C1DBBC0F3C41D1BB43B063333343299CA61366B609B8F5E084A46113D53F31E875FF00137ED37E65E1E8C20A6D556C28EC0434C41063616572B1C9365E36208DD12989E05BF8804C640A5AC059ABBAA6565116BAA1B5BC40C738AAA1A03BEF8FBC5BE1C263005217B3106D31AAF1B2A9DC0DEC28D36B225796D0D884A8BB2778E546B6202F1844764DD322664505A2295C76798B2E3846C03FEA3C3F8E222BE9FB9ABA08EBB08DDD4021B2DF6C730EF90D18C5C33AED3B1B574536D12598840355656F300CD372AE04E1B0FDC4889C5170D601454775C3702F257F931135BBB152C378FB61F24B2CE512E861732C2DE96E48AAE624442F0D3C5FEE0F045CAB0B867145473663B17524CB6621F2661339B1B753094A4980320F198F1BFE3115FA9FB831E832782E50D2CB3793E626E82C735A282DF0453561C23D910DD5CD2520B91DC0573288308919CD02EE367AFEE5E058997BC159837069618C59CF136B802A5A2D6F0F364434649EFB7D573057EE1D06C06F5983C825532E5997D54AE5A3588F106286E66A4C3773186142B559C5E34C64B742A5D3F68012869BA076F98D4BFC187A0A85005E8ED40FB42771A5E100FC42F8166EC95CD3A8C930A0B0C14E72BDE00A054D56AA4F7644B5128228692581BB292A59A421AF32C0039293C931CDB02C46DC4B05D82F94312E89790E61FBC0C154A651F9A9502A80C2DED32E8D24E00EF0D5622F868D8D7872CD42DD42D9B458D5E8B35E2300B76DBEBEC8174C4336D2FC18AF25FBA191D2D9DEAFB1078627A0D478DA28FBDC14CA7904E54F73BF12F4DDF639862D7EEC6CE9396AE3B9C0076214B80AA640BB8E6CA98BB045BC538451E8D08200004E595A3EDB823B202BDA90BCE20DDB1B45381F3128D44E5E1B2BA1457FB96733B08272A94516ED0C14F2C2BCA9805B7144B261D2DFB28F0511BE131CE292C52E76C41729ABB004FBC153A57FD4D3A51C62DAF062216798292EBF6E0DC2A0D113488335708DE50F87787439697ADE2AC6FE2E5AF4D62D3821D66E36E5E0D8784D82BC3DE3715D253ADC8113DAA6BB7845E5E5BE25472FE055CA168ECD56616C317105120864621488AA30DFDDEDC1E212F225D5C048A94E28A2DAC3C0D82C214472152E92E8CA908C1C85424B4B83D54365EFFD8F5052CFDD8A4046D1500C2E5F7FD448828022D30F41626C90565D6C547E1254E9D9E700DD23F0CC541F47C6DC5D0CB50969268009342EC3B34993417ECB495EB24AB1D83430538D7B7DA270096A3942D172A4025AE4AD2B0A60CB0D99A80277C6334C33772FD9412295305D146CC5EE1F74E051C06A85EC6085E141F0442B793F61FDC565E863BF170721293C46654107B363FA99E01A14D8033009C16A770EFE61C633B8D118887166D55FB210A46310FBB9FCC3C26737F01FDC7F6C2843C5568F98A99141750AC224A33084604DF0FCE9B23485ED5E555E103B4B93045BAA2B7553364B692D2C9F3BC0950540D101BDA54A314961F372C03D1925DBED656B1AC0969C6770002589F15B7AC4CE159B0C5B821A3CAA327A1DEB8874CE626330032CBF1B2644522A75ABA17CD8AE1F98B7771313D45460D706596D46A4A128AB1200778FF380A55B591B63535780E6005BC908E681A1954BB65515A8AADB31EDABC97F130F425A681966B38FBA6A1BBD001A7D9830D5BE4D88721913B92F7B886B339C28EFF012F1828481EEAE27C38DAE682DCE0D0EFC465A84021E12C8A96430C10516A600B61528206F174699460E4C0797D6822B0145721AAED121E437744B630A6A8CCA672E61E2106CBC97B9E282D09D81467B356CAD45746D5AB0D469D164E0880469EBBBF3385C97AECD79DF30691BCD7CC39EA93994F96E04E5623B83C6736BDCF83C4ED562C179CA0C67AAA016F085881684DD393556015CDAC36FE73EEDC05AEEB884F6F70A8023620EDAF115991A9356EBC165A6C95020634624609CD85A730DDE9B1ECEE2C8D45A0480691C8CC4B976975C27C64177B2D4EE5D1AD614DC2A3C8162EC14717B63086E1B05555C01A22F3D7961A0D2CE25A7E03EE8C5BFF408DC6692EC5F3E7F3142AAA94A9BAEC71ADC4BE4266539A1B5787111265DB5BE1197B2166C0A56BCACE1F27CC5692B4EFC4B9C556D1CB953CB1EB486DED70E89A66C05B6EAE0168B77AAA4D643C1B4F112C2AE04A052C52EB3C401BCC1E10C4B060C09D93B7B97270BD0DA6A2875A0DCAF41FB4B26D2A90F1C9F1002C55918C3FCC4B49BF889A46F9311BA61C58DCBFF0033EA0015828A57E13EA266D1E2571FC32D94611B8B92BE4863AAAB19D6791FE2294F7099AC40EA0D6621188D15314D02CE51225DB22191BA499C8B66FA5834A1D1D3838B9C464D03E159FAC788E569C2E4908858DAA517111A41B379B6E30FFD8E845D9C2C57A0BF88F0A8DB654A89EE3B97D685C9E5E61754095BBD64F1DAAA026F5D414D5B1C76D904E40E16BC361918254322AC6707037D9E26240BBBEF38B896203988DF0EFC12C92464171E3692B925DBACCE0810DBA97F50C40934CB51D8A026A1C8EB8AD0A2ADB547B2614A88015895C9F70E2012C6425C8B29D882CC57486105DF71A6012801744B11323BD0AC844ED018102EAD09F76E2D2EC1764CB8C5157362CDC6B8DFB31C3589785B9FE48545A0F8B33E18608705D851C6B37D3663479186CAB3AC2AC1E1D966A2A78C40C80B2A936307140BE22DF0B1A86952AF082D53601952D62015AEAC6DC04F382AC8F4360E080694E5C4365A58929B30E0FC9290E87DD8940616B2B81EE24F66ACB61F0979F38994370DA39E47A74DEDA85D21582C369A957958065009791334F30638E5165817597B42AEF74208E8B9C8D33B222068430E71B2601A100AAB3B9A5DCAC34A0CEB7B3F69590A198E4008F9A63B806D90120855F0CCB74201CA7977A99F0EB69734B2F1877E63B2CE5484321A536F7330E19E65352A97BBF14F710EF11ED24E8416EDBC66356CB42D54A88F0B603CA3C352B10BA851043DB88F160A6356219FE86323F56B1A25AD17C55CA3C20AE3397D920382A46A059704B44B30BA229BA32A455ACDB28132D359DAC28E4D951D89C800C10E0B0859C11DCA8EFBA5CA2A1AD77C836ADA5572C7602DDD6531075A441EC1A3E2562120FBD380F9CB182C3007308DFA8C2B16B359439F371E2B63696B548EF17078A0DC552A20B60DF7D4B0CB51261547DA99BBC4A289CD9FEA6C2B51A298B8346CDD5D2CE288C0F805492BB284A0AB1CB2DC94779B443DCA10DEAD55BC855FE2516B897B80E42C7D8C0654576356DA50B9F8E83FE4FBFA53F908FCBFD136FAC6FF00CF98FD89E1FC32FD68A135F6004FE6FB23B4DF394FE17B67FFDA0008010203013F10542C35F10F558F41E8AC8F35191C333A74A98EE5CDF43689C4EEE8F448B1666E2A984648C88ED3A6B1DC1D0EE61899415D1E8971186EA88900A42AC6222660D972D6A731754FC918388CA89C4CD2258268673205245E260943736A1BBFF7B94EF8E937D648342F32A0E98960B2EC46E354329AB001862A55732EC98800F8F41B9B7450DC052979943301F68B293980E5FC449C7F9E62CCB2C6226A2E20123306B999B0CC8741B833D0C2E10CE9EE0C6D07602606A0C716C7D4AA38C261659618032F67063A533486E1E82B6C31E252D082AD09C260AD677CFF0038811A8DCF89296A50D5C5359881CE230B0F6B81F63A2AB74AC7409AD9DDEA39507244AD7DA2948C98254CA1A94B6CA71053B25D0EEEA545E21D72743D36AF572A080C463B44ABA772AFB13303117DF71F896A370520E7EE567732E6A6FF0044D2382A3384908EB2415D134EEC96AF8A39D0314580CA625424572CB187794AEC8A6D174BA3A54DA0B58C130E84EE84CD3A6065B5D46FC748ECA1CCC0AE8E28C14C362F48E92A04A8A61850A8EF108C0445E8A96399637174744159C731442447A54DE3BD4017CCA498B32F404948BD2F11FC047118CB2589ACE496F4F4046E6C0A262519B65C491732C61094A054D41A89F4265673AE5AB8EFD08E21CD42D8AEB98891C2641B6574B8C65CB9770DA78FCFC4ABC31FB6E1FEBFD4A96E2002DDC44CF48DC59527135821D2A5C49513A62FF3E62559C11E066D364D622166E05A815D3DCBA30E95292574AB61929C46C4311E12D54D904D26E5E105E632AC0A2BA9D1C30650C3324B9BED162A67799EFEF06304E1825CA198BBC074666E53D6A6A0B8460CFE8F72F1EA15425E278841A964B9E7E9E3A3D1E9F0BF9DE71F5387A3B1EA72FE711E8467FFDA0008010303013F102398212E021D4AC4C2062E18A56662F83A1D0B3D0994618E8BA282A692F10592AFA3B388CB919E843536EB7033096C08335140733C928CA460C3C54F7E860626DD5E2A11BD43C4BA84C5181661CCB7D334AA9530E4179CFE26105DD066ABC46F31D2439EB621899C18E198A9292A73B2C5373B6BEF2C8422A086A34B71A86F311C7ED1BF074137E80B0798080C6591D984C6AA2F033950E0EDF6982095210E60E6311E196610A6442FC9741A9BF4C010D7BFA8DFA57A89B445CA549AE53DC770732AC954C73A0946231E2327CB2748C044A479875B25623BE9AD88B87BD7A8ECB6436E33047517CA3AB813BA953788911B9B88E6BCB30F6B0D459E9B8D616962268547EDA805F7466A60DCB9E4FD9DC964610EE1A6216996946A215144F30C26825CBBAC751E9E6690E8940B6DA6B997017BB3F981A9C9AF3E658065B3D4EE0712D85A435AE22C4372F634C4932E0E0F51FD89E10218EA3D3222CCCFA189F9FDC519BF70C24C2E6FE6168259EBE4D9E9FE13227CA33FB8051FB8FF00D81287B3FBBFE472061F68462A079618EA6DD034BE20CF40DC54FCFEE61E8515C44778C1326E067F670F8654F4185BE67A8203BC7536E828B82E1820B52F1E1FB9774B17162C014DC216E6F07FD8AD6E9092E28803A910A1D2083884B5C471C4C5B862F0C16C8B18E7100676FE220B7C7FA973DD816608CAA5B121822A87E66A0AEF70847C389A485AE195993E6527B9B350CC36F8D4532625036899827A70422C345C452A59EE2E812AA0798457D54ACAF4D430175CB0693D2F40D1D280E8FDCB96441EB7060C1A25CA527CF4ADE751153895E063A122F12EE12B6C3E9A874C97F3FD4B0ACCAF3D0305B0027787C908CC5E98571D4E952AA0F45A8E32E7511566512CE63908C831822B9471C4A1A86A25955892A13734F44E23692059B963789569395F10CA307222A225B145312D29B86A183D2A57469EAA88BB63FBF50CBF9F997843106C1393A0B46070980F30EA4771847AF8EFF9DA1A66937FB9FB23A9CC77D5FFD900</t>
-  </si>
-  <si>
-    <t>Steven Buchanan graduated from St. Andrews University, Scotland, with a BSC degree in 1976.  Upon joining the company as a sales representative in 1992, he spent 6 months in an orientation program at the Seattle office and then returned to his permanent post in London.  He was promoted to sales manager in March 1993.  Mr. Buchanan has completed the courses "Successful Telemarketing" and "International Sales Management."  He is fluent in French.</t>
-  </si>
-  <si>
-    <t>http://accweb/emmployees/buchanan.bmp</t>
   </si>
   <si>
     <t>1744.21</t>
@@ -262,12 +209,6 @@
     <t>(71) 555-7773</t>
   </si>
   <si>
-    <t>FFD8FFE000104A46494600010200006400640000FFEC00114475636B79000100040000004E0000FFEE002641646F62650064C0000000010300150403060A0D00000D540000138500001E2D00002E5DFFDB008400030202020202030202030403020304050303030305050404050404050705060606060507070808090808070B0B0C0C0B0B0C0C0C0C0C0E0E0E0E0E0E0E0E0E0E010303030505050A07070A0F0C0A0C0F120E0E0E0E12110E0E0E0E0E11110E0E0E0E0E0E110E0E0E0E0E0E0E0E0E0E0E0E0E0E0E0E0E0E0E0E0E0E0E0E0E0E0E0EFFC200110800AA00A003011100021101031101FFC400E00000020301010101000000000000000000040503060702010800010002030101000000000000000000000001020003040506100002020103030304010403010000000001020003041112051013063021312022321441422333152434351611000102040206050A040603000000000001000211211203310441517122321310306181A120F091B1425272233314C1D1E1246282B2C24305739334120001050001050100000000000000000021003040011120105060700261130100020201040104030101010000000001001121314110516171812091A1B1F0C1D1F130E1FFDA000C03010002110311000001CAF312961E2C794EA714F41BC6AFBA559E80C849650F56D215EC1568D875F3F4ED382783D93F49E49E49F1064B8E563031C9BB84BAA56514CD78E188403D8609D0907B0DABE4E87D0BAF05EEEC5D03E99E49E49F1561D8602D6594F96AA65A969C6FB3EABAD1A6F0469A8522D9999390EFE57B0FD2D26F77E3EA0FD0FB27827C498F4990CA4E45A155DB46A5CCEDFD17468B96BE74EC9D491230B5DB920BB1DD3836579BF6BC1E28EA19E4EC4F8633B152141F25BE1D5DDF4C713D15CADA2C9AF0906B95D660B025AA05983CB2DDA7169DAB08117A32C863313E1AA14A90A57CEAD66D9F5FD23C9EFDBEECD67D7CF9D9025B2B51E40D6AB3361F55F05F96DFA312F2212AC98D80CF96B3A90614ACAA32CAB6FD09CEEDD66FA07ADEFB55D3A9CD198FBF1EA323CD386A89709B39633D30C02B2C560CB715D295224315A8674ED9CEEED12DA252B78CFB76DD9CBCAB17565616E19AEDD1E4D63174EA9D1E2AEB2989A02CA2B2E738AE9882417F46DAD51D5D529B3C4D04DA1806D37A9E7C0CDA620CC5E89E529D3652B6F251D9473208C0174CEB1E82202A4301B8727D85B8656AE5633C51AC77E42DE8A967DE1D66F47175AEACDBA1C50593C86280675CD33587A92042A1D1B276E3C3D358AFE3C8EEA1601ADDB4C0F553736EBF55555FB7E7535D444CBC09EC90326654B98A4C10B0CC6BB4CC7D7EB1F61769CDD367D058591AAAFCB6DA816E3D353EF79906EA2133F09EC8294CA9498B18AB3346314CC1FDE57A9D06149AAB315DCB1B8BF3C8AD15537663D9E070F5C4E3C83959030CB54F7239ADDF54C703D49373BD113568BC9101773767B4DB8BC502536E47D5E1836D5C3CFD07200362536AD3C00E2B2F91CE33A5B6DDC8F419B06B5B0BAB819E72909A0BEBF3D375F3E9BD0E544E9E99C48BD95465D9FA06A859C8D0680B2EFBE727A345B6DA0E9C603D7EC9A1E6D9A254CF2EA2B5B3929F44A9EFE2CF0F51878C9F1E83509C23D5D2EF95E9336E8F275CE0EDAD3E9AFEA5ADDB54C1B56ADDE9A0BCEAA75F2EB1B355CA8B52EBC2AB565F21AFE37B2E4EA3DA768156A051F3BDFCD5BBB83A679CF411AD8AF4147A65E2B6B7E6CC7D54E25EAB86D70F6B51C3B1055B1E68C4D3673EABCEEC4A02D16AB5BB988A2C1817A9F0C745BB72FA76CE7F4242D4CD14E914D79DF6F9552DB8F64F31EC34FC970E5EB4BB1DB67EA2802CAD8B9CC4FC1539B327EDF9CA2F5BCFCB077217076678C3A86353F40793F7576A64862E5B564B7C80486191B11F954126B9A28C3BD278B82EA7F41EC9399332940B7E7F4376F3DEC9CAD654AE12CA5740260227B2390278AB59A056CBFAFE733CE9E1874F3FD8A4411136BC3BB77F27DC974760F287CA472EB85DFFDA00080101000105020B1122894E3ED94E7299DF0532B94C531F9614CCAE71EAAA9E491913C95695A7C8159F1ADA678EF9163FEAA3ABAFD2A91122571B2DAB4B2EC7A133395D1AFCCB5DEB772C71ACB18F1D95A3E35B59A325A818B9D7F1F7F1F9B8E32782E6F0AFAC7D2A04131DEAAD32AE1BEFE4B16997E48BACE3B8EC9CA95F8BE73AF03E1B677078EE1699DE23837AF2BE19B466E1D98C6AB77A780627EE5426BF42BC578F63F6726EB19802C7C7BC77BAFC6F1F4575D695A8044DC231D63D2B68F29F1FAAE9FE96DC3BBC5B2EFAF92164EE882D1034D60681A062464EE16F15477B2B0294AEAC47695EED36982B9DAF6D844E4A8EF63F239056FF001CBBFE5B72004B793D251CA0329CA0D16E10340D11A7214DB565709A0C9C0FC7136A44B526F4D1F3E9A864F97F198AD8FE5581906AB68CA4F31E17B195E34FB686BE3B163BCA9A791B2B9573226D8B1672F41B31FC7AA37E7FEED1C763E4F9372AC71FC9B9557E339A6CE9CC53776AECCC4C638BE4FC7A2F03998F973C8B17BF8BC2E053834E4F6BBD1C43374DB1522A44A7BB38A2D87CC7254856FDDE73342F13CBDCBE3DC7BE2E6E761A64E2E770CB4D9C7538F59A3029AEC289750F7E2E365F215AD7971A3C3D1609C5E75DC7DD918CB7E66761D2569C2BEE0BC25DBA9A0F7310F731AE4AAA94DF8F03A19A8D32F0D73CF2FA7EEEE84C731A078B1621D0D805992853229C6ED5499BCAD54BD19187D9C1E6314237318979CDC1ED1C0F20637D76325F57238B52E5641C8BF7CDF098D162C11670D7537E3E6B598B68E56E4C0E35EE3394E2933260F19C8E3DB834263A721CFF000986AD755CED4090DC81FF0098C619AF4315A2B453165173D0EF7DB7B63D3FB0332CE678D4E2F91E6F96989C472F62FE8F0F8A2DC5C1F22B3F4E9A6AB350F916772F3D4C33588D2BF78822AC034988E52DA2CAF22ABF82C2B6FA786A2B9878B858C282BB5962E36FB9BF2D7A6B0985A30225729952C0B34995886CC7E3391D8ED8CCD130B218D1C3DBAD18894CC975AC50DBA64FDB90C66E9AC6319E5954AEB94572B59B66C50B9745744CA57C4B787E7D367FBDA006F26A54FF00F50865B996644C53A4E4716AC8B1F7236B358C63C222D7295D22CC6A1AF7CEB07FBEE5D0AB6520B13231ECA9DB2B222DB658785C40CCD4B06C76158E670DEBF1EBA87CFC1DD019B758F5182B262D32BA899571992F014AAAE6F20E2F20F90322ABB155A5D8E25F82866171E03F1552D32D752D453BE799658A780F13CBDD3370F8FB0378FE3591F8DB683FA731F8FBAF6AF8CC5A2535EC8F97DFB6FF00C7C9AA366078FF00939C5AD2FA7290DB5BCCAE2B234C7C9ED5F5F20B31318957CB449E4FCF0E4723C3189A77875B2D7C6B71F3F7AAD78570DC58568AB33B33DB087DB6EE26EA52FAEFADB12FC3E4F270DE8F286B17139CC53398E3933D5F2FF53178AE7B1F07C7B98F21C9E49FBA44F0BD3FD5A6932A916282D8F6D791B86A958BAFD65DAD8D8FF6D5626B19769F28C12991B489A90A59A265DD0E6DAC064DE61666971D8BE389D9E1813A7BCC9A77AA96586D2D2C7D62A8D54693432D0273381FBDC776B2428758498A67B1802CAF5696F0994060A0AF151B4E8DF72B2E87F83F92FE43A5DF9FF189FF00B99FFF0070FC0FF1FF004FF4F15FF5B98FCA98237C096FE7FFDA0008010200010502EA4C3D7481611364DBD15BD4DB00EBBA6B34846BD10FA5B4C02334EE4D759B26D3039115A69147A23A596403E8D7A0F69AC5F44473EC603D749A746822CD7D012CE826BD374DD37741ED07A225B00E866B0C1A99DB314C226FD229D47A0FF102AC3B67F2CBEDEF379E8212354F8FADF5D11E374DB041F044D7A08CBAC1E89FC8C10B41A4164DF184D66BEEA60F4587B9FA0C51098C3A2FA44435F45F78566D9B44023741F1E9B0826B349ED358628F55BE7A859B634107A84EBD774DF37984C595BC1E8B36913DD41E80F53D04A1BEE53B5BAEB359ACD6178EFACA3DD5BD887E81A13D0C2D31FDDB23F3EE1116F9BA6B0986C9B8CD7A63B68D7E3EE854AC1AC1675668263D3B464FE5AF40F37C2DD35EA0C43ECC81A36247C661002A026A4D2CCD550126B2FF00CFD2C77F46CFCBD2ADB43BBEA263DBEA9FF127D3FCFF0057F3F47FFFDA0008010300010502EA8B00E84CDD0D903CEE4EE747AFD0D269166B19E13D349B0C2B01D22B687596A7A0BD0BC2D11099DA9A059DD9BC18503475D26B19BEBD60309E955519A1D7A69349AE93F21B348FE8030CAC7BC6866B359ACD6218F1CFA557CC69A4D20ACCED4ED4F710FB87F8F469F9266A62C2A22E91B4105CB2CF849B374B1369F413D88859E207336FB23E87D9A76C085A7C1552459F3F5E3E9BAEABDD27B09BE131FE5493194CD218966C967CFD622FDC82111521D63D260A488AF0A42350EBA43E8D0FEC3AB4F78C499B48887A3FCFA2AFA45C8DC636B0590DC26F733DC40D07C3FCFA43DA2B6A215D66D8758DD09F63EA57F8CDD37436C2F16187D3092B1F69F69F33B73B4276840B1A5957B9F46B4DC6F1A1ACFB11089B8C06080C69789626E5E9A4DBD748B49312BDB333D8AF52B152345118CB3E31BDEBED068D8DA4D9348B593131A6D5102E9D32D355A6FDB0303D4374669A4B6CD4E28FEDE934D63D50A40BA4262AC3D08D4589A1562B172A25EA66AA6359A0EE28165E5BA638FED98A67CC23A01F4E657E8A0FB7A29F42C4DCBB7EA12BAFDFF8F4841FE5BBE7E8FE9AE7F1F47FFFDA0008010202063F02F49160FA5EEDABF96AEA28450461142164CFC95FFFDA0008010302063F02747991E78B1B08F53C369932F7A07322D7108F857CD355F54D55C530F16208F3A6F59A6F3B17FFDA0008010101063F02E90FBB2609C972402D6E80269BBF36AA63BE116D999763B16EC2A6C9A76A0CB84060D6A0D735A3011613FDCA398B545585EB7BD6CFC5A97372F0F79CCC7C57DB5C8975B32842219DBB107366D381EA5AC640D8D265EB42E3DB33AA24A258480ED6AAD2A3AF4AA57018285C6A2CA7E59102102C24D98C693A8A6D4E80B82AB6F18EC29B94E7379E240604F505F721D914EA1D089C49DD0A9E6736E6922254409685F4491A0ADDB725CCCDF0850A57008A26D4A1C28DABA20E6E114C6B3EA3443BC609F7B3D6F7C06D35638E20F5173923E6526016F71050D29B773022351424A407910722F6B7108444B5ACBDBB2F85A7EE5D6C0EA8F5040D2084EAA6EED4CAB08A14A80C3CA301BC2683234BC70C555002E35B179F0974CCF94F0F9B63169EC4D3A62A92847A22A2E7436AA5EE2760506E0AAB4620E84DCDD9F684084F3ED891D9D115158A99F205C689DB313B1011E19AE6DEC4F08D2BF699734E82705FBBC15319A0E7C9AA37DBCC8681F8A8332C4307BA9999C9BBE5604694DEC2AE66B3CD8E58E838984D38D805B64CDAD76201EA28855194134680FA0EC8A6DE7C3961B109DF636A9B3EC9231EF5CCCC8A5FF126173A234A2D2261739960DCB70810DF192865BFD790E38970002FB836B9775D89B7C2A9770EB43259B0EA69F96FF61D548A7DB6F0B6006C87506EE5C0374B4B4457DE0B66DDE73C3E9EF9A67DC9F961B3D2BF68EA1A253C07EAABCE5F75C860DD0896880D09B563082249805B8E07B57E28B46AD182634FF8E2EA8EA443700D68F0EA2231594D19730B92D8A9BBF503A149D7AD065BC02E4DBF997BB300BEE2E5DF9DA4470EE527C91CADB05CF70D52F4AFB8CB3DCCBAD9CB0EF432B9E672DE64D7FB2572C98B221CDD8F92754F83D91A9875C53EF1C5E63D4B6D5E607F2819C60E1A912251C238E1055366EC3F995575BBCEC4A888B5DFC2872EE1E5FF0014D5770C359289CC5F6CB54D1CC6558E161AF1CBBA453131D09BD8C878ABDF17555DB3029D72F3AA7425D89D69BFE415B3E20B9B62D736DF67E4A2CE5DB6912A869D4ABB99A6362D0EB74B5077FB0CCD65CC81171D1DED6004FB1632A59911BB76FDC6D1553093063B532C59686DAB70000EC5E809EFD6E3D61B383C1AAD6DD5DEBEE069DDB8D3A1C85FB4EB9977C62459716B4ED0846F3E990239AFC141B08E98627BCA14E1A94D02701BC511DBD65BCC5BFAAC1E9017CCFA6FDDBA3FB97CB9E91B1420B7DF258A8A075ABADD4F70F1EAF9978D36E348D25CED411B0C106DB14F78C517B7E9BB11DA85B7BA0061AC28C4454DD05B8629A1D21890804EBD60865F75DB964DA320E7DB3387722D70838620F5301C2388F62FF5D647FE763EDEEE89BD3AF0E1748F61502ABB71537286283A13082ADD80994ECF4D978670E77B436EBA9F5410CE337B336B76EC3170D7E5C062AA7328B7EF3E48DA649BE27B4ACAE647B30737E263A29B98B7BD6EE36A81C08289B3FF0059C7B94C40AED51C42D4A3A107DDFA7ECB3DEDBD89F65DC5987B6D0D91A8FA95E648861186C5CCBB6018E259BA7C15593BD3F72E7E615375B03E1D10B4D9692700BE71376E7BAD935458D6DAB7A69134EB6CFA6CF5F4739B8D9755FCA6450C9E66796D1AD9FA2E6D8787375854669B1D4F18AE6654F3ADEAC1FF00AAA2E1A5C310EC428C7600866735C266C67E68DDBA435A349C17CA3FB7B1BB6E1A4BB172BEF97D48782A4AA7BDA7B14E0E6EA2B82976A060A96883750C154EC550DC13DDACA9E09F61FC0F05A7BD3EC3F8D8EA4AAAC3CB7D5DEA199B6091ED325E08537683A9D25F741EC1987EF5A783A86051B762A7DD2206E3BB752C9333572BBCDB7C0D9BA11945169345807E968EF44683ECA0ED2F7B9DE3D12E21822D52E891DD58C934053E866740DDBDBA7E21D1FC4A11D9EA5C5E9DAA974C68F05127447F151F483E7B5547BA0B2D2DEA63E95158A8E96A97950D6AED81C60556FE26A2E2D2E60E286236A13DB1DAAA1E7A50F5F715E78C943BA3E90A9B7C67018C628DBBEC70BEC30E4D380D65CACDAF7580782868E8234A9F414DDBE4E63E177F4AB9B50F3D0BBFF05E7A82F3F793FF00E567AD66F633FA026F9057FFDA0008010103013F219B5C723B57842B30693C8DF7563A405326CDEA1EBCFD38CC411769D18E67B9980028317CAB999A2D8D8CB9568BCCE10D161F94D9F19EF8A37F099DB1B084EE6588D2E9823D00AD9FD464E8D876812BA27506A0297AE6235C8A82F6DA8F598B84C007F313F513013030CFAB8F937F957B99B91C1E198590ABAE61F0BBE19615D8DEA6502F1EFDE632E0E5DE33B2A3895DF79FD92C71967E03A8A54AE952E4D62641B0A7166650729C2A2F81A2668A8C0A5F6D12FD3C932E2BC75E25E2840231344340C1146CFB4B762B65798571434D47588B1F954761440FF2556223F5D2AA1C8F81D41E953240DC506C1B8BF98FB454ECDC0832B040A94CF04C1BA0A31C4A49A0F07487D2552B25775FE09CC5A264E2EC656522F4BC8D71C6FA297319CC185A56F4C5EBC41E495F6D99454318BA594AA8C7E260F6042F97DA5D9233290B63E4585155739682F0DF0C2AB70F89B3E67FF16568CD7B205871F88C30CC93B712EED3D618B9A895CBCE234DB0AFBCCA8638F99AA6E288E212360032C5D65DD920FF0091049C17DD99429A6E05EF30B0D8FBF65498265898C398E16B12BE8831820659D3CE2FB8F8A7FAC1063472A88BFC4AAFB21E407618E6511CBB06F716821DB925F7EC783D9834C56A2E8BDEA5122B0C40BB1181737B7D98871EDE26C4DA8CD44AB739D02E99B3A0EA5C657AA358BA5A4B51F040CEC97C12DA9916B5160C58A0A8D614E3D269DEF6AE4A83F5129E5E258002CA8C9771D6871A399B3CFB71E5DC27840A1AF7ADCDA846307F50C889B0C63F0CE6707DC1A7E894ACF46B39A6803BD0F1752DB00A30DE41E65C7650CD50E0C4AAAEB01E0D7DDC13BE4E2D5FE206816291363912E9B7B8522F3E3D33E9BE150322952721E2516D1C8616C2BD4674B2BDD077D18E031E65914528B4324C42DC69CE60F8B98E8F686BA5E399F22AEEBB657150B7F3185E5AB856ED0841FF005176F0B156F9748F546A3BAB812F7C2A88BF3A9BE33FD88F572D35FABC11826C9CD7B5E88F42EE8DE3C74B8A8417FDE86E5CC0C8E5450BA86B4B73DAA5ADC6B7ACFF0095296BBCAABF641E5081213ACD03F3296EDEAFEA4C1CA1209D36C145B4ADEB08561CA7EF32452D1D472A6E5F0FA0E537ECFB8CD5EA5D5338FB435DF6AD89F7229ACE5B64F6330919C2AD2B79671A8B04202CA8D8F6A4A8DED3DC9A4645FE72C11FDC366A63250D456B1794FF00AC3E2D9F9E9B86E2C4BDC11D350BD1686439EFEEFB1088D7EF015E61FC364BF83C972B49AD2426DAABEECA76914CDD0F28B2904340474B860F9FD8F0474ED88FCC654EA4BA625616E603A2D6622ECB5C87F243178A2D29807987D3CCB0E7B89CEBEF01ACBD63C621055A8971705CF737F7076CFB0394EA304E18E3153132CC84AC8612BEEE6B2D1AA7973381203968C9F6C22EF357AEE237933DE49BD7DD2AC08FB4C73E16E17753C88349BCCE7EF382C7C2A1AEF0A19F58089D468F3052668314A9AB59BB71492C23BDBB0F726447F42FE62E1B1C467F65BFC4B1498E3508BDBBDB1FD7E467A42EE5F4AC87A8C2B0A0A51A63D937DB0F30E4F3418652E961119A8E4623C02F00CB29958AF83E07301BA0F92077DB5DA1C3FE653A8DB008D31D4B7CFED39FDC5D9DE786E2EAFC8832F43749982E4A72F3DE66408A78F716DAE1FE17124C5979DA7C11B087ED9F467066B09BE6E097C27F3BF12DBF89DFC1E60FB3F04CD80ECBDCB1E0F5B67DED8C29B3808F7B8CD2EBCADABF7155AF786173B3AFE2768E0F7379978EFF00A4B635CB74C68EC1806211B75707C6A375A56321C370391CF72AF8954F4576CA7234DC43266AD00995F8870784FAD7F790E41B2053ABFDC2C3C453F1181FF500808D888FC30250D8C0683170D7E113C7D8B0EED5AA92DDDFEB235A10EAE1BB631E054D8662EF53B0B74391E1CC13B2CD6D72B11EB987F9B11E1577878B3BF10DF68BD74CD7B7F18E529EEAD3F451DE69ECC77F6C5E3FBED3355756DF9FE698C73E3C58D2FA589873777996F30E4AF32B1D390DDC2A3E6224A066FC44FCB8E20481AB802C47478254903D7A2EBC430394FD67F50E60D31E32DFCCD55B8B6F1FEAE16EEEB652FC3ED10B508B78D1CFCCC8FE06F9A163EFF78859CFDC1BFBD7DD015F21E07F9FDCBB9A7FBD9416DE4999DCC3F6E3D4ED36356AFCCB1434567E6669F8F72951A0A8A392E085EFB3B403DB176C87F90C7AA6D5B2E9B232C5ADC396CDF684A005A7872C2641ADF95911EEF15BFBB317CACB556BAF88903B72AAB00D7DC9790812D38B9541F2C3CF6BF427183C099AB7117D8171AADA3B4FD3FD4FC67EE6B0D93F4477F4FD2C9717397F47F4EB931FD7FD4D3A5BB3F93D4FFFDA0008010203013F21972FA8B80F49F46D151B98FF00F0B971255C246A212C256058DA0894D4C39FFC8694C339E8B42E21A9B0974DE0DFD552A54245C4E03A6054B25C612E659991C4FA6BAEB2A85D206A574315534B9AFD15F4A952A3295349CF482592B0B4A7330CCD37EA4BE97D54544BE01CB2BC4B5CB409138D739A5326653A1D465F4B994F1398956A5DC5B186A590336CC880AC0AEA3E962C444CC50560AA199C55012C8B880E6BD4E95D582BA2FA146E012AE251A9E70506C074AE87D58F51A8065101C112733587D352BA830C3A022A83677985C418953543E83A547AD4A58A18D4CA1594E9C907A1D43AB1FA3D44845843A8A690FA6FA3D2A2972F5C3335D178C2D9D91933F48972FA865147E38742A211CA8EB30CF696A7FE0204453DE2050E49DE97D448BA6288EAD0D496C03D14CECCB371EA0077B47AA288371844BE96C0AD1B8D73B8BA1A6390BC47A3D54232D0C0B083CBEF37443CF0C4B98A68A2E65B9E87942274BE8FD38A2BEB62B7F4DFD54ECA9BFA4941706AC4B45B5E95D1FF00C6D4F5D0EAFBEB99FC7686DF433FFFDA0008010303013F21AE84B2012A044931742B01CC29D4BF3095F557493810EEE8BCCCBBD2426845952E28D9FF00900974E13E889B041B13950C6357D57D434DC332C63115A53D045A1086494A9C7D372FA4B32E808094FA1969433066095F4DF418B7D2BC4CE2FA1130DC31C31173D3085E84B97F40C3735478889E1D0B8A16C4EA1B97C4E27D024951952A11C5662B5E8FC1C488E28E1A11AA862B0BEF1ABBEAF47A5CB41A304C3A1E494E21D5435380E8D64112DE62EA7E8B98373725EE3339181B5C4644AD2CDCBFCA05B1C5F115BF43F4AB539E9E62C1704CD640D6CE5946660A3F55F5476450688EE319332CE20389C7FDB8983B7F9F889D0C9FD29F467A3B5CA88B033770A4BA15DCBE9B68CBE972FA90EBAA5C04A90AA5D0DC13663F42CA95D0E9716EA543A14417EA00430F4789625F57E94AA01BA96740E6BA08C344086E76A7DF44E6A543A012A5989C31442C6A241A890594F594CC5B3F227337389147470107995704A10E83A51983A81895738C8E30282667B98408812981174AFA4971DD2CE16CA2DE1F69CBC5B8980B8DB2C2A8C12A53D25534E8B9EB30832AC63D731B95D2AE5451EA3995D5EB71E172F2BA3D42B51F6DCAA044E9AFA5E8747AA7AB7C4E6308C3D669FCB8F47319C4FFDA000C030100021103110000101C5F504E69A489218E081CB42618B2D03C92DD722A7966009225ABCD0784A635DAB70B0A2F20F56A05E68B881FE46F206C31909F5CE8003111B91505670AD9A419B3ECF594AA56A5C9D688391E96BC596E7EF02459066ED416DFEFA764BADBC237465FA6902B8A10190BE321F255755534DE442896D8AE6B82F8C68AC603AF42A44FB6828AC7BD15AF7115D10DAD285AEB52EFB37315C90DD896C01C1F92DFCB142268BEB8FFDA0008010103013F105C041DE0C0EA05200EE25880DD1733000804D171B3D543C03C205C94B03C71027BA0AB4B0A769DC95ECE458F8A1BC8E60DA30B36B27274B0D47547B8AC1360F1AF128B1E3950051B6B1B4A975431443489BBAB6ACDD242DFC565E1AACD9786FC464D360E4B32168B2D460DC81A856984C4B12A03989DA5A81DE18293450A5AAE8F52A6A8B481E600A640A805DA9AECBC15BE47A9C54E04B8CB84838F42B68B58642D107DE0B2F219B5B8B9B2D96143BE619C131C95F11CA6D02D1016EBCB3231D931A6060CBCCB57230A61033C71DF31F84C7C3B76340D8D7037171928B69BA48B67E78FA213888B82C600146251E843602292EAFCCA7A6AA6D6704340ECD4113803C0E1335F98CAFCD0C52DD01715321EDBBBE4E6BD4BBFAB4B607ACD30B5B469DFA39885E3462E86B8966D998D36B58E23B2E15557B39BFC4AD5BF376B755A4CD77259B2CADAB6CD7282B85621100C98A39CF31816CF84F262397115398C1962FB17513B52CC5130F94104B4E10B6DBE6014A40DAAB50B4B0A17953FB87E6180028D9881001D8251502769535E2612A120787BDF861211F9044586AA969ED0AF1908CD084BAF530B756894B4A52AFEC815B999691FA0BE9B8A70C11077C66B350BEAA5C16DD5C6DE8D092EB4298D4AB88A39A1D57988655E01CE5BF99515C41C9E53B62075179D1958C0F371EB63EC4B98291C6B4E1B712A84651164FCC2F4CA94D2D2A5050B8BA78825A89ACAFF0076C4B3076C0FEA60B0336C63D7981DEE85723C2D4DC88F5CFDE35454581A5FD87896074273699598BA7CCA64289CE298953B833E283F44B0AEBD255F251F88705C8670E235E1B8D7EE1949E063EE41348888CBC159820ABCDBB7D9AF980CB28220EE0598266F68A1BE98C4AB43C1A057D9F11F2115E2E2C48BE07881CD06ABC37181FE1977EC989461CDAFDE5C1B8B58800C41F4960D3AA7A69973B03316C32098A3A152A1747CC112355C438A3FECB33A2F947F8DCAE739894BBE74711AEC2D24E5BB312E750942032E91EB6C689DAD140AD76866B31A6E538F6895F2798820B019A8A7D97BB8F21199B08A40A688D5D9702E505317DE56C8153E4C311128377F89466ACE2396A428852191C4275346D5AAA77A8B90B3C1226913647867413C20DE338A94BF86BD54A6A60AC25BA8F05602806AD586921B7C00CB6521EE2E7F2298E66CF26EFCC719F292B3642BCDDCAEB36C42700288EE83E20D7DC1458617030C4F1DB782D7756B0FB9994EDD8D0F09A80050E2011A9837047B43B1895E2762505BEFA34F94C1732490C9453FB9F72A45649520834CB8CBBA95DFC5CAF2C51321B027E08D0036F4384DAE02269883665C1D9EF2E21497BD1B7CC50F6A8816D6CBE60255DAC237E5F9986774BC84F3784F70F02CEF7F17D88B9209AD253B20914BBD5CC796992A043CD4A7780C00DEA01425DA9682118DE96326A41BB23642B6E2805C895815BEE40655A58DC5EF00F8625AA32D92872A795DCC7A80B23AB42A884476B5EA294FDA3C7DEB0641BB379B8DC20B8E28A5A3C5DC7940A56A2A8E131179D3007DAA5BC4255442DD079706CED1E1B77DAC16065E2638DB8E0BF014461CC5265F98A5A99F44283C44A8128948A16025354AB4AEC999B5A7601C8529BAD45150BABBB3A379C3995357C49B652B2E49A02CDB28BD0E7DC573CA05618B011947DA4C774AE5C54DD019A37414C5B588AD42DD5C6C0DD2E2E3BCB679549DBD4E147CB817F3170DF40D1C76969B9DE608DA0AF111519446C95AD2901BA0E1311BEDAA02A541DD17E2516C4BDE158429C10AC85BA692CD40E9A23D374A039686CB2D31CC503F585F1AF244DC015796CD5BF11B001BE2539831521514040CB57730505706714572475BB96B154AABEF50D4D8078A283F2139F78DE33295D3BC6AE6A3B9C4212E2013BC60768886313D27FA53194DA5C6B92DD535E617FCBA3D2EB8DF30A407115A38B8209DB364205B468A98A05C86B2C587FB3C80744E1A480A3ADA87895032666ACCDF2FC99CB177417C220B87338F29C4A8CEE6D3181A8109503A65A090AA99CAD4BAFA90E74EAECD9FF23B2D14070C4D00E60E29AB9A7AAEE767B328779678577CD308B4456B2B7DC837448CDE535CCB578475CB7407CCB77EB5FC2185544AC600445716E22778F6F5281799731EE522C8D98CFF00F2575C0A56E2B2E1AC90BE6417C1055832B6E683168DCB16F2FAB65860739836922C90206FBF3C40FC0BB81ECE16A592470DA3C608A410A0722F003306208DEF57E8E26599468CD2B2BCEBA0136349458CB2468C039C211199E2E08D4A1B9B771589B95DAB1281AE21031982AEA956CFF67446D643D7C582DA56C46A58733E32F7E0167CC07C7C92E8F5CC4D41C2F478F8104453617F06262AD2D477AB71318E76477AAAE2D0CCB05429874F06F72848EB3419ABF045E2E88EB171B1299C93105023C1B77056C8E322F0A8DE4DABF042271E60D7848D1D386A7A085662AA51F3493D809831E5B420CA985C7C6A5D4B2CA1653BCF64463172AF04A317F0CCAC8B400BCE6D4F3F742DC0BB256BB9FECAF92DAEB155AFFEC742A66714C01CDC274DB69563438FCC607039B2B412B4AE1696B0934734FB6257B6F400006B3BB8967B1B279B21CD9B952F20238AC15F9B8ACF9546EF40076E638E9AC2A770B202551CF1CC8BACEFC6C7ADC61E02D1B4C0F3BE26C4DC300BAB2A6B962F8AFB965CAE5831B80C28AB358AB65B92A1BF6D75766A16225A151D52ECDA63285F538DE021913CC54812CAA6AACDD79C47AD2ED9478168F0DF8886E0C3771016399439D53B8A405AFC46FC14E38DBDC48946A0341AE67F6AC54A1D350681528E16746848BAC2D5902C1F3CA31B14AAD62AAB11676239D4B5BB115996F8610C33E2F398D5475063A6EB1B81B841AE5BB4816086722B15A8266651525A098E3895AB926358F3F75978A60E3830E3CA4F71C76163C9B806A2A376616AB0D8CCF93B150865B3017DC38646CCA2D0EE34EF12DE02F92DAD16DB23CC451BCD72E5101DD96FC4BB76F6EA819D0E28E7BB51D8BA810342D59328C7A8117710A1F3DDAEDC014A603E147BC1B169563629CF7735515DD2CC118D608D1461A869B951D4743DC74206FB18C9D3B22A9046214F2B59622AAE1CF6F1DA2B4E6D5A67883E8270C2F95C79810C64B3BABC43E07156F6840CDB6FA865866A0099E4DE6BE2217CE45E0057DFA7DE5B5A61434391659703D4A9A12CB8920CDDD595414B02C18A748F0709878E3EF21D8715CA36A8818034E17C32297115B19A839BC220D30E286ED342D96B6E730DA11C4A5285AF2C00C5118BC5964B25A762FF00B0B3DCB5D082D2A0F57B3271AAD463515595E08F74B0797657C445B15C1BACB1185D4807C6255197065C410327C2F79BF05470174B97033DD7DD0C0A2C2C2800AE03257030410158B2DBCC8C0593E721545B590E31F78D2C5C503B28FBDCB33B746685182B3BF8884F2AACA9A56591549157AC151BA3BE6338B63E761F17CB9145D5602383407E99C3137DBCD8BE0BBC4535BBC39A601E60781F1F318621BAEA39FC0764D3EFA2D1FCED9FCE76EAD4FE11FB74C3F545D21FF33DFD08EFE99FDFFDCFDDFDF49F927E93FFDA0008010203013F10B8C3D1AB871E9AC998E62EAA2BDE18C33EF4168C11254AFA2EE208C593354B821A092A5CAF6C02C66FC77DC947A417BD1FA5B952A08C622ED3431A72C70CC46F336288D65033398D2EEA315CCFD0C6080414A2D1D600E5CDC2E90095E80CDB6622F744BDC0A952A54484212886E341137122207704F4D4E5A0AE0D32ACB85BA36968408F04CE1062A393A3F344799C0224D0986CD4A65E636D097154074045892861C52070EFE01495B72B0302B612AC7B214F04233A78953CA7A89D45CA5DC054CBC2B7059D914E8082292DEF48E0A30CA0C40DB895A9CEA630D4AE825C224A883863D14A08150406529632884ADD4E3D4BB88258C2C057C4340952A3865A984AE86CAE263B4456C009828332A5ACC3AA69882AE076104C75C44E8BB942574554C6547A54D94883880D84AA848C113D4B56C5E8B601A4A82808ACB5D15D1CC198454A950DA62345565D50F11CA5A20BF1DE196344A4BFEE82CE2F7F10FDA166A1A0F1D17D54082E608B50AA8D8A7996328E2E03664F329CB1072DCA8C4C8839BA25810D412A357D0A8FD1724790C4B622710AC76E08E58717BE22C22863A17702FA16395D3803616F8986F3118731170A711E08CDC674EA3CC2E0DD3F8947238952BAC84C5B970DB768AB6F5315B6474C14A605802C96CC597ED3C070FBCE342D9044C4B964218728D61F7772D4C02F084D9500C40786E29A63D54C9B580B73888C60D67ED03BE9915701E482D9D222D61DC2DB544B9DC5B9583CC598FB3BC6054CA371CB0EF10599974663606A160B5006DCBF18AAA8BA23770FDA2399ACC67A188A671299ED1802DCEC78C8DA77331B85F0727B87C28113C845FB8DA375CF9EA394BD0860334CF1C400DC58C4352D970A65A96EF11074565C137CC3BCA788B0DCBE71065B119CC62FE823A9AD4C6155E7C413DF5A22021BF667E399E1E06F37DAA5C9EAAC4BD5FD46A71346F67A9E669A8F430D7FBFD4DBE4F0FF0091F4DBFF003E67E07D1B4FFFDA0008010303013F1080CC171567500C4EF83DB10C663C1AE580F27E631C311781CC7576222A77F519F55C2821784C186A5882BA0C77517A48BE07641D6E1966DB940AC97F480CB82D87685D2DC0728B846AEC2726960B83A757C54C7C7844486E08D4BCDB2FE82B2B2F66844C0E60C65F1310C11DB4B372F2A86A4CC8CCBD702AC62BE854BC618DB403600622B72A620892176E0994A70C58081F7C728D1B95D7696C6188AE222C45C61E96F74CD291E44B6D0AE42A53644A5CA1E96252522532D82D4B098DE2061352F97680882C8C689DBC8CD27ED3CC47A62CF99632A6D39E9502E52096E82AD11C580A761B8CA61E218A288FC6443984587CCAAA278DCB0B8799710CF694F184B39FF915B65B7AED16A09A8258764952EE70315B8205B8BB0600F296493CA200C8C130C641DE65C09B5BCBD5352E2CBE8690E1B3DC74BDD10595A99A66B4A25447B4D0CB155E238A17042E0335DE50652D8FB2AA1C5581F796AF4B8F4DF5B98181F695513372CB7897EA31CAFC43696CF318A17345E5001BA8352B0C48ADABEFF41D4731652A0F42EF4CAEA16EB980126980230C2E826CCCDADFEF07D6BD2303CEAA0E6EC717BF9E632179FC461B4650EF17ABD4A8415288E227BD11AE8C24A20A3C98FBF79431BF44656B6FE3ED18CAE1D932C371168B3D171444B2BA08224AC4BAD0B1E658CEE390B34598E751DD451A9F9D36972E2E251D0B815045B992A8EDF3D839958D5FDFE62B59A81F12D65886D82935E4C4BDA0055687DDC29494C6D2D8AC78958950E8301887068FDEE520EE0446E13E629516C63096A8E626968FD40314857947166185BA0DBAB35219AC12AFCEC979ED082B9D47C180F442CA00288DA8360CF7F11BDE0A3E668791FE40E80FDBA42B9210BD184217AC28334005DBD19B364C0D7DFB426DB20CB9E411DDD2C86B839811AC25574D959B9ABC51DA5FC98EF02A22E040C98882A0B1A865B438801427FDCD30C11ECE22315273C7C4C1BDA0AB4F6E6588815AAE27DF9F99847598D59034C0C53B83884EF14A18ECCF8CC561D2A08E65867A1F30581B9436AB3EE5068CCC7695B529074DC502A1039AC1F116307C4B1B3A612D637050E62C01CB55C7785A0AC741DD43282263EA6936F89FBDEFE7C4FC97FD43D3ADAFF3F33F34D6FF00ECD9BE3FEBC4D5FC3AB784FF00FFD900</t>
-  </si>
-  <si>
-    <t>Michael is a graduate of Sussex University (MA, economics, 1983) and the University of California at Los Angeles (MBA, marketing, 1986).  He has also taken the courses "Multi-Cultural Selling" and "Time Management for the Sales Professional."  He is fluent in Japanese and can read and write French, Portuguese, and Spanish.</t>
-  </si>
-  <si>
     <t>2004.07</t>
   </si>
   <si>
@@ -287,12 +228,6 @@
     <t>(71) 555-5598</t>
   </si>
   <si>
-    <t>FFD8FFE000104A46494600010200006400640000FFEC00114475636B7900010004000000500000FFEE002641646F62650064C0000000010300150403060A0D00000D060000148800001EFD00002E78FFDB0084000202020202020202020203020202030403020203040504040404040506050505050505060607070807070609090A0A09090C0C0C0C0C0C0C0C0C0C0C0C0C0C0C01030303050405090606090D0B090B0D0F0E0E0E0E0F0F0C0C0C0C0C0F0F0C0C0C0C0C0C0F0C0C0C0C0C0C0C0C0C0C0C0C0C0C0C0C0C0C0C0C0C0C0C0C0C0C0C0CFFC200110800AA00A003011100021101031101FFC400E500000105000301000000000000000000000600040507080102030901000301010101000000000000000000000003040201050610000103030304010304030101000000000100020311040510201221311306223032144134150723333542241100010302030505050604030900000000010002031104213112415171221310206132058191422314A1B1D1627233C1E15282303415A2B24353732444740612000104010403010000000000000000001130405021010010603120704161130100020201030402030101010000000001001121314110516120718191A1B1F0C1D130E1F1FFDA000C03010002110311000001F1F95699AB5A4BD449F7B3CE7420415648ECF72D35270AEF788976603BC9F46E43079AFB74ACDCDE9CA635E10601F967CE679AD3D54977AA2E9D3850933F342288F5D434BD8BF7A30C40F350D589979F45136DE635A1A6378FD1C1D9BCC1FF00374183D3AAFD1C4AD9D4032ADE1F9AE9E8BD2359E80256D87723DBCD7EC4D7F4CAD748F2D27B6336E40EFA6FEAC535E82F1278941C532699B3AE9DA415E2DD46C1EA1F4B642AD802870DF39C73822646B598C16C349ACFD2F36E3F3F5BBEF9AE3F5518EBC479AB93A33D2CFA6FA82B84D21B0FAC47C647AF55FC8F01575B73912647C21F23E5E2B5B2377B9368D08D37ECCD8EFE7E8B61D8BAFD8573A170ACD15F58BD27DC2096F009DF5BA3B19CE3201AE7224CBA5E7C7AAADEFF003F5CBE6D95EC4F803E70D2959757AE73D3C31B044D3C45E8016B813964CA5E272BC431C8E018C6234C38C73CFAA09B61D6F5CBAF7D69F217898BCAB2CBBF6BA0BCD6AE6BC53DAD536E59E1219DD948AEB65804E9074510C8D9B46E15C9694C7BCEF92E2F493E2AE7AEFBCE841169A0363F47D300DEB58C33C93C3EFC4F730B258FAE71C569C23471E755DB6B9574BF423DB8A628C204081042A688087D015CB2B39AC803452C4414EDC6D579648FD0E715232B6E5972C73AF1D51BEBDEF24BA99F8C9CE84083CB3A8086F81C554745E93AD66EBBBCECD3E6FA3973B0F933B3DDE3F528AE4731626C1653BC7E93E79047C848542E88100EC3755B2FA945CB7DDD52091D3657F32CA9F92403C2ECF5CA71388C8CB1DB4BD9F2EF6F47CF40DD43868810201187D1C9907B1EED5DC15606E57E7F98A85B1B31961A2A72A989B0B276F7777D2F81CF441D567660810750AC7CFF004EB78BD3A875B32A781C8767DECC31A8FC3B9398EA78237FDD059574F2EDC2040C503E788380C98A6C1CBEA5E33B20B344352EAAE7C5258C55F44736AE9123A442BE9E7B9E53BDF102041522021772677CE8DC7C9A83D3FA0D2FA45E2454688AA8A233AAC85344CFDB4AF3EE37E5B2681BE64081020CD3CC449ABC7D145531D38BBCDF737229EF7B3C6EB95D25F50AB95CE531E279337074FA37EE798810204083373130B8DDD97A69C8ABC85E5FB9B2D74CC6D356AB61D9CD702EB9D4CCC576C3FE8B591E80BA44081020419534A20672CCAB145CEDCAB07A76FC3EC595DE5209650AE93A9865D5F5E688E6EFD58F4FC833A96810204083316D33ADCE4DE332D2B77E3B32D1FA45FE5FB607CC826D5E3CCF4E721F68B0F31D83C4DCEDE6B4B94FDBC408107CEEDA33FE183E173B06FA2F67F72CFCE7D31AA5E37BC4332761579F38444D3F62B3A20C68E166A1BD579DB84083E74391198D0B85D6FE516AD69CB33833C1F7EE6459DE894BAEF040A6D464DA74BDC2F7B24126BD1D63BF46FD79F9D883FFDA0008010100010502B5F888E45871FE3D99DF606591BBB4730E4AFADC2932E2492EAFE2318BC4CBD8D8D9AFF946C89CD67ACFB65EE19D88CE63B350681B4308ABF14DE30684868CDFB4DCDA89BD81F0A6DBDFDE29B15D65C2706BF1E68F81EC4C9F82E5CC7E6BA082D6E035DEB79216F7C3B202A71F6FE4B8B46708B4CA5C786DF2AD96E67C4E061B765CC5464AC08C6D70B8B38A971661CA7C67516CF899787CF1DA1E471775F8F2E3E6FC9B44C62C475B887FD7A654B9D2B31959E7B7F129612E13DB14D610646FC6686AA48118398BAC531D0430BADA7838193D2B206F314A362C34245D37EDD2FC379DAC679CCCE4DE2DE376D1578E249A87D14817643E4DCADA7036330919FD75F1099335605BCA4D6F64315CC718ACA035A5955908CB0CBDEA9E54AE55519EB7CD6B995F04BFD6F7ACFE455BDC75F5A3C869248D89B7B0F99B1B45BC794CCF8145EDD6357E42D2FC4F0558450CC9FD51098AE5C38D1BF91FD798831E450F569187058E7DA47A6643CE34B43EDE22C0B239065B8BFC8E2E79B12CB67AAB8584B703C7779C8224CCE5ABCC57504E8355D0E2EF0791DE9111661D706ECBD9590DA59CAF9E2965157626DA539FC35C1C87AF5ADDFE6E67F11968D8E1FC8B9BDB08E66CF8E9DECB4B095F6E5FC6EED269062AD99249611C1159EDC8DA8BEB2B38BC56F9106074F917C723A37DC9C6625A64F6E3C659DC209EC5914B1C960F92E1B04B1BACBC3C1E64BBBAB86C85982C7C98BC46D78E4C8BB5FC6D7B6E2DA16BAC6DE29E586386DE1F6D787DCDDC7D638E85BCCA8E22E16AF13BA3B9FC65E92C390CEE8E790ED97F2189BEC199B7C5C308BEC89C75A436CDBA90D95AE6247492DE465C2DBE463A30174B29B0608DD7519907A0610E2B0DA39B53B323F7E5C7E47B06032B6791BA96B1ABDC944EB6F61BB640F9328F78B69446EF234B20782F987821F4DC71BECA6F2401FCAD965565AC99F9171EAB15E4181BACABADBD82D645746270E30B535ECE50F289B8E98C93FAA6321FE1ACEC6CF1F1EB1B8BCEBFD8DEDEEC5DBFF5CC0E8F013C7E48E367176571F1DC32EB377E2DB233433C977666EDF69630DB9B9700DF5DC6CB7B75042CB78365BFB0357F3B6C1457E266DC5D8821F65B8BAF61CFE32D598DC735C1C2F5C227DE5E97C17B3554EF7720107517CA67FA2FAD9C5DAEDB5B60AD9FF9B9384AF7BBD7DAE1BD120FCBCE48FEAD7F895E06CE2EFF00F9A2BB8FC91BE95AD5715E9B88191CC6EBB97F1AD70D118540BDF62F2D87A64E2CEFDEF45E08BECC0B196FB250DDC4EBAA4534D473270D5E67C87FAF30FF008188DD3FF99D8F8BE51F45EDF9DC232E64F5DCFD964ADF3A248E0BBF2C5ECF33791B873CB9F305F37AA2B3883A4F5F9592E27770E86E6CF116BEC7FDA3733AB88AE5EFF56CC65E0BCF68B7FE3EEB1993E76594E5707C2D8D70E49CD0D0646B4E2AD5C24C8E6EEAD21F58F7BB970B7B982EE3D992F6FC8C4B24CCD65E4871327972986E381F51A09FD96DA33EB386BCFF000CDF24F894CFE0BF0AFEE15BD841665B212AFC831629D1C71C79CBCB097D67DCA1CC6CB8573FEBB4FDC64BFE0FAB7EF337FF00030DA5A7EFEE3F7051FBA359350FDACFB303FF00435FFFDA0008010200010502D234363DDA86AE2A8A8A8AABB26495D42A28C6CAE85CB9AE6B920E45B5D38D51D187A26841A9835768E722AAAAAAB92122E754CE89C8AB7AD134209BB1E88446EAA12752EE415BBB5614379DF1B910A1FBB4621A947576F0828BEED23D49A277608AA270446D2820A1EA506A8DBACBF6FE829A508D0E8188C4516D346E96FA701B24EC0FC4A6A2FD1D44C62A23545382669101C76C82A023AD149DD87A5573555226E91338B769D1DA040297BB557576910F9EF9138AA263688F40E434E49CEAE95503753B64EE9BA3D52ABC68E8504D67276A76BFAA7261451D3AE85395BB3E2D606EC1B1C8AA69FA209AFE28BC9D0F54D141B06802A5172D48D29B6266E6B537E454A7A3B5AA3B5BD4EE3D033497B3BBE95D28A8A9A42DDE53747F54E8CD08D69B0A88FC7785CB4054AC5540ECA555289A1732D4D7076DEDAD13511D1E35E284689D027201364D8ED023D99DCF691051774ED0A6EAE4DEDA7FFFDA00080103000105021BDADFA3DD114D876F1544235E35E35C116FD127604026B29A534A2E28C68B289C10D1DA1450D426040A1B8845AB8D0A78D48D8D410D06F9068FD5DB1BA03A0DE5393B4AEC68AA6773D50554DDE5393B4A6CB7FBFF00F5425502F8A08228C945E45CB428A7EE8855D20A39A895E147A00E7274CBBAE8A9440A79D1DBA27F07486A46AF29BD9E3AF15E25D932A9EA26A95DC9DB4777288AA22288D491F691A9405152A65E8CDF08AA89AB927390F913A52AB8AA53460570FA9DF0F61D8E8DEEF345CD34A3A7EB23B8B7E8449A57747E2A81C9CC5C5043B02A47752E27E83426F6AE8D2BC4B814E8EA800112BB23F43BAF192A9A34E9E445EAAABA3DDB89D62EF1E850434AA2747741B823A44A3EDA71D2A9C5040295DD7704746A649D41D6BA51534777FA14D627A08854D49A273EBA52BF4C1EAC774D0B93A544D76D360D874851537DBF4FFFDA0008010202063F02614CEA2C710CB4A9B30F4804C22522CC343014FED3F8AFFFDA0008010302063F02F4861A6359DAF7E9629FE6C7461C238863E271AEF8F897FFDA0008010101063F02037209A7C3BBF4769F3AF5F8380C74577AFAAB90D6BB325CEA2F96EA7B6A98C73C363AE340A48A291CE8A423AD5D38D32C900DE468C1795F28F888A0C7DC9ADB7E415C6B9946E22F94F69E67BB663B950B19716D33BE650531F0426B39DAE77FC580E0F61DC5BDC8C7884DE1DA49C866A564223B50DC0CAFE67FB005AE2ADCDEDC790E9AE908BEE0C83579AA7EDDB8A2D6B08AF99E4F35117D164B1690B3A21A28D5D1B81A1F71B73141960A94662310DF29E215BBE360D1311150E7CD8535786CEE45C53476E96BB4C92E0386D53B43F0D66AF3F82134B57CCFC89D816400ECA6C39AAE8470D34556ADB86D51EA3A648F01B8FE08301F9ADF2B86DF04D2F617C7260E8FC767DAA09E94123416D73ED604DED2D0681ACA7BD0E7D5CD575136992E1D851ED2C2334699D16939EA1A4F8AA169D3A6BC2BFCD089EED525A3B413E1DBABC10ED989C5C6B40AAF6D10F0EC777A8992347152326A8ABA9AF8AF54656BCED70F68ED27B8C85C2A27796EAF655728E5ED3DE08022A8ED6E45BBC2BCB4EA57AB6E1ED6BB3E53FCFB29555DFDBADD965EFC14AF70E6CDA80268D68C1690D01BFD5992831D3D1C33690B5452B5C1CB5F785551C36ABEF5270E58E06C4CFD4FC4FD83B2A2AB9BB6EBA62B2340730788702817E05F4D54F146399BD4747835F4FB698A93CBD169D2F9E5341ABFA5BBD3E96D6F76EAF99BCAEF61A02BAB625CC0F3A3A6E3E57EE3C54E4FC07141DB76A2284D36AC496F1546BB139767151D0639A2F779A599DF6507665DC9E5930631B52A07114606EB1FDD929295D40FF0085FDBB836F62D4592BB9DB8E634952C8191471E2D63606B8000E7B4E3C53F4B0C7035BAAE243E5D0DC71F1DC9DA6F3E9C5CB43C36588EDDE59A9359777ADFA0CE692D9C1CE207C2D07227C4278B3F4AB46DAB7F6DD70CEB3C8FCC64AE2A92FA75AB8EE8C748FF00B242FF00B195F69203FB52BB532BBB56047B56891BA5F19D2E6F051C8E2D82220E82EF33BF4B76FDCAD21EB089951D6BA98D0515BC76CF12C0D6F248DC43BC7BD716A5DA44CDA6A4D8BFE5B432A7F2E0BEA3CCD384AD38F020782AC32D43B753F82A9AD5CA68751A4ADA5D115A6926B43C5168C83700AF75335B666B7450D310A621DCD24658E0EC4D1C8CB210FD54D54E5CB821AF134A178DBBAA84B700BE76C6C2C8CF95C721ABD8A42F7173EB4515ADAB7AB777123628A2DE4E0AC6C667F526823F9CF196A389A7BFBCE6EF08F81C51E089F29FEA4D8FEA1DFDA8322F2ED5CB8A6C9BB070F0283A37693BD61B36A74927EC45FBD26E1F894F9460D929A5BB80D9EC5717741C87946F764BD3E67455E80966977021BA41F79ED03BADD39BDC07BD5657739C9BB715AE4F9113B207CDEE418D34D7E771CD3DE5D81C19ED41CF38A246CD8B0D9982BFCB87F125007067C3137068F6294641A6B4E2AED908AB46007B712A39E78F4DE5EF3BAB9867C23F8F6B7BB6DE12B495EA37173CD1FA6C35B78FF338D014EB66CBA2EDA2A2DDF8175376F58FB57D3F51BAAB565547ABCDA71684E1D302BE283B76610737169C8A68F15777018E735879C8196C15510922EADB31A5F39D9E00F13FE0124D00CCA99F632F5459CDD290FE66E2A6980FF391697A984558AEDB492D2E1B839AE1E2BE83D5AE9B25EB1CD65AF54734D5C33DEAB3C125B3711D46E2C25AA9D527C4AC66038A018F0E2772E93F6E21337028BEE226CBFEA753331E2A0B3200D574ACAD996D1ED6B053B95D9DC77A7DA3F4CB20F9AEDBC11BB93F73D426748E2770C0270CCEC437A12B0F4AE233AA395B81077A8BD36E2265CC10BF51764F77356878A9E48EC445566989BB01FEA4C38441834E96FDE9BA5BC4A2FF008F26F156F690FEE5C3B45770CDC7D8A1B78C52381818C1E0D14EED34E0B998420E6C64039554934868D8DA5C549D1E712CBA211C55958B32B689ACF6EDEC69AD11D2781CD48E2E692E3CBBD119F8F68DC325FEA176CA5E5D37E530E71C7F8BBBC4D3009CCA7CAB7CC209F1C674BAE3949F042E24C45BD5C38A0AA7CAECFC163EF4F60F8455BED5D40453B281536956D191AE284F5AE0ECD2DFC7BF268F39C963FBB39D5220A1DF5387B1491BB95DAE8878E4A8BA52F936109E192875762315472D562AA56E1B97D6CADA4FEA1CC3C231E5F7E7DF6D472B507F659FA45CDEB59772BA876B63D430EA1D8A4BC82CFEA2DFCFD481CD7E1C3351F351E33424AF15D407DAA8305848EF7AE635EC6572A85641A7F6A311B86ED3DFA2375EA170CB689B8973CFDC9F6BFF00CF33E9A2C8DFBC739FD2362FAAB97BA592E0EA74AEC493E2AD34752E6D5A34DCB1DF0B7782997F6234D95D62F60F85FB5715F9762F1EDF139051DCDC61A718E2FE2546EB795CCA3B0D2689917A9FCF88E1D61E61F8A12DBCAD9633F137BBD2F4DF4F0D79FF00C8979A9C02EBFA95CC9707E169F2B7804D696ED51CC1BCD01C4F82D07DCBD5A8CAB843AC7F69AA0DD5C47662B486389390A2C84209C3567EE5A89EB4FB5E7B1AD76D2BC026CB613988FC5B8F109B6978CFA7BEF848F249C37777D850575FA3B3D57FF524FF00751415B7EA4FE28F128F641C4A282B7FFA8CFBFB9FFFDA0008010103013F21F7F1FDC1C3965FE261E800471507979788812048ACEDA28F885950D8D3DD653FB942256FA9E731EAE94D9EADABE3EE007688E52B58A65F554305F75A816C71522218B75F5514ACD02D7E4B189804E63C9DFC5C14670AEE8AC9D5CEB117BE7EE9A570EAE5D0DA8FB6DBB4FAD7F7333269E185AEF9DCC5FEB0051F896A5808C1659D19EFCC2B5A55D90951D5A807305BA4EE4669B774FF004CDB692CED7DEBB330417A3577472372DAE48D9F67AA59AE43D21546B25F2F758ED321D10F10C2EB36089DBAB6EC5EAEB92256C0C9B4C5995B7DE1267E4B7FE8C12A04680F100AD62627BD08AA01C29B8356CC2F7FB96AC1B704B0616C6B4C5D6833FCB4F6839B1BC2C32A849180F0D5C8F242D80F1C1DDF3D37307741CC15EC7579350AC672CB08CE5B4B1BBA3BC0C1D409ABDF64BAF60DCB97BE2025CCBAD95E65778B8764820295C12E950FD1A3B9543ADD15BE104CDD916D591F9E9B8804643221A1F1D6AE349B8E215F700C6FE268D19269ADC200519FB25A24CC4288591942EF2A8F92A2E54155DC331FEA0A7754AFCE60FE936BBF7D1850E61A3B2BD084B34323847DC97A6C6135FF00B16DE30CE1731A8E5FDCB0AE39A108161E639CFB08083685205FEE9FEE3AF97282783D87D3E413F3F7562B413E4A87DB0F89993418FD4C1A513DA799517C4DE0C1F313DA10ABE58A8CD9A7B40A3A2C7F72D6FE23C6202D3B70F3DA26C69FC32D386905D5389F7980DC4F8A1F7E8554CA12D3D7E368211AF6980F251C9CEAFB41A85D925B5817A633B962232BA5346D9E236E20A9C7DEFC894EC72B182FC4F0EFDE5646E9F0971B567B304A813B0D74C09E0068F79A26D706B33B9B45358A5206888365608FEBA78FF500345756D6C55FC4BC02DDB6CFE908428538933FBA2D5B3801F14C18304470706CB72A67796CF835BA35EE712DB55E5C1DA29F510EC56B84557AB686A32E6AA30E67E7015BC80F045AD4E1347885C6199F23459E289DD81C973B63833245392BE2CD3BB5E51FD788C4F2D9AD62A16388A3B8B18CBEA5BD721C523FD4636DA20A5065F328CC4ED43226F6BFFC9874DC295F021844C76218144BED84D5E81DAD9C6EA7682587DB18D653A799DBEE4C14FCCE3937ADAD14606B88A64B2DEB763BEBBC484E822E2C46702EB9C7994206B7C500715C11A8553EFE18F3092D46C1D3F01A1EA70B6C1F301CFA3E131966C9EE7FF62DD11B435F3DA070177CAA67442DAED576AC26BA43BBA5E77F84BB0EC3B4ECDDDCFEA5BF9908F80EFA00FD5C126E7664A0FB09B196ACF82426C591955E161EBA617E9A41C0FCA540384DC9C0C736C17985EF0F66A15240E513BB08C680CB71F288EDBE65276CB1552AEC2C4B1B53A447D08FE652B938363C0E7CEE68C10E0233287F913B72F8A7F10553EAFF006EA48ECFA6E85E3E0116EECFC493C1A8538E32A6CF8BC4D3155A456AA1175AE3339AD0839829AF41B357365CF94410F46E1C8C4545BE12921C25345B303C6EC0DC0000014180EAEC3D0098769A020722A368FD4A6526A077F77137B30BDB6351507E3138A8174D31595B9AA672630C54CE702B8F78E57D0A31AE5021FD4BD64BD3DBBC644C86FC0C0F35181A76C267E62D646F247CBB7D0D5E98F4608C63C1E12F53BFC7F852D431FEF0B1C07F719C5F753F04A6524125CCB572305D6A2A16DB55BF110015EE3C976B370165BB7E66DF52F3BA07F651F38F8199EDE20E03F5E9B3F3C58D5B27599CA1C5FF00C9E33F80A81D622F7756A54B0E2B9065F72C7F0937702FF31DF80E1569947500600BBA98403C5A62B65A6B8985CFF13301B2172739EDB1F18EFEAC96DB2E0B1C9FD47CCB4014711B9A287696CD07D6B97AFA94C1689C5E4E18B0D9A0ECA8768155802A10E2B2F999D66A254781CC08CF28ECD87CA8F59D861AF94B1BDFB7FB1303C23537023BAD4D86043096ADD2FCA616B2A676F66BAF72797B8E63E521A65BEDE2330B3147E8E61F839FECA1C46AEF4DF2BFA7ADDFE6D3CF13CE2EABDE688F15826C82C9459AF8F9539206DF503060A0EC4C2663763F3C4603B7C223F609B82E07CA2B5AAEF0CE019BCA3E6092B39E428FC7AF1AB39B8734F04CD6872FB459CCB887DDF1EF73085816AB6553CC55CCB966915A4ED197F9185DB76B84594A6C7199745B4B3C2163170D99D4C5A1EB6F4395F880055783FC311E660A7FBD47DF1A97FF0034D77952FE138F4E33A5F70EC6251D1CE27E048E419E5A87825F7AD1D931A62885740C885BF114B404D87105319599AF03B4B662B92CFB4C17160B7FB7DCBACF89FB10D6A25355EFC4B509861E7BA19F0A61881D5D6C1FB3C7A7FC6F13F8FDE7E2FF00AE9FF0BDD34F7463F8BE19F909BFF1667E54DD9FC0F69FB5FA9FB9D203475FFFDA0008010203013F217A0D4D3D16E0E95D129194B0ACA473B83DF0FA80E8B45C5A4ACC3BE93A76741ADCC97018CB0BE89CBD72C468964C3A84915CA42B43CC313CF5D28860EBCC5C4A7A29E8BE862331126EEBC935EAE08EE3A9C43E96338A55A9FAFA0DCDA69D57137FF899BCC898FBFA133874ADD2C20B963D035E97583E1F50EE8BBB2885AE3A45BDCD204B3A46EA10617502BAAA72C11CC332F9B60E0CB9CC68F41AEE50F42C00DBD56E4D6A18B020B5055260465943A943DE6B2EDA98AE97E836540A86E6A64D4ABA2B8870620EA0476C0C54C23D07A1D4E3977A07D238E250E3A0730A4DBDFF00AEA7D3AA5E597E996A594041121994AA20575D8F4BB4198833681196BC4F6446B333CC388393CFEA689E8C9BF42CC18CD531461CC15CF5135986F44A6F4AF1B22B282E0455CC5874AF1292A3D352BCFD72F861288A11E8DBADEA2BF59C4D4218D517AD3AACA54ACF2F5E7042030EA813998F4B971C341FF0C2317299C90F41772EA5CB4263343C92098F4B177D3599C3B4A584209956E71119B7454CA31F6FF899B26F358F67A6D1E8D231E8D1D7FFDA0008010303013F2131F5599EB72FA5B2EE532B947EA0F5010844E9658A25D44ED2E8E8E48FA21EA65D0A03A2A32CDD13A91053D4E69D75946659154BF4574052A3D166BE8FAAE9FF0001E96F4D3FE08D12E65CCE27A2FA6504D7A10B7D55D1308518CAC52FA31E8F46FE8ABAD737F3113208E540CCCCB5053368BA4AB0B7A3DBD4A23A004CD4310ED67226C3F4859EF0794AF44805D4B5E7D553DB323338188BE83A5CA98F465AFB733B25194161EA7418F3D02F36A2C882A39A57699984A9D1BBFF00E1CA9C9026A239958EB12E125F7EB53300D1D4F4EC8307412B93087419145847BC7FC4D130443680DB5DE02C304E624E67845546591F5E26E7FE18AD0E0C2071D040DB4C796076662498E5D2E2B6FD4662D4329A04C0A8E2590C4B12F8DA3172EC7AC707417191702098C516E34E85CDBF5E4C7D16638352A3CA62BA8B3D0BA9DBFE43A8640448E08DE24CBA347FC0B9B874D4E7412E85225CAA830B0BD04AF485CD4B971639177430087C4583A0C58FAC2690DCD27CA7B9E823D4F47FFFDA000C0301000211031100001082D005F5A168340AFA1748F7E7A070A480541ED5A9CB02180D444354C5F8F080643F2272F905305BD92218B4F8D205C32FC9B2A60950A9836476E250A80062E6D6C756000027870EB71120C0031EFB31B01406800B79DBB5F58000004C998D74EC04001233B188CC00E04B1E43137900075B487889F1000010303EF7A980000BDEFE0B45080000C8B417B90E000004B7D051A3C260007ACB8F6CD146A009D2CD18D6EC2CC0FFDA0008010103013F10BB7B43F298079803E632B8301343D0899034C38C28A75049B13EBDB305DE82FB409D2135C5811053127DE90217565E1A5C5D46B52C6C4DA4F72237C08CE800394A14B08F75264D764654364876C66356BE7A11AD90F052853DDCA4580A1497BD464DF8BFA15F375DB6D10EDAD1C7E09570D53D73A6DC4082E327C25770A1FC435D2C199DA016EA21F721C5A2A0108D384550C70D9CB45A9020BECDDA2473A5596A1B58416A1E7579A344592D4B4A9D351B00A576EB3618B1E2F3C4D8586FDCA0AE6B6919B9B5347DBF31FEF8019AD5E077136748405EF446CD912853530B0571C0099AE21E09318B054BC050EFB31622870445867B0ECC887656D42D77D070A1CB043B0305EA06DEE3B7559788F68180EE587CCA9AC303636D644A3A428BBCF9673C72350A8D2A4D68D78D452D380C675932E93B31562E928B18FD4211B872C8775ECE2A56656030ADEAB35FA96E024D5B180CBF882A54922099A6AD34D7D2E5AB96A815AC572569E3B72BB80642A69D088B56042AAD02E9564E98C4D6255C5ADF662536AA8F526C94A06C4A64DF7861C2D188DD79C1CB6788336A96E5B2CABACD0131ABF208E71C7994D439B40FA1614AA301C94BB228F3867BE65192C51482C183C543A54593163670E983D25EDD2B784AC15003DCD5416C9F0DD3DFDA3711DAECD52A7668A4AF3AC11DE6CAF9BE8E9451149A0C192DC4E28A1675CFE238A60383783983B73C7CBD9A57046BD60AB67B7F9333C2829A5D3F1005E0518A46BEE177FDB6ED84AAB3B3B471833A9570120AF946E9B29E1978D7038C1587377A8759D1A51592B01397985BBD8C518C29D59AE94219E21C57497F30283A3F5E60139C715DC942E478AE654E17A7F6E16F86E0920362FF003CC7ABE3F12F5B2D85F0DF1DB105C316BF13CD1C46615E23D10C4D5DCA7CA0BF786380408236027D3338F2C3C06ACA4184784B82664D85142AB6D1ED5E7A326846D4EE5B3AC869DD868E8064EAD013DA7B813169A0C2E961D8E6618500857818DF7ED1EED26B8AB0769E511031CCAA83741DB454A8AB4988B2F7D989529B0C6D0A18F6857D45ED16D71ED5332CAF328505A4513B83F50D694306F42D76B2361023B6DCF64C42E76220D01365FC11D17D855E6FF70CAA9A86B8D1D52819EB2F2F647B25CD5EB14A99B5D2DA61E110D35550AC8B645D51996DDE24B8A425F16099780959B597A098AA4772F01BD88E4C534AD328E6B554CDC2CCE9B208E3225058F75C06E58839BF5D6356DF6958A8B2865F602528EAC4DFB410A957DA3E422B7DE80650D7022817AE325A410D438E31DDAD9EFD15CAFF00087D10EC15D402E9E468FC923F9422BDCB7EF63BC221402AAB6FF528CA6781AB2545A8B3371DECC44E445AC962DC6311C28E9235D94B72BE466E34159C2DD7B0E73F379B1762D8808C1B285AC051961D70A3A362DE82A0EB6B75864390F88E874B036C3E0B7840660B4D8144E8479B862D3DF3D56A2996B319626527B499497B001F9A96D291E0A9BAAF569DFA941B334D45AF785473B30011C6170061A35A5B4A5AC06546CB68AE084DE7D549DD1ABF798AE057758036EB7A864B2B2930F4676ABB30001DBB88003B109169119EDED079317DE0D5505A300BA415846A34B5D80275A6FA5FB9DC3392D62F91D589C3FC8374BC28A310149D43861218136D6EAE00500280C1440418CBB48C8E3BAE148B035E428E4E42FA59E84569BF59084ADB65AEC360B332F609F02387DE91286FC10DD94BD98A6516D00376850572C1BD787B5B965772BC60027B6BF1046EE8C9A4E9CBC9F300EE223E96EA82CF105D75430166B6A31F10D3AD74DD6825606D2F35445FB8855A1E06047E639A4E63096965AB45755032286E472C69BCF5D1356F1BB87A1CE822ED74F66F6436156F180C395A0ACC1FAE5A56B65B0271BB5E4847ACD066C4716E8854089C215186BF739B1C3822DE1AA0984105CDD36BF5150664C50E30889BE18C0B191EBEEEED191999AE51784AD2AD72B0040EF615003831A993913D6121DAD11A9F0F155C85D0D8E697AEB58BBFF35FE7A48C416F14AF3F241F1E18206B66AEF57177022806489771CC974DD54E482A5132FBD710E7118D9B086A6AAA98D4952B2D8BABD175DE65A42A40ABAA2E5A3515652BB3FB80843E253E2019350DEEE0742DA92E07076E33193A5A96973AD057398098E08A00C0075477DBAF43B043F405AABA0269F39A0068655617998A0321A550AE85AC7E23F546A8D46BA9EE73962896BED86C674A8DDFBCC9CD0057C25CB420E3B467AD42609AA460F12F8FDB49FEE9090295AAEB0996DE2D76ADA0BC62FEE50069D6CB41F75712DE8AC9309007CE2909FA8EF6E0E2D6BD00B50D10C5F6EAA05AD073082B4EE8D1C879964B5A339297C228584809152AC7C1BA94358E9AA530A96A4A8AB694A555A8DCC2F8B03662C2BB68C32F611EA50145960254F1A6D216ED3233072E1C8E5CBC83C105E579E5E50A3C5AC629544A5A860E0ABC12C45B9B2E1AACD65E918191E00B72DE182F0840CFB5840A2AAE96B868FED0F6BE7405624D4A96E9B9703735C01E28F477B42A387DD4C6900E68113B35B894F2CF541132631B771AF5C597016B5E0A2E145705691BCE7BC56987889616692A93A402DB5B547B7E214169949196D57629C87A934F65605529A608708AD414E7716ACC2361C03406289C99CFD607E6A181A146CC2DFB3330077DA6D9E133A5F053A7E2080D5C8D9716F0FCAEC496D1C3B2B894BD5EEA156DCD563FF633403A4B9D976916A1D0B261F8B95E71AC6F5EFEB34B5006D45633F132C0047617CBA182B6E804DC1312C006FDA3365CE380681C8A54A6D019B23C4B402D29C955A9718A6866068285A0E48606025542AD38DA6A5DD932D6E4D9CD05A8D356DA3774F2B32A4E839F754AB34AE3973CECCA315842ED3BC588767D61BD29BD63951C73117B95FD961C3E08124DE261EEE101780D006F968886DF14041A6CA2F1A4B9E1A1EC40D3E263B077D0D02BC1550CC66CC823769ED0A9736D27E0C44DB94965FDB18A76DEE28C4BF30B7282F3600FB66139861A0938C04F5949B9946DD11670401565B1560031DA5A29661B00ED678112252929A12B977850E681C0CE98142F172A0A6E3C0CE0D1062ADD5D9C1912FEE5957226AC190C77CCFBB8697E1022D82BCA6BED5AC0E6651EDBA011AE1EDE41E2B7B3E65F0DE28E0DBC4A2470B0FDD78BCE7B3023AE068FC85E12FD2AD3CB1522E91879615B0362078C45EC5C63D0C5154376CC2C2282D5E5ACE3CC2D99B5691D622584B8C6E3560167E65A218B807429E62DB80CB36DFC863B10B6E23D99F88902CA315AD84A5738FD4B0639C82E0F68F78E5843CBA655A2EE13CF011B75B8259050D26F3C7EE4AC875D54EE72B5BEF8EDE8E3F13741F99FD27F11DE77FB9FAE87BC9DBF4CD7D9D2CFE6FB4FE03BA7E53F6CFCC9FC8F13F83FA27E57ECCFE33B67E21D7FFFDA0008010203013F10C88953008687A0B2B1CFF8444E25DD111DCD0A815A8C5699936451A66C549DE1E08ECDEFDBBF50A46CD4C878828E86CB44C8DDC064E881A6E5388AB07CB35A50B8DB77266E40953175E485188D6E8FBE96901484750B9F7F6998BA2328912C415C5954485B99655918E760F0CBCC32C1E23E3A10973E8B932CC232971728977D06BA2E370F30EA768D588859EE7F6741A97FA1311F30AA61B941A7302511C4CB2EBA05330AA5CBCA3B7FC71D3952E382BA12C8C46542262578829E845E957046915BA61E344FEFFAE984194D0E8173ED164C5A3105438D8965DCA0BE8A8D906650665E5AEE0BF6E3FDE89510815D0B71B11FC901EE37512A39ECC55A15DAD7E230EE8C2A4B22EB01C4DC466531331CE029F8DFEFA010CD1D416EAA307E60998414693E658CFF003EF30AB8D57D4781F71B8866902A080B8526132FE7D4B095277F1701103B9CBCFABD9D813C12A228D41DF31D87387DBA12D230DCADB97199E35D9E3DA5E117C22AB44D8880F6DAFCFF00E7E7A05F45BF7103084312F463C0FE7EE08A221730FE114811192B41F4C7CD0AB0EEEE6FEB3D559A7A2E15FC62986DFC4B3332F98B65E1D40ADBB80448CE650FF4C434E897A4062C2053381FC777F5D6F4AF4FE411CB815298961C4C1054C266E3EA67A95905A8989F039F68000D1D5E0F48D87133FCCA15FC779903572DC744CDAB3ED0761515A928CF72C0EF5F87FEFE8961417F7F6E7D17BDE86A1DBB87692E8419D349CC588E889CD04B595EF0DCB3201A8C3CCD4323415FCF7F4BD09C826E71330E26C834992FA39659A54B8E4624E666E26095B445CAEBDBBFA9AAE32DEA015169EF0D2450A2A54CC40542596554DE6391A1CFB40AF57B94E66DDCD25C7DE26CEE7E630C7536A622E629E2118209A966F7FA7ADD8BD4E6984232CCE0AD3B31AEE583312E4033048D230CE399603263D758CCA1CC7AA31FB8D9882CCF7218F13C4BF1006E2E180981A8867760A86335F0F3F12F0FE393D2D19DC5ED01634BC369A94BBEA3DA7EA167001C12B2DA42B88965D3DE3A34BAFF005FEFA3486BFC9BFA097B13FF00A373FF0097FA8EF9F511DE6A4FC03F5D7FFFDA0008010303013F10A098C5CC7D0F93500D114E6263660D30ABC4744A3510287D453C750262437D42DA9EF2350732F0E250DC0AD4322C64A6591883B830D9053D3474AE2FAE6B8950800C05898E30D97435328464B63C4D2128747327A031505287489662318861A54BCA5D1C4BEF28A39E99F4428AEA2D210A13065B7348B16FAE51940798BDE69F7E824447A812CE26758D0255221D1E948B531532A6647A572F7513BBFCCC151DA1691122F4726A566523AE8A299C3A2BA3065D704A86CFCA53C0DD5F8D4000D1792FCCB463E2561798E43CFD4CB2805C25507661F3971D456C781D107D1B925FFEFE2098F69495FCDCB55C5F0FDC61BFB37FE4C716747FEC0191E57F483280A418444FAEFF00110DB82E997C8712C21689A05B32EB4F6F5602BB7EF107C9CFDCE6AC437489C6A0D17C38F2CC8AED8AF8C0B916B0E20382DCB1903C9B76AEDE6FE261425AD219F89A0C5C7B74AF41B1C244A792369839027B625750BEECE04ED148764B939439C2F298BBAC0A4F7F996C1C4218EE8EA64F4825D02E582F0748586D10286CDCA184AD70C58D315BFC081566FA115E5997BFD79FAEA2BD3F8B04F162A2873127BCA160C4C2595AC4721D59A97C3749748D2C1155B7A87A573F331BB906AD5FB3C900B163638F7255417F3D0593814E431521CC8CC95FDA316D5F468EAB501E07128F993B52D87A4723B3BC5EC4FA26A03FDC42DAA62199812AEB822B2E7D2C5D1AC0404062147B0AE86A43BDC76A994B5132896CB3B97EBA3D5C131FBC5836768948B08ADA4C92CCCA90A2D710CA643DBAF599DDF1D2892110C60C3AA4B14E6203728659D4CF305D7EDEB744578E88EE648E18E26488B5976A57D0C09B9ED334F7FF0081B52ADCD4B2C72A382E20A8275D15054CBACC4982629518DC554FA4E04D2139B528801954916E1EF33F64D6852D7A1A0844BA739EA136E8689A7737FEBAE95F986A1E809B7C477D7FFFD900</t>
-  </si>
-  <si>
-    <t>Robert King served in the Peace Corps and traveled extensively before completing his degree in English at the University of Michigan in 1992, the year he joined the company.  After completing a course entitled "Selling in Europe," he was transferred to the London office in March 1993.</t>
-  </si>
-  <si>
     <t>1991.55</t>
   </si>
   <si>
@@ -311,12 +246,6 @@
     <t>(206) 555-1189</t>
   </si>
   <si>
-    <t>FFD8FFE000104A46494600010200006400640000FFEC00114475636B79000100040000004B0000FFEE002641646F62650064C0000000010300150403060A0D00000DFB0000139900001E3F00002EAAFFDB00840003020202020203020203050303030505040303040506050505050506080607070707060808090A0A0A09080C0C0C0C0C0C0E0E0E0E0E10101010101010101010010304040606060C08080C120E0C0E1214101010101411101010101011111010101010101110101010101010101010101010101010101010101010101010101010FFC200110800AA00A003011100021101031101FFC400D500000202030101000000000000000000000506040701020308000100020301010000000000000000000000030401020500061000010401040103030402030000000000010002030411102112053120130630223241231415243433253511000102050106050206010501000000000100021121311203411020512213046171813242A11491B1C15272230530823343731512000103050101000000000000000000002140011100103050602061130100020201040105010101010100000001001121314110516171812091A1B1C1F0D1E130F1FFDA000C03010002110311000001F41675ABD5DBDBA0D941646807799D622BAC5D3F3E2EEAC3AB75E996B9D65F4E196904EB9258ED198F90E1779AE84A7A4D9496827DA78D5C1613C0CF4A179DD7A306EA4EAA52E384DE1FF0B62B7DFC610D031D1CAF422AB58B54A2873A0B5EAD6774A9333C4481B21C5C2E3BD5461EE573AC0BCE8214B36B9430558F5DEE67AD3E972B8C43896F5820BB50CC069CBD1F469B3BB50BF5A1B9959B981AFE3BF5AAEEBDB2B4E0DE108C0976D0157D52DD5F6EE5ED1554D9C59013E2470185B3D6F676631A049F5B9C185CE06C47457AE7075DCDB522AC784330551C5C55D585CA85A5400E249DB986733B4D6B5B1B9CD33D1EC5C77BAC76679B9A5D82D4119AE4C685F00DC4771AB32195716D66A252F4E6B88534A037F37A56E19DCDE95BF3B53D718CE4AB462DD3980358E7415C9311B2E48802C2118022FAC05C082BA66805799003D0CEE56AAFE964B2E5E9AAEB64FAEB034E65BBA4F73A716B46C12D79CDDDA544128E5445273AD8880FDD13A598A29859535F2648AEBDA090F613E571FAD3CF6A4DBF74E9076192A5A296A34A56354AA39BAEACC88AD8524058212803DF151A9EA20E992C53FEBFCCCA09A0B0A7AE7375E4DBB798974E0C715888C8B474081434F65ED47606EDA19FE74713DD4759107D51D045301A73AF55FAAF32C19BAB0D805CA2DAED3DDFBBA4C34541710B3740D9133B5D354D063BABF12AA54647C7740DABBD11C03AF89081D0425059D2F7651EAE6637EEEBDCFA25AF4A667D58A932F747D6D63B281A2AC29769317794A6D5A6C2510A09C0BF0256508C3DA50DF6C739AEBDD9EE9315BE320448EAD1D47A508B6372AF074D3D3D34E83A9984A5A696DC028B97A8D9D2D502FE31BEF47CED53901B4049E8AB4D30BB5359F5227A415768B0E4D906A837138F402D2C2DA5E50A98982AB68ABEAE1916F349E7FB229517A843871446ACD3DB8136777F3C656890B36BE510B209A5171598A8C308536AC632859785DD04A6D69EA1656A132BDC92A8FD30A64A3A7A95399B9778B96D9A36C7AE84D82B88BAB0E808ABDB906D2C25C4795C130568475C4388B22D730AFB1E734BD94CFCA0E243313F6F12CFF3DA41E0A863602DEB0EDDDA2EA6EAE15C462997E56E9412453806B59B3EB470CDF6FCBAAE001DDC9282C4CF18E3EC2C182C2885946644B6E2E15C4C5B48F3BD3B0CF8E9FA6BCEC2D08A1581B0E6FB6E735B2D3A3E254175B341D50C16837315E909148A216EF9E934B82655FBA768BE3A33DDA4D08486670CC66FB5D26B70E6D4E2574CAB3CCA2B0EEB070388A6BAEB20C7036D2C64C2C896F3F598C4D7EE8E9DC76B491312B37D96935BA326C494BA7F1E79C0D1489171725CA88694E6E9F11651DCF3C0EE2C4C67A731C5220BF578DAB2F33D8EB35B9B1CE455B28C96C0691F8054AA9DF7970543D72D0C2389C1DEF32953D8EEDE2DDAA4212029351F6A7FFFDA0008010100010502ED4FEC04EF1D1FFB034CE17C83E515A8AED3B512289C6691B2BFDDBB5E46D7998E6BB759DE271647D55CE0EBD69864648EB3518D918BB3B41E82778E94E24694F78637B7EE5BC3BAEC9B59BFC5B37DC7AEB55E08E1B2D9BB36971EDF69A10F7B9ED786FB9C4B97BAF91D0D97851D8041717109DE3AA6B9D3B06DD85B351767DB34C74FA9B1DF5FA9D1D2A105BE9E2953BA8629FDB07B5EBC34C1FB6A593F9088CAAC65334C4D5B2D9036486ED76DBE38413BC74508F6F3856A99ECE56FC76B5BEE7AAEA60EA6B39AA46ED2B36EDA909DF76BF0A4FADC66BB106D78B72F89D5E6B760CEE40A7A09FE3AF97D8EBAB424B3668ACC16FE4AE4E4F2A7DD588B99EC2AE549071B5DB1E4DAA3FC8EC1B80F58FB7051765045506B1D055CB1B62589D72B5586A46E4EF12298A92D18E6B0F6867616CC762D8F75BD77FB9D8C8E9258A5F6DD3C3ED86CCE0014D4F542D16B9B7B9196C5486BC176B5B6B948709DBA9F736AB92AB452F2ECA9C4F55D814314705CB0C7491085C65EE3D8863032814D2B1953DFAD5C75D6A3732F76D5FAF86BDCAD15A6586CB07617D95DB63E61D83A58FE41DC3CB3B5ED53ED0995C797CD520FE4DDEF23CF69D55593B0569AD8EECCF749234F12D4D44AECAAB833A7E33C5D8753176763E5262B35FE0F2587F4DDF5C7F3A727D8C9A48847F21879761D832EBA47CAD5D5D9F684CF31760DFF00ACEA1CF2E7881D2B1073535ED5C839472363553FC6BB1576A9FAC7DB3638D1A13C4D9E7FEB2095B5BB01D475DD875F3BAD7570C92C8E6B82124B59D19362C7C8E4228AEBA70C53C0D32FF6C876C876EBFB62E5D496DD9DCD686B1802EF2D82E8072963A71B94DD7CED16BABBAF23AA7446E451BE3B658D6D57607653FF0035952080A10C58733F732B92E684ABE2571ADEDA7B62213CEE860ECAC73757B8E69EBF8CAC2CE2AC3F02D380334E057EC1DF6C530E10D37F0929FED9867E7603430EB9556C3EAD99EDCB65FF0021BD2D6864ED8BE592FF00B51F40F962649678B6D5ADEE5824589F1059FDC1D6471F391D3DDB7245ED16CC58E95D4E690E9D7F47D9F6669FC2BAFAECB5D77491BEAC750D5FE4C5619DEFC6EACF341D4C35D72F611EC19621B7670AD4D94F712A67A823FDA82C185DCC2BF74B975BF1BED6DB4AEA2A9BBD93E5AF55AF7CD28ECA76B64EA2F8AB6A783FED2EF53F23E735DEDEAB26F91B5863EE8CF24752DD88ACC6F639CAC6C7DC731B5238ED502E9314FDA12747DCD47D52BAAB868762C31C8BBAEEA7ACBFBC92790D5EC2D425F27B2FECE1805EEC5F689A75E57C31D781099AC82E49EE4B2B94A7918F12BE9FBB5A5BCC6B4B5F8547B3B1591D3E23DA7F329F7949D3BA7E9A1A6CE96F5B8628E338B95415660E2E932C4D7E0CDD8FD92D8DDF3A2ECA077F7DFC5F21231B86E013A7C5DF345D8D91EE452568AF365EB58C4DB50B9B6A7E4ADCCD60B3718A6BEA4BC9F61CE4092B2B2B28951B793F0B3A7C562562CCD1A83B4E128B0D70B71A96C4D2D296BF63624B5D13FD96D67367B7D69891610815C965656540DC00165657C6DBC6AD82AE7E55FB39E054E39E6AD3F5D9577FB4A0BFB78A64E632C3641CA09C0475CA602E731BB01859595D0BBFC2B2EDAC9C9E9FABFE6C96EE5F62AFD94171B2C0245DD7575E66C0CB15448EC1ECA27432EA06544DE022FC5F26FA743FE9DAF13F9E97FF00126FC9FF00FACDFC7B3F16BC4DE7BAFF008B58BF351FFC727E7FFFDA00080102000105027EA3D0F9535AB1A35DB83A95235342F051F4044E1492E546DCA0405C82C84C2A245058D3088F500A6710BCA6EC9C34CE91BD39018D1D8C3771845870756A2516991CD67DC1B8D4E8C3BF2D9877281C86371A9D73811B17843779D4A282CED127F88FD613364F239B5B807428A2804C6E53149F8C41109A563D01672765C91D4A3A35C9C89CB5BE73B43927D1825670B256EB29C500B885808A6F871C3613F64878A67E207A0A61446FFA731A0457145A506AC2902032DFC9D85CB1A715C56116AC6C5613B6016535F85EE052698051D8571F7295A9A565656565724E40279DFD194135394438A7B8AC943D45C89DB46AC23AC68845C83D6426FA8F972E0805FA93A81BB765215B000AC201C06B95EE6EEC22564844FA00D004E28B73A46C4ED0A7380592B3A145AB884235EDE341A35613B676C8A63F43A124AF6D7138075E489CE8D4104764EC14C3A11A94E4C9113B047D1C5008375E280F4B93B4DD651D0041883106FD272250F464212207283FE9B91D70B0860AF6CA070BF243E93BCE802CE984C7908E0A679C7D2779D3F4287845350F3F43FFDA00080103000105026EA7D0C891D9674E3B11E86393B51A9D638D38A3BAE250051F1226A216750741A9D18DCA0DC27205674C27B1351DF4693976C5724353A35DC4193ED2ECEA104516A78D9A88C17BB3A8D71BB8E87666810434C293C33CC88FA8A29A0F1273A84163471C2728FF00294A6BB09C172F4158C2DD71D0681028A21613460BC646379761E8CE1610016015C776B7D034FD651BB374EFC9C727D0F081D879F6DD97657E8B9204699411D8F804EFC723D384173C26FDCE413E3E4BD921334F0BC99BF15114E62E2B8AE2B8A70C208951B742B92CAC68504FDD3581710B1E978D83501921613D6500869220500B8A014A7D40614402CE8E41A80D0A7268D068482742E0173250692B75C7086E868068743A03A4D2A6E84EC01286134278C807ED12B16422E0107E5028E8E44A1B824A09CDD0E8C6041CD45EDD3865706A21BA9453B4013C7A5E146E4F6E5637281F465128BB5CA28FA0A6A0EC2C85C501A145C8C88C9EA3E828045AB09A50F2414589C083C110B2B2B2B3A1F41434C681C8B97B8139B95BB51FA450D09580B08145B94149E397D31A1FC86A1391F1F43FFFDA0008010202063F02F70CB4ADF95088A48A2B66C6D3A666D48D39C2149E4070DFFFDA0008010302063F02F72EB42E9E122F151A677E64E586C833C702786FFFDA0008010101063F02DA4EE1ED713A2F35709A738C0926305D48411B440FEE58CE406E7C3EB3463E8A22814D5BEE07E89C1FA43E8B23633298EBE0FC7C93D419A996E387B5C4F82B1BB4EC2E3A4D43017738834094D1C38B18EA1F7E5333E485ADF128C4409D535E636DC10CDF1039608B59284118709ABB4421EA83BB6779840C7986A8B0BAB0FA21FBA7729EEB8E59E3344C6B298D741BEC1CD91FA21870B3CDDA94795110566495B21E68BE1E6542355FD82D0D934230A3537163ABC809C04E1241E38CD078A10770E4D9D3C861859C2A4ACFFE33B9CA7A5805ED0D9120F8A38B08F71893B97CE5FB502E374E11F02B9A9E154E77056E8EAA0784D0308437AFD7457643125705DC77780C7163686B9DC5DC376D6D4AE832767E68BCE89CDFA2682AF754EC8FD1486E745FAAE8BBE34F2471F72E8321CA3C511868F376EDCDA0D538B66AE2AFC73D50742E851BC53E3FEE853C94611142131EDF6BC5C22A0372D5065409943B8EE5B36D48112AEEDF2078F0DD30D57DA38FF12754E0E1CDAA7768F9384F1B93DD99F6FED1A98A2CC342EA6A50C3F2260B1F6B88DC5800BB727456621E655CE308D027BFBC23A6E94E935F77FE27B80DB6ADBEE611C137337E4145CE822CEDF05C2328A31EDAE8D2455D9BB2E4D609B9B10B6DF746504EC8E95D357698EB0595B8A70E09F88085822E7700ACC7F13545EE31F151DB35D4C42210E2D401C5D57E2E62CB880E4D3D8761F6FDC35965C45B67942AB333BA88E8BF92EE104E634A710DBF27C42EA64EF31C47C18C2E8784426B5D91AE6EA5A55B8DF6307FC61945FDA6E851E9CE1C6303C745D57F345D71F55DDF731B4F747D6D1A22FE28B98262A372011C79072945D8FDA4D13BB803DF205472E488F25D36D4D53DCE4D6E17F4C0887B0FC8F9A7761F681CDB4863F1526350B2773100BA126348121C174C4599346BE41DE49D8DE274215D58542BDC24B162D1AD01ADFD7610E94289DD2FC37398AC4C06A66831B40A254340AF46527551FB779870AAD3F02864C862E1A239FE7F32882A2049935135D3D543332EBBDB382936D87A95F9EEE1C7C62A2A2EAEA8AB61215281064A4A07665F21F9AF34D6704ECD9B9455838F8AC591BC68A390438A74F9CD3771F70CAE37072EDDAD12CF02D7688B4B0F9C15A488F8945AC1CCE4C192AE0091B08460BA5C4C4FA6C393350506A7C974BB71CA3DC49FCD7423EDF71E251BB99A6B15D463A92B4ED1F6D84DBFBCC820FF00F2190E57EAC6C82E8BBB583788AAC0DED0DCDC27963545AD9C24E69D175AC8478201ADA20E655B451067A8D908ECB539CDF742B4804D0251D517391C3869A95D66E12319A13B3B7ED808DEE98F0418D16812028AE27A4CFAAC8DBAFF00E4289B8FA97332543AA0A6E4EB1C38F2B6170A07A7747B96E6C6D9C63FA20EEE3B688718031F4471F7188B08AEAADED417FA14323C5A48261E0141DB02238AEE271CF879D8CE2DD54C941CFA26638090D983BA1F074FC91CC67183B194EE5240F927BDE231355FFD0C5DB9E9B08B5E9B92DBC3808B78146D73F1794D58E04B4522AF7620E26A4A835A0780929FED476961946855F6C6156F11428D9EDF89D9C8E96DFB7CA79FB7E5F36AE9E39077B9E7443230723B42B176FEEC594B840E8A0B99A09506B40D97BCAB41DDB6E30E1156C77464C7EDA3C7151022B1E2CD4C712E1C535F85B0B0DC020586AB968893B2AA47FD33917F5D382E66C095147276EEB4EA0D0ABF1641236BB94C884475011C4845E7B9E68484174BB9F42AEC7EDDFBB7228ECB6A17DCF76D01AFF6631587129DD1365D582713FDB886ADAFE0B9CF905F922C356EF41406E0DAEEE3372E0C5AF177041D839C0FFAE925293C49CC3221457B219051C2AAC708E91423A95E0777C5454368DA3FF477E88A67F1417A23E6BD421B8373FFDA0008010103013F210B430407E0478E8816EA1C21B201EB9898120CB9F26271019799AD88F779D1339C254D7A3C405D0AE1A88B2770C4B2CDA01B58BA0CBF32E8F6FDAC7E201E966778AC137609A00C13F88EEF1C1260F7CDCCB98C410403DEE4B89A4B2AF8866DE3AC2DB58E3EFC0FF422E4E9C86293C13D7B0712AA1416B8E7EF379814EE4D1F12B91B37DB51E35F82127872FC5FE52A8C64E2CF24B711055436558ABB1FD87B4A684E7CCB441E930AD1510103C3344324CCE039EEBA9AEF607576C041605DB225C1B1B8611576C66BD40AEC3BA38CC80396CC3332A96C35A396651F0021A998F73DC6540EAEAD6A3C956DB86CA6A333B0DBDCC01A8FBD4BA87A560F2C44326EE3B8E2E13ED86C12AFC2F32BAEA73BC1F699A651F994284301BE8946FCF92511B0018B4C44EFBA362CD4069996CBC84770B04C6B0554BC451803A045DFA7DD964F9F2BB711C4F0A5830FB450730A01512DF32507B8E2D2EDD61FFCCC0031A3BB7C4B52B1C7F50DD06FED385F5105967CCA6073CC5CFC944BFD2F89B180C1E625A5BB9E784ACD84B1A5423F60FB8DB986512DCA1CEA3CED2F65E2E70EEC3DFCC04163B8CA9FDA569DF9F711C33CDAD0F64B556857C8C016FC21752C7556A668A3C6226DF4DCA2CCC26AD85AAC1EFEA57D2DDB50E71349840AE2661147885FBC06D81758766298E35DC3329E47AF9A952C96819381DA50869AED4AB940F556A2F610D07FEC6744CFD2432D5C986C0F679F98D84B249558E3315D8B2EA2C8877626A3A250273B945D41C72BDA24F3A24F79494F41FC22725E4B0CB186ED7EC73034B3C3DC33CF78E5C6E7314AAE08648C26FC368812F13DF51D427945A1C44DCBCE0D3986DC3B0CC178E231DA6EAB00038AD5CD299850BBD809F30F5B139441ACC5A872FC4DDEDF11EE32DAC93F27346A1680FF0036398BEFED2079610E28C1CD779899B6A5B2BEC8C332E5ECA1011605610A03DB98C4DAB8E59CA1C92A983764EEC96AC2E197435154B9DE1708D72006F108D01BAA43AD536C5B0A4BDD1E605A9822298BA3C7696BBC0CCA8B4CF9731C37907541450ED3C1322D7970C1A805AB67B9411B2CE489B10E2F56E8977E8AFBE2D408EE896BBC1C545D88D5E652FF00F21FFAA56D8E63BACD64A8C0D050461D110A7B24A825E724B17703CC0E06D7C238C3EED1FCA826B82BAA8E82C63B86B30CDC5563CE200E4CD78712B071BFF9446D3C2958F998C7CD66CAE263174816F89683829514C48358F3DEA5D5B75285E65D38BE21F74BA9B3BACE23BE882BCCDAD21AC1A2FF008278E40F6C2E11FE14B05AE7C9FF00040DDDAC9D3FF252EA2818A66AF395F02DFEA08CBE8516883E98A4FC98E6A0505851B0929E9A550FDA0A801DB2BE22181D81C0F2711043EFB4EFC61D67269E3482E3B6A0FC05E5FB08B818B0941DDA3D108B9361F83C132A8147B3BFB879296A3AF4F3D0CB423DE37E595A2F780BFB8444354A95893C3AAC33A653E3C88BC930CBC5A82501AB858578593E106D2A7CDDA0591B788E690E77887B4713E6CE9567E660056BB6D258B4CE58AE42C1FE883CB1C2BE816956CD532C0DE1A9863C13C602BB7A372E48E4D0F91155821182E1899C39D65DBEE63F29656EF8C1866AA3015BE1EE6BD3C1232E23A03F5169842CE4A88E018AD73337B964B8D2D2E5FABF8B998ACF988B4A25DCF460BA38229F6618988612CD597644C8CDA0DC681CB5262E3B4B676F12C8BE9B38B30DAE2AEF4F552D732EEAAA711F73CDA42472F1D22E704A675A84A350468842BC40FE574DDCD47635DCAB0F817C8CDA9C1F031DD4C2394D5F4ACDB8AB27669F88EABBEEB1FECADA59E5AE7DCDACC79D701562A7CDBA8B869E9B539B2874352FBCFBC2137F32E7736A51694D3637654E2A165786316E80B2DDDF85308AFB79F111DF907C107B01079AE25E53F4F72D3F72343F7E6315BC170B3C3E23B793ED12BB99C669D37E9A191E11858794CEEE2F908DB97A79A43C9DCACBDB3FAD4A8F88B9368377BDCEF005A51298F8021732929681C333BDAE18CE653D57A578F9D4B331860BCE0E99669E664CD5AB9A6E0B3F21FA952C15671F98505B0E99E7FE236F1A1E759A56B3E0CE0859965656E5CBE93465078A528CB247A0FD4AD7CCB59741DC3EF0FF00628736555BC1EF3C17D6D76A62D6DC1FE9F01FE9160AD8703CCEFC067DC46FAE2CB631151CC3BDDB7099A110633F4FF5367CCDFD3EFD2EAC347B74AD70FD5FA43B3A5B27FFDA0008010203013F21E8228745A8EBF963B312215D10574A8333B7314E09431DF43A2862E5DC6BA2065CC68992A6998C2235328450272CD47A12A628AD3AE8C1888CC91505BE9E53832E6E3C415C6C7411D082E09338D208FB254F31224134F465BA3F7C0953E89D64CD62A5C50211D351F47A8F338A6F14BCD43A5C5BE84165316C8AA2C40C5F5894A60D3D2A09792DC3C44C3A1147520573B947A1890412EA39A8B8FCC72A8AA09CA583E7E8BA86EEA3A08231A6C999D1C3963DD8F7A1A82A301DE542E1E515DD9511EA2C9C0C723584C74928CD4C98267A218886580E25ACC4CB7B6C285442A7E920C65AC5BCCD5E822B660D8880BE27994669CB1BD2CD45ACFD0291E81CBFA089D1948CB2F4DA80DBA4B1D6E5C7A4E43D047AD5920CCCF70EE89911851899BE3E94C46E11B2D52D61D9D1584B3A06AA205B8B331BCA03F42485722588C5847562BB84581D20E9649B12A53965931F4114F04FBFDCC1A832798BEFA0AEA3542831C20805892ECC08BC1AA7A6928BB8845D40ECEA63A659C425C30C4E814410CC17187493E845330630D3D18820C230EA4A8CA5FD46B0592AEA50808BE9E408F4A9503E979E829718D4A4863A822E32530654A952BEA59E83A6B7153D494457302CFF00E918742D16308C70707FF34C21FF00CD99FA3FFFDA0008010303013F21FADC10443661771824CF12E1613B9D1B26A1FA41728DC4818AA588309E302B137308855C5ACE0897F505ACCCEA4903AB15153313F131073D10D364A5FD070268B71A9DD2E41831470E264E8F6A8B74BDD07E86539689B9823B8420E95506E394E28645170CAC4A6075C1B99E602C455987D06B0E9B321DA592C4AC1350FA0262CC2CE2288410FA32E8405EE6825E0C290EB5113916F44418525F1C6882F683D55708E33866353A40F51A6721D1679CDC1990B8151730DC5730AEA6ECA245969B874A952A03D3BC0709B11D4C25CB1E8AFCF4CC5C1D57A70CEC7D3F4BAAA88B88A1DD00C22A543A71CE7400C4684AEB52E72FE9868E8C265D63162639C8C4A13B93047E860066D4ACB2667D06A652A995C413CCBE47A6E23A902C331B8B28C199423994B08A2C7095B50AE815BCC6556E8A079663ED1E1938B4FD4ED2BAADE52241D1CA264F79577291388C16546F5294D68F68E60661C80CA389D9F40E95143388C7446A0C7A734C59826CDF4D7FF0CD70E850747A1B22A664D7306DC55F4822E89C460AF4B9717E96B0598A613B90764B51D37281094B2290FA12FA997F4688A0D1D1F0CB211A85B4EA563D2E5CBEB72FE82BC10AE2CE8845886DCB574BE951FA78FA839FA38FAD9FFFDA000C0301000211031100001067F9AF6EF42D8FE0DBBDC75891A42B9B68FBF35AA4EFDB8B42A616FF009D78541737614C9563A81470C8A552A2EFFC04D4B6CF7153EC9396BCA0638011EEC51336A42771163C9BCE318BE201C9781E4CA0B97FBD48510505FDC4512FA08387FAA210366B785DDDD4074D3DAF4716330824F2E084923C5B46D6CDB3A26DF4FBF1C3F026E5A2F1A992770603CE074A9C1733580FFF007F5210F2B8B4DA2DEC414A5797B1302F112EFFDA0008010103013F10CD1CA344C9287286F17F32F9BC470E032AE00202992041BB174E32FDB32BE8102ADF0A51AF11B305D228B440579E7D12A1646D45AC8410BADF10FE50D2A96D40C088BBD545765E9396FD4F2F12B2D679CC46CB9AF1973329B0F29E34D9CCA8CAECA842ACE1B401F70D42A0D023C45D0217600B158E3873E2E0653049698900145FA6675A0E47397043BC74B8387041189A6A1CB42DA963B472172A99C3A944BE5CD0C11ACAD19EF099290EC253C10BAC0085AD5A15BAB8CBDC5AD90F705971F861E718E7051431062C948D77A3C8B1786951792F733C5C31DBB94ABED507A299A3C5EDEA2BA9A02C95C877169801583A5D9E77A8519AF7C9518CDD38FEABAADA36771847CCB9D6F3C4D1306C7D2E73EDE20B7622F6374244A47960E02AC328A0439727606D0A7BD778CF021C4652AD6211050B4C22E7923EF3D8A5159C2D8C8871CEF576AA6EE2132EFD639BEF9FE4002A00ADF01BA22951098A7093AB5371AA56E7C0547DE51CD010082AEAAE0064765E51FB9A65E900EAED02BB26532DA806605F266578CA421C880132C0FA53F507C71069AD9400AA2BD1B866E39975858EC370223619A2D33E3F28EAA99C14A3F7427A5264FBC73AC095C309A018EC44331A7BA43C8BA96A4A4B650500F9959ABD4DE010A2A2B9A003841B2E0284C0F61BAF75292B1672F2B2ADAE99DC95C47B10B12F5294412A25E6A2FEF02559BAE01C9F7B82DA15AB80F981362ED34C8E43286597032232EF5CC6BA2ADFBCA76F96C9FF00B2CDCB9792DAF8E11A8B1A6589951F70C70BD8B56F97837093C15FE502A2816668FDDAC512B0D8D1031B8AE40AC3DA65591C2C6862D3C46D134F0633702B5C945B3B31C926B79B6F8D41AB59C38D8D5DB52ACCC600A93B0628895512CC114E62B2E81BF12BDC5BFAF3DDAE5A90B0B9B24569B152EEC5C12A006B1CD9EDE0180B5423E4D0DC420A3B0A7A4E688E6FAE11A93C3E609CD76962646BC908546CA2C3B4B66D08A5D6638C50F23070DC407B00A1C57CAC0F934361BD5F95C4D894AE7D86922BD895049430339650B6F657E25C404F0A38ED3BC47980BB0BA81BC40141DA6EBCCB4B06D360C3DC6B4EA58BA5D39F44C5079E264422DE030AEFE635ED68D3419718B83A1CC6CF6B8E32AEFB874ED7446634406CD7A8E588507CA41C53F32B0AE8578C779788858A556B019E65A3FAD9A96E5878523F80B0D045A59DA3C40A0E6D550EF88E18C218282D1122B0CB0EFC96217F700179698F573454429BA52755CC6888AF0D26432E0B29283A65283DF6894F40B1E002BB45ABE0E2B55A2735F1007D00B62C96DBBC4420B8D881442216DB7E4A88D18805CCA5D7C53B730903A9147377983DDECE50F6122D7AAF4B0A04F0290B0DD6B5A924828CA34EB220ACEC0390BC5C2A80026017454CCDA2BA9E9CAD04D98048E954929EA54C1AF817461F998D4939038B6BE561883F5F0780E16662A86DCA64CD0B61C9CF92A04FB371F430E8907E0457C4C0C731CC3CAB40BC8A7A8A419FDA041EBEF111D85A0486FAE834D63F5986041406C57FE99A2A1081929ED834000AEB2EBC5CE2302190837416D15128103CD9631921E04499D419CADC8BF511C87B8D58E2CE4B2E6200AD30C2631A7EE211466911BA4AB7B3B7CC4E0E048A6103A943C2B120ED09EA52094AD08B672E6EA570A28D1B128CBBF5EE58E3895FDA2745D2CBA08AB80D03D81AF883F2FB21398635035A6BF7193E16098709472065D4142985C01511810363AFCCA048E04ABBF7B61BC8CECA2DD117AF6399B9B2240628D7F4BFD9949ADD9CB396F81DA5E06ECA8594C85B8C32B818CCB7C15DEA8B95746AC2DAB50D4BA6926020AEDCDD9DFD47A10D31DE235F88FEE35A917B043DE2C5CABC9452F30EC0C7BC580F1DE27CC0F33BA832307C4BB9BA0CCBC76943FD51C682B0AE99738CC0A7360CBDE7E63F67302D97702B34470A0F71732E98F117C2DB039BC915EC86BB86627AA5A77610FD4392EE5BE6D6088DA3206CEF18B6C556EC0476BBE5965CA8A576D838CAA941D721601A4314EC94654688159B450626188525A38132BDCFDC8AA821E190565A2AA19218A73C09658EC88945C3016BB3B8178345976287308C981B5D64C7B8C32DC4C441ADC68F659C059C5F6258FB6D56DAF02DC6770CDC820BED6B2F0D7E42EA55C9A6605B463DB0B7158430A95A0AC1464176936955D80FDE3A079AFA668BA1C334C12361D9C06EF398D9762C3E05233CE1BF8941484B0D69616F965D5A822EEBC2CC830BEAD3625F3517C048657C227EE28388C115E6E8086CF70B18ADB6911534E9EF943C98C3B29959798D5E8596EA8E5F13030F8721E7DDC756DBBB3182916A76C952A5E85872443BB68AE2E3F4A5636E642AFB4475394BCB977185D127273FD188E05887D4730C1FE85B4B6FE2882F3C7169AC05B1681853D0A70E5F31300D8569365AE38A63A8C593043563A94DAD01D0684B061C938ADB72D5A2B92BBC42B210EE22E11BA97B25C29BBB8BD311612F568A8EC49856D2FB378968A37558B3B7E25E657DB0FE18DB56A118AB0BEC768E1AF421402E2AAA943BC20C9652E935AB88A8E517A4943D6800535DAC8D8A3D7B66DFE195D97E01C49C5D5661BC128A072864FB46477CEDC390EF1E6EC4AEC188DA2B3C450D33CAA6200BA6A1E900B69560959AB825FCCD422A8C936F733B1CDE2A54DA4028FC19F98FD880F2240957D971AB89D35B9DD135EA5BDD3445597B4849FA8805186959CC434BDBB7EE4ECD8F920F4E222092A680B8ABA1459CA6C455F330C532F9F4DABC6D76253230033514BB2D919A9641DF4012B24318800C63ED075B219DCC5ED2E50A011A5AED31534464BC7925FE53DBBBD888D4948B67F1886B0AB6A4A6137278B9949CF10BDB8263621B17DCBA87D2A82D8B2D3EF9967CA14752EE85D0811687AF6710ED538F2D81AF3B2260B80B154BAB45E584603B565CFB26A05F270695C96D2698EE7B6DAC621CA156CA0A15B08EF022D8617159CCB8281B0343D66341381568CEC2FBE5885972E52E1012DB8975CA0F8BB7D10EE9D64F5D6792F4D4DA96A664AE1E20D99A8DC15CF32FF00E2A9F5994715734872870F9253F6F02BD02A0E9FA4071F62B5DAABAE799688C9820BA4BB4EF03D8B82DB56304139A644A339898155B9A7A8B4DC2ECC31B5CAC59D9FB8BD2BB9385DFB84989728FEA2A8526DE710F2FEEFA7CB2D190015C72317C7DD2D4A06EAB80A055D19C453CD407271CED77B421D9C53938C9FF0061952B44E6BBF32C055E0ED0E7CCA80A7491594C7098F31B73391573E083A0008023B9E699B7281DC48AF1FA4B1C4439B116556F7C67B0F70686853343A0AECBC3175965943DAC9E9D3195C25715FDB8E88229ED165A51E062F3D39486AD9117D47C20023B60FE2058712EF9A8EB6439A0BCC1019541E581FF00C6D4EFF36FF254CEA709BCFC697E37E93F47F44FF17B47F8BC13F37FB9F8C7EA7FB1DE7FB3CCFF0063B4FCFF00DA3CC37399FB3FA7A3D5E9FDB3FD3D4FFFDA0008010203013F10DFAA848ACE822D8DBE5FF88965732956E10CB18688C150AE4CCAD5E203A57F66B7946AE312CC6C398F96CB9D3697997914AE22509290B270445995F5A8F65174CC9E4B2F9E8C201EF14D3731371A2862976876012655F1B22BE82651084B956A16C23C3B3FA9B0656A8384F662D05C5BD44A5AD770A55ED802D22E031C3BFF0091146619E1228F55ECC03CCA92AEC450BCA645CA974A6046D93989AE049ADDCB49DE503B88ACEF090EFD012A33AB08DC40CAB0A4D04D0B205C48E3CC736E7039868B28492DA3447996DD4A56597BA2849A18D6E2D7923EA435DAE36EFCC6AC712D146D6214B7398B888DC6EAF98275F1FF00660AE939969A2D5463714BE820B60F8A6E0A870772BD10B788D30CB099A254BBBE2302B114AD1C2111BEFD80EF0EED83E0805C6AE0C2825FF7C458306245C672A8354EA2FA2EE3E3180B66482DABE995B1058BCCA80979CA0913537B1E3BC4A9DF108C0A82C81022D12BA930AD30F7198F4234A5880CF349A961918F30FDA3F4DB11D97C4401EC4C0F145478AA083812C261E95202009AEDC072DC29393629DF3B8A98EEF730C07CC070FD4D60F86CF704B0468350141CCB9776FF00F9D100F282075B5804B1A87004B96E89653998FA946A5D399C24A91A84150AB4B94A89E077F133D406F171BB2DDFC12FF0B972E5BA1A370C991ED8ED9980CA18B1518583CF4D974FFC8E19DE5EC76F6C43B74B615C083C087D1722220FA12A39198BE08E94524BE0B6663B4768F1B7F539B0E8FEC4D7BD41056195037DA1D2F1886672F8834638F341702A22596267D4B0CBC96740C9CD2C23ABFBCA8AE25F41069F1CB4ADF4D2A61B6CC9AFF6F8982834F08D8363BC0BAE81F98CBE07696386A0F90C7B154AB1920A745C41189C07897CF1FF0025CC11F08C18D840E9B85845BC4A6DC0877150B84177089EC9EA0ACDEA63B047B2DCACF48C128197019ADCA55EFCEA2217B96CBA1D3D1C3A671F5D41BAE4A7119893B932831446B8EF430C4D26C217006E0E225C3A01F29C04F5AA3A6B52A62678658AC5789DFE880095D14E868EA1D1B8C51B954CC21A60A0DE3ED0B605618AC7DF4A8900B1B4AC608AEB5D3362CCDA04136416A5E0BB79D7DE3C497722F32E65CC43A54A8E20461D1E5378332C2E26E59719E950071C8EA236460A40195D565DF4A8426F9B4DE7EE9A4DDFDD475D1B1D2EDEBE913886A7FFDA0008010303013F10DBA3D232E1997707B41B44F092E8202ED8073A8E19622EE98FB9FE4BC4E1116C46FED896C5508C318EA88AAC164047EA00CEE0C378876459AD88E13550C5B533951D67DC1077965ACCD2831D1E8656689329DE316DD4A75013313289052E09A9640AAD426EB5151CAA8D5E4D41BC9C7E48FA338A2B06E16E5386708E5D83A17CC90929990452FC4A1332EC2C17D91092591C6E1E8C691C4328D04B5776249650C5D0B54A96CA96F336A64A30460DADCC17299906704025448DA1C4381E6521B616EC8486E0CC388068C0F305788731017B54669C1FEA990AB1E20EC68C144495122AE25AD8C23C332EC78CCB3315388A883101704D3076F8884EA251AAFCC1C53370A9B232D112542D821DDD8B2E485AB6AA1186C8A8138422DB071DE2A6454A8E4768AF9D448B14CA0ED22A2B72A6E3D2A1961234788CCEC101CD5C62B52FF3AD50B309AA12830C18663B279E9F7E62A7265B92FF006654BCBC5F41716A00F387D116B3A214ACA26CB9A71E182EC6A31808FE3E25B55052C9B6989804AB9B5710555FD3F62C6DABB961474BD48C7B84B84031021C6A5C4A1EA57CBC47946D7CD4C215FB99C7823152A31F1897E1E1D1D110C4B80DA66C40D419947B4C02E2E60C071196F68656F2A412BA8B2A3D768868F7C4ADABA88106C25AC0A9809C90D605962D7D398261704472352966EA6DD36A8851A3BB2F39622834A4CF3F7944DA02A2036E9181D1BA5388685E600774A0B96DBFB632153680CB825F37B8BD07F09606ADE228BAB34916A2C35DE291773C54BD69D432D6A0BFE4C419DC62328463888E40C87FBEF308AA8519845614065A62005A39F333DF796B2AA8048C05CBA4E7BC543039A221BAAC502828973117532C1582EAE62B75029AEA9DA2CADA7300BEDDA3AC237048E1EF0EE21A58ABCC710F32810E0CC9B60CC5D55CBC9925C598B09465FE7112CEC7FEC5702FBCBAB94EE6082423980D318C462D838E973F12F8F3D162F40CCCB22DA45D0B86A157300204645C7D4DF93A014732996978F41E65C518CAA086AA399CB6257C1305B6F50150CBBA0F831971719717A59CA39E8C3030432E5E322CBC137CC471AE81175934C58183DC54BA160A3051563A2C631D26B19B3D13846729AF46EFA1C4E23BEAFFD900</t>
-  </si>
-  <si>
-    <t>Laura received a BA in psychology from the University of Washington.  She has also completed a course in business French.  She reads and writes French.</t>
-  </si>
-  <si>
     <t>2100.5</t>
   </si>
   <si>
@@ -333,12 +262,6 @@
   </si>
   <si>
     <t>(71) 555-4444</t>
-  </si>
-  <si>
-    <t>FFD8FFE000104A46494600010200006400640000FFEC00114475636B7900010004000000480000FFEE002641646F62650064C0000000010300150403060A0D00000E270000133200001E3500002FA8FFDB008400040303030303040303040503030305060504040506070606060606070907080808080709090B0B0C0B0B090C0C0C0C0C0C101010101012121212121212121212010404040707070E09090E140E0D0E1414121212121412121212121212121212121212121212121212121212121212121212121212121212121212121212121212FFC200110800AA00A003011100021101031101FFC400D400000301000301010000000000000000000405060301020700080100030101010100000000000000000000020304050100061000020202010401040202030003000000010200031104121021310513204122323314230630421524343511000103020305050704030100000000000100110221033141121051812232206171421391A1B1C152230430627233D143531412000102070101000000000000000000001130210010204050600131701301000202010401040301010000000000010011213141105161718191A1B1C120F0D1E1F1FFDA000C03010002110311000001ED29902650B34064A05732C665DEB253F0246FDEB69E993BA0673D40905545A0FE6A32F29A796EADC43A89229BED04FB89A35D737CACF5B17513E7CF5CC37F76017E2048412E2E209CAA32D3459E6683658B6740C7431A0A857224226E9B0B9E4D74CDD9E0BA7A09B43D063A693929853906AD7A1D3BD91E55E27A33DF63ED1A836AC8DFE8FCF41D72F29AA5D3ACB0FD411E8C56A62B84597B069D38ADD7613DB210C512C4FDEE600DF19EDF9C9A6C676A77CE75595AD992966D44BCAF9E13C93420B67E7AEB3B62D27735F2DA946C1B290C49269FBBCCC4E79177875155766E8EDE4CF3C37D1F9A4F3EBF7552C54E7F2D11DA79AE81F693B5A794D0E22DA829B3EE4AFBDEE9C3194DFCF2DD2B2CBD2CBA277912BA79132C63F8748C5986E5627E6A2EB54F0CEA59B2662731868D8D620386F33B8FBC64365CC6E17A2ADC906ACF48DE3B92D0DC8DF9D49405AC5A2C7C0FBC933C02F1B4DC8DABA3925EA2D721B80F9D7AB194FA794E2ED9BE743DA7BF3EF65F4F15C47A2F916341629B33C3B33AF57C2E0D5DD457B562F9BF3546B72FBC77A845BC476ABA2608B9CD78CB5773296E158A61C205BEF4095ED4A52FA0C8E7CF9D9C0B7D02BC1C78588B4825239EB87975A569197BF3E926256C1E4B96595AE134267422F4882DA4E4F42FCCD4813AAE4435DDD985DC97DC87A012692DFCF94DEC67B34E4EBA99563E55B5C9559DA3E8B8DB7E73B19D5D3554AB1A4284934497B44811B6AB10407EA6BEFCE4BA2BF07BFBEA787B0ADA904F93F5C896C8F1625E45A0391D54D5D128E8F88C7BEF3CAFAC07BE92103329E6D5A0EFD241B7BE79CD4A09C93D51E1D5625E55547C7BA33A725355BC1A6ED4E7C2181797116A435DE8F360E6A32963E5D7493EAD37731980682A8806A93571BDCFD50E9938F759F196F0DF4E09977B523FD5E9E3D64A08D3481982ADBF9FF56203DDA5CDD9C18A19B2700D9BD3CB653D15599AC2B9515AF87EA38BF4558AE76F183D6107D6A5337F47BF150BDA3C7B4603D14359EA709EC5E8679A8B3EE12EA2515F3DD636E798FD1FCB9AB7FA0656D54CF453825E3A121B3F1EE460D5E46F6FC1E5944FA0FB0A61D27A066016B7E25E3E7A8762446A92DF9A42DB471DF7F068DC2C193259B3F78DD226CF616B28ED6C406891CA98643A49AB87706328F4457251E8663ECDD50698837A8859B3552F515B943A1ADCE366AC959B34B66F4F226EDCE7007518FBB1BAB8AC66B8D9EB594CA1BA6AACED49AD1CCE38452DC470FB7B80351C81398F437F732354CE8667268D3BC719BAB33A594DE3B494DCB6A80A4D2D26B30352EAA4296EDC58BDD206E49687B98F40B125744B31A590D97C56D5BB87411DB0B053C99ED04A76434D0C3A0A8D2B6B94E455CB16B9D286E41A87BC8749925CA6B82375B1A86720181FFFDA00080101000105020860AE2A438137F6F338C38CD4789BB4B604D652C86DC25299BBFB440FED58C7436ED59F2072C9961DD696C883A666D6DE2043637F49F1768DBC752B0D62503157AB0B3FF1F03FF01955BD0B3CDAF556EB97D7E269B9A99A569B12B20CA3F513E49F24BF638A9334D512ADCD86B9EBACE75B5C31D5AC895AC0938415C6A11C7B1F4A8C97D1651B1A2AF5526D0175F690BF2060AE37145BECE44372766E1EB9ACE274D5EE3AD471954AE01166262309FECDA46AB92EFEA36920642966BCAFDBFC4DCA6D5A736FEBA957E62A3F1F03CFD7A77412B112083A99ED3597675762D228F5AE4D1B162BEA7F5B30D865AFF9589CCA2FF9341D3687B1A169D8D0FD6A891562883A98E32BED2BFF00E77AC503535A94D845D7E12CC2A5D664D3DD1072AF52DFCF737976E691FC682028DCD7589BBAF12FA5E022663ED5554FEF54D17611A7B850BECFD6372A57606956FEDECB0DFF00E44B2BC26AFF00F5B57702CDEBB5F9B29B36EA1F1AD6CF64AADD1AA3A5162262B9AD6F30DE368D68EBED6AAA6B7B3D7DB3FEC0BC3D9695CC53D8D28D5A6B72DB450A761070D57089B15709A296D735ECAAE98EDB2360A8F537F1F49A6E945C2D69EB1CF33DE6F699B767D6FAC6A80FF5FE3B5FEC1ACE37A8D11C1B65D2DA369393760D6BACD74E53675C7C9B806A68E919AE061756BB426958B12961364FE1ABF86C4B691704A1D271C4F6B48BB4B577AAD9D2DE236D6AFCC920CB2DAC4F5DBD5D765BA449F6949BF5FD75BDF59FB50F15F30CD8F15FF2839026219B8D8D6AB35B521EDBEFD25D2D94ED1F1C9D7134BDADDAE3FC362DB47F5B6F59FF001A5E56F0BCB76C6CDFA8839A8FC6EB5AA8978785A7B9BBE3F5FA6AEEFAB4534CBAA4D9F60ADA3B55ED6B288E040253B469AEEBC9B754E6AA2CC4AAC9B37FE256DD7B75BD85B5D95FB35B2712EBF236A5FF002647FB4DFF001FAFD73C557746BD6765AAA8A622E41BF10642B39966668FF02031338B9914D96E94D63EADDC5FEBF5459EEB5AA5FEC27B1A75C114FF00B6DD9BB46BFEC1B3D65BA2529D7D917AB2963C61EF2AAC1A5FD7B2B7B04E13D3ECF3AE93DD14327B3D14DB1A9559AB284D4B12A5D5A50D06FB788542401EE367FB9BBABB4FACD67B06B65747CA0ECBBC71CD2E57E5A3B675CB6D5564F6D58E1ADB075B635F612C1AD7623FE4CFAA5A534EED5026FBCA28F8A59E3DCFB11AF55BE757552C4AB449B7D96E6B68A4E05632ABC6A51A00F558DC37752FADA96D4DB7D73ABBEAF2AD90D28E2F11567110F69EE7DAA692586CBCDB462B5D87A636DB9957F96DFB35ACB2BDDF952E06569522FF0065AAB7717E601488ACCB357D85A934BDA2CA3711E7F6567B4F7756954D6DBB5755FA93CE6D028CA67E9AAE878D8788A0298F88F7607260F5FE54BB547A20C4AD88946C5AB2CF606B4B2E6D8B6A181A67B2606C7BA0AB62779B4F88BC3E27FC9A8002DA3E48EB86B12534AFFE3D7A76593E3E05566313E5E31ED67293C5742F0A36DD85DB96FCCFA4BCAF6B2BE4F67E218F2AECC2FC8480DDCAE5511FFA4A5A9AC7E65463A59D2BFD9FF5AC37C1B3CA5BFCBAEBC75B8996F8FBD717F55FDEC94FF16C7E94F9E9674AFCC3FC77FF0023FF0028FF00F344FFDA0008010200010502EB9E99EAA5634C43384F8C465FA10FD599CA0611A6672999CE7C903CCC61184310F7EA7A3794584C63F4E2627899ECC7A2F9E84F55FDB11CE213F5995998CC780C10F5B1A03DF3D9BFE1300EF67959CA37407A30C4A8E43FFC2629FC5FC980C680433EEC2226237D39E9CA72999F6680667C533DC18DE5AB880C07B74C198FA7818441E184485BB388A6379432D68463A2E22B88F887AAB609B04E66661681632C2662344695F767FA4F52263A18EB8959C47EC2012DAA0694B60D83E93F4986130F8E795304063D59E81B20FD42667284CFBD9884CFFA904447826614CC45EC7E8F30ACCFD150CB3CE398064E7A274C411BCF5C19DFA9E94CB3B4F933391117A084F7174A4CB97BF456C42DF41E958C074CCF8E667183B4532DAF3024A0C65C823AE66667A18A208EF0BCAEBCF4CC10399E60FC4AB663A661598E804C74033D15A15CC15CC740B1ABC458C4CE19159C74C464857A7280667807A2741E7304782049887C807A1E844E331886590F8D7862C3E44783B4114C63FE4364CFD00433EEDE57C56311A080746138CC4CC27F2F27C751D1A087CA45F07A0821E9F65862C783A0E8DD47813FED3FFFDA000801030001050298988040B31D595A28998077E7058629E87B42332D5C7D2AB3138C64313A002769859C04290AC530451897AF69999883A2896340B152621309999CA07303E663BE3A5A3B4C445804FBBF652D2B19E863743D443DC41184748220E952C61DB1DD3A1861FA6B318F61E0CE32B19331D03CB17053A184C30FD00C2B963D1A52B18C1E3EC8D0B0316198850C2A663A0AC99F119C2570C782C8A3B32C4F0964723247E5D18CE5331C41018CC262219987BCE3F956F1BC278759421110E618F99652C227210471DA30CA8A984C289577E84C5695ACE588B1D3BDA78A55E0C267C82334410F88AF885C4CCA9B050F296A6457DE010912ABB1312E4CAD0DDA3084744EA666089E42740983D184AEE999C78B43184C40311A1F2AB986B804594E619F704347486622BE23BF71D08807534CCE27EC3118E057E19B13381C7A3C10B4689E3E8338BB4FEBCE1C63F9B3C567215310AC6CF551F89D7EF7CD77C884CC030510A308C18CECA33DE59DE23E20B232CE50F78C2536719F209B03B23F120E7A081A330332B1DF3074695D7D956596E2098861413183FB2B0C4AECC457CF4318CCF41DA11197B0B311AF9CA085A25D98E228027C98370CF40625B0106324F8E71C45EE474B3A1F18EC624319E660FD491D0410319CE72C95954FBEC798D07832B11BBC6118451FE21599882626616CC13EC9E1E58D983A3374569CBB6611147E1E079EADD16183C591BC8E8DD1609F77823F8AE1E8DD17ABF933ED3FFFDA0008010202063F02D2C6FE571D93EA03E1BFFFDA0008010302063F02B13C49EA6C5140E14D014366C80879B54D7A173C9365BDB078F63D87ED66C8D6CB99BD072452182FFFDA0008010101063F02EC1B30E2766F4ED446EDBE7B5D5467AA790C0AB9A308823DC4A12FA6A113E51EF2B56FC934B029C06284863DB36E18E69973697CA264C9CFDA6FF9CB52F4AEF2CBC930BEE0137A6A54FEB7520309A3A7CD4E0843209A1171BD5633B92DFA999565A4F797475113F76CEF07B040C577A37A689D46B843061DE9C120A1593AC7C7B2D2089B1CB25A2E3E2BD48F4363FE57AD1C3CC1063496D75DC1377AD5F4934DE4D02FAA47155A442C3F421F9301CA4D50B78D9BD1D51E28E768CA5EF4243A41A1E29AE61B348D9EA4B0C22AED8356E788DEC1737521DDFA372043D28A3025AE5945B0841CFF0022A301599C7E2B987B765735180CD088E9B50250FF00B443C3F705CAFA6551DDBC2F1FD1211B78312FE0A51CE6E7E4133E9904D3E644A75EA1CA0A7A7AC865A22744E21ED1FDE3FCA1298D374758F9A75CD45D4B16E0B9640EDE72CB95CA63CAAE9C194E72A3547F1011BB2A199A384FA7D853450DEEAEBFFAE2ECBEED6370F8206D83EA6523434F8A6FA8D5782FB8744534F43FEE2B5C6DCB4FD50AAF52DCB5410CDF63CCEA96355C92B65B1029F15E9F9B726C44EDC65F247F1C757E41D3E11CD42DEF93A94052D809D6A8658A909613EAF02BD138DA2C3BD19CDE9BF2467E9812C04C67C1385F6B139EE40932D7206BB8E4A27F25EC5FB5097DE8CCF3C9E943DCA575B4DD8FF6C474C81C24168396C91EA303C142C7E4017AC4273909480333ABCB45FF00A2C1F400938864AD5D90FB738697F0285DB7C97460A77AFF002CA1CB18F7237246A7109D538A07CB38B21290D5002A7BC263D7759F8A6C9326216024AA045969408CCECC58A6D41B65DDF08EA8F8840C6938D0F71449E5BD67DE111B0B54AF4AF7F5C8D25B9424FAAD4F13BD4A4DA8C082B8F6878F66EFF097C17AD627A44B18A8D1F515A6D4FAC381B34EC8465CF6A8E0A3506321F152D1D13AF143B12B303C96A92237A6DDB04B119EDFC897EC23DA84327AA78B6B635EF2A65DC588C627C5961E8DC8E4B5C0EB8FC1315A4705A09E93F14244B890AA89EE4366919A9DCB785CC5032AD72405A1A89C91D78C97A77BA27D13CB669CEECC040719295CEA9E108AD313CF78EB9CBBF648794AA2077A6DE83E4A1E1B1D34CB2695C8FB573CE1C5389C6B946AB5185CD233644FA5285BCB506E214357535559B19446A420ECB5DA9FAD6CE20AFE9B7AB7D4262139555BE3318A898D60ECB7307F6AF4CF543610AA48943064232D176317C47326B9F8BAC935217D8FC56B9FC7E6535CC751221945D691805E0AE5C1D2ED1F009E356427070E2A14AF47543B82E754AAD2B4CEB0508DB6237A9CBBA284FCB8142512E0A6D8F1C57DB5D71B7E017D5238C8EC36607EEDCF704F932D72F7216B5698E3291C95BB1F89A6721D5E1B1E1CC366284AD973B9107A998AD12C42A5607108189E1B01EC691CD7E5D3146733AA72C5537260582C54AECB01B394B32D331CE3CCBBD56B25F6CE192F5063B1C165CC7505D49DD62A875DE97443E651BD7A5AE72A9289DD2D872AEC1F55C2FB5D394C0556ACD6B382A7639664273324A3724B823B9D4AD9E0A206245501992C84079518CB1288180433DE8461866996A52BBE629C609BB44A1F548B95EB0A0409C50395B06478233359144F72754C53E1B2B45280E9ED84C139E0A314595DBB9CDA11F9F6386C082978047B43645414BC55BFE6767FFFDA0008010103013F216CEF4025094105BF14A99DCB29045620AA32CD69F2CC0C9C3980A8078F788D51867D4315C30ABF35FA9F5BDAF88F10C2B2B003EB29EBEDD1FA8790846C0C363FF23A254DC3A06630D64532ED2B2B6B7EE2586DE7DF29750D8438D1F9CDC30AECEEBB5FFB118E64A67E6A26D6D07D5364775E37D254C8548E11405FAEA5AAD19E27FB3414D602F144A21D34AB264CC3082B1DF100AE7B79264A052BC4132FC678986D6D7D657780D5F7771E34E9FC8A7DA57D0596D221541BB4B20E397941031D20302B24AE14603C3F3598D9ED8539BAECCB456B2DA8F0ED2A3F78709B87A5585F780313B912971196B77DE30777D84AB79CBED5FB2627BA4F779974F14412583F308554CBA420222022391989C73FEE57D88E70E441130D0F14C46760FC1169B0639E8CE784981356CB10FED3B95B1AF95A0C0DD7B586206054BC8C54C6A3E92E5F40A2AB7DA706A39CEA925DFBA97F5ED0FF00143E05B16CC13B451DCDDCA17824CC03846FDA707591C3CA7B8E6A379CAF2FA7ED0A05C41B2E1CF5930E87982D724B4A615F77986DE67D549858B7241E70E6263A0885A8608EAD9F7089E99F74C474FC360E7E3B23B80071D98A7E1895583820F552B2C6AB27C0B2AD2D7B4A5CE74D58D55AF5716D1FB314C89EFA8BFC37F6D3074C50ED11918D088DE764A2483A76115E9A225CB7FC60A0C9B7D99B995CC4A5B278F52E7091B57E9758F694E777D1CB0879A44BD69E20E667D8C734EE241F4BFC435793EE600D3F2972F3DC22507B9742B922CFA8B828ADDF7ECA9641B11EF58473A8093767E989CD34C7782BF70C076AF530265C317EF476EF351D879E37ECC64267D9AB6A0CAA11AD07CC26D2BD28BE783EA0B1AC26F0D3FE113AA31695EC972BFD451BEF6AB58388035E0607FEB2867CCDC200EF1F16688A8CE4CE31294DEE7282CB19BCCA45D55BF86F111A50EC5E880EC98E925C289471E1FEC7D52DA3ED2A9D92D5D367C406417A9C0EE2E950F21A7EB2E9AF816D5BF697FBF211E68556A52257188AE03C5C200EECDC52AD6A2E2144BA06592DF6BE936C7D2A0F685696EFACCA913D1C843F4CB135CE4289A370DDDC232508F6962FEB2FF8C045F50685D935540F382B10AFF54C0F5339EE5488A9BBBC3A788A1F5D6C6125D1216F21ED431E190E6F731C8D93384B8B23BC492C712DBDA34DE66F9258E701F6584F984FC34BB1724F9C09AA60B8759650672065ED8249B558CC5202065A3EE09632D8175C4F784CC6731F1063009CB800992415EEBFCC60ECA1AA7CA9B528C95AC0F29769DEF1827A9548017E19E528B0198771B27237DA37196FB1655ED06397D66AF15E589DAD290D131952795E1F30830DE31E0CC33F1793F51825A7602F2C61CDAF6B2CEE698734A63A565984166B6BDA086D6A868B0A17332DA429C4ADF0253AA4B6D9D80F194AA785A7E66A64C25DFA47276E6C25B19DB5C7164033508CF5948F2C3DC7CCA6FD4D78E6C66701D86CF8217A18DC492ADE105894943866B7A7A45B861FAE2127FC882086FC29F8CC315F64A6633F055F77FE4CF032212D65392929A6E193AA48AB6CD44BD40454B8326714F91E884F39E9D2769802E4732C266CA2656555AEA5C6E9A43466730DC8F115B01D3C3A65C8605BF192127C13B30CE456AFA4C32B61A633F851AD03B337C077B3EF0CB97CF0C5505ED2A69DDCCCE8825B5783699D4B218BF13E70D981CFCCB14BD5E60BBAD8464A7982342FCCA3D2E7BAA1A474BC9E7E18A469EA67A810BF66946F3CC000E254E276A022CF9F04F2C4489B4C20A66398566614E7185711F57EB029ACC9AC1A866A3CFB970BF29832D37DA08FBDC3E605056FF110C951CB48E4958313F32F1783C4A6E5986E89EE38A8687DFF00011F92ED7E08B1327D89528280801B10F76E713878B1F5C4B1A270176D30C2BA65C182B983427BA7BC33308B46E0BDD2ADC44571438881F518A060D6A30B6BABED051EEA206F0C1ED6F94276A2858E90F980F4C84218324BA6B48E9DD62153572436EC9594F986B22955D818FF00697B8E6B29314258654971360EEC319BA84BDA6421F10454563092C0FB043D92C45DFEEE56ADE84277203396D5312C9ED2CC9B9BCE5C730B6F76EBDF332FDEA5ACDB1308EBA6EA7DEC0FA53802DA12E534CA780D4BA7088F1BFD2372B37FAE8E3D07DC13F7CFEEBB741BA3B8EBA79E8399F87F89F60CFBD4FECFBF47FFDA0008010203013F218B2E3067A1B8C46CCC54C2E971518994667C4A867106B12DEAC631AF4FFEE8F164B4532F2D2C4EF422D95333E90952A2E8D68420EAABD2A543A6314709632B350D40CBE911D41725E07504204A9504D91CDDA6D2E978A2C37380984FF1A4210E8CC1B9F5D05460F4AA2128B65E2FBC75FC5010207561C4AAD15C2A60315B5D2DEA5D784C7713AD5096422E523D1EC8732D54C79985A679AE5DAE250F12A9DC40834B44831810939B8629CF68A9BE95266A9CD2F2E038226108F945C6F5D0EFA6E2388D54C2A545F8961447D74AAC55F129313E8A6DD2E530B8BADB072A1B8AE59F0C442E2C44A6C983A1E78F41FE01C425752E289521F5932CC0D4261A65233E2E095065C4E8311A43A434881119929DE69F513996DCEE972E7C89BC4EB60E80E55CD4BE99930BAA7A53A5AAE95B612FF84742A025F58DB1DE231713B980A817D0E4D824B2510F5C4CB972FF008228CA9B8551CA45681B9B24437338743522743AA3A2D7A546A62B89758C6DB8920258332D1A17021E3D412952D4109960C1C70A8EE0B2D623C4447726A4B88871C835D0CE354741899C499482E66C4CB12E6012A634EA144830BCC151E609C934E8EE97D2624598F9477D3D08242FD6A53D47724C2529AC1899E2625B306690CB10B38D7417D6FF0004E6C51B84BE9D26BD19D67F5DE6DD63F85CC3A5AC36E9FFDA0008010303013F21A6107F004084DC352E234311DB4B9112FDF4E6E92B5E23D081D22FD343B7A8335F54A20BAC678A29EEC537322687409D7BE10C2D88B1FA4FF04D814E7EE58CE142799738908B6510CD22C92A8D930C7517A2E5C5151C8964D3A4704AC958996D2D641EDFC488C7A13357794FA4D50B1BEFA06A36A2567D40ABE9063D62FE019532B8823A8DA941D03DA55A99208A828E85F4C28C54D04AB7164FC51731513C134E504DB3BBCCF6915965CF24F69963A3B4C539301B5D1CF138210086EC41ACABD2642033E82E02BDCE71709F0F4235D1CE4C24808A065396139E85E3320B96A7CC7514F4859921B9A892AE3AC4722643920B7445095B536E95643D5C3A1D44CFF03AA50DF8ED05B8391B83588B9A94C402169995A60C1D026B4588E0B1957406270CD214AF10EF3D2AEA764AF4CC0ED163AD54AA658E277E64C46AC233633007D6548E9ED856698E0A2FA56AEA2C20C0D608F125BB209EFA0E810A09A417315A2D47CC361C090D7C4C0F68B324AF509E538C453860D83EB2EDBA3B47D65E5905132F05236A2E0EA59A99CCCCC11644B9A4A20D989F1D65C17D22D932D4D18A15D403152F0249DD312422E3A89191BE82274CF8C4E2165506229A946B6EFD01FCCB61E841288DCFF0C08DE0D91E239260CB984AE1D1091130CB0DC77688E822E99A11CA8311620E9D67C4C3299B02A1D094339FA0746B074631BA0E24D5E2462E4DE2E7A432A99C19CC1D1332202BF89AE25D83A3A5A75B379A43F9107F80C3A3BF57FFDA000C030100021103110000107C2EB2954834D3A1215E385E0D4FE6B5728AFF00C85C9C12AB29EDFA0EFA8B1E599834416C91A3D45713D599789725B83CE1E1889358543F63E44646AD67BFFDCBD0357B3193247A619DD8F23C1A8BB8A1E7EC57C192A0C4830C929A52B2FA1C68C0EA7433CA1D61BF6BEF39A4EA2118B8236953657933D44D4A2848F766FCC16DA83A2B3DC58700289C730CC6CFE79A463C26123F78AC49C726A931480C9C42A56A9D04D409FFDA0008010103013F105325462ADA948AC4B7B198EE5C00583B0B7983CBDCD390B9B60BC3FE43320A6C09F1080B92D84094D2E58B38DF35719F2E256336D5A2E415D82A2EE5D55EE1699C0A617E97DAC62718705E76C5F736192D726B5DA64DF46637E7222B48526EC5798BDB5629C0DD2A3D9C2E8ECF243D3354F84C47B8337089416BC446B506F278298F0329AE6D3839CBDA302AE09318A4A0F6BFA47059802FBCBC4466DA966BC86B2DE3E10B9889506028E0E1FF00D8E973C5ABDE1C4667514DDA32E74C6D45E1D8B5A19E7C472AD73A975B718E226092F22FB1B572E3C464156ACF28F23D12BA3284EAAA1C32A832A42AC21A72988E850146D93612E8B2C587642A205A6E3DF5F98946C2CD11D2DEBE9330EBCDB767BCDDA9F76985EF05DD7996E026A906AFA6763B4666C044F2B59FAC089316E0A6ECAFEF30456A14156790D32920355607B85DB100A30917406242A264D0F66079268FD86B1EE5BED452EB8159AE1A6524A899D8387C2FB4CBDBE634D638D2B1452C9D58E3C8C30BB1E606D4E2BD83CCB5D48CF96F3CD407B660ADD997E910102C1D90F45AFC11F6A8602F23DCAC7FCF280571DFE91118C1AD39F3F5948003B437CC2D3B1000A80A404A1AC71052A154CB95AA9A41C7B12D60F5D008C6B6224A30BF8129A659C0C359073BA7273EA1134D4283CF1DAA041B623BC047237C7E2240CAC1F87FD99D27EB40BFC5EE2EA415289293CE1C7303B6AD73E04F6542C0005050B56FB95A1B2A222A27B04BC399DC62A3A45554F2890CB39744513E622250110036D9A52F5B16628838140F1ED097181568CCBDB04690968357EAE213603CB2ACAB4A7DE3F5119052F00CDBF48420F1A5A0E55E6A199489344D65E09DF7517119306D1896256794A6C164EEB87ED0C818E3F331A601A8825CA92F51912DC4A7F49CAD67D48EC9C1EB9571791522F757DE0C081C0DFD20BF13046EEB37D98BA86198B656309308C80395755081FB42B08E526DEC81F994C2EB2D93DA7B338E61F50D80609A53063FD1335D05B625C590370855A0480346C9C51FF20647FB451103442B4E7D12A0EE80D2D634D4A58730033866AC8BA17E112923943ED5B9D8A06397B1FCCA4D065E104F632BD2D8B462ADFC7B968A1C82A6C546BC4CF1BB76269BC403914BA453E8F88C6300E315A3F2B345E3906B47DD5CCB0551440BBEAE98B8011680506DCE10CB2F761C0C3118B77EE338124077AD7D582C446EFBCAAAAF061ED164D10C86342C34A2B45083697004117A645E58BAECF883828323F282A3144E46CA09DE69A2B467D4075AC5ED61015F1507871071D5961F8661911BBA87D08E009A640C34555FFD4173989B2F382A1A66668D0800F764A22A086511E1B854AE89762B0F8DFA991ECADB0EF81B31AF11768785AE710549CA588691B1A2FB462AEC10FA395F1AE0DE411AEF2CD42DC294F4E5B9625FD1DD2125ED8A4A4624C6B13B49E222303CE04142EA9EEC663F4AD859CE7752B4582A0EF5C906D5859227A819E61D2253BABB1284BD7AA690AB21A43E278697E316E3B46E3240FB2F9F95EF09E10B6C3251DDD5C382B2C26D683C56D96EBA7D5E08324C540A5B1751FA5A2C84298E108AF144AC1057B6131162A3815165806880AA8556B17462C89CBAB42AAFB7CCAA0270A50D6CA26011D0557B8B931D2DDE779FCCB2C39686046CBDC628646FB2E22E06808C2521BBBB57E6128F7D5F66016AD3B6A1D37BE2C3AFD6AA3D09B44FB479CF7E603026F80398EE6C99E0B2C63018EFCC685056698786CD5553E60868EE755AAF43BE25060285204C6071490804474C95ED51236E2A1ABA421AA392AFDA52FF00D590CAB16164CE31970E48D7DA1BCA06FE603F8045C439ACC5471371F0FA145A04E619CD1A7C41E248760072F863B2201D8552AF8E26197FF30CDC96DE4C473860D89829D4A81A6D818BB392276F2AE554F854CF0CA22D6F06AAE0761E65393B8F52C05ED08480C1620073899804018179781CCCC120EF9FCC428E43101391E60689F32BFA9D1A6BEAC31B8BDA2FAE6BF98A3A61192CD55F170D74BBB1FC01B8ACA5E1DC0F642AC0D5F167095BB88D41CCD0E7C31AC554C3FF0063696FB2D3E18390B6BC1C2BACB6799FD9F611BC66380A80DCBDF8283DF102BA5778554596130EF15514F6D666D3B9DE180390252CC5420C1E896099BEDF314BB24B0BAAEE9DE66462AD9C76BF28C48D896269880C52B92B7FC40170852AD7BBC9302648AEA1780A8DE96832501F83D4B56A4366E2A94CC2F3EA1AE5A85F26DAFB4B73C819155D4B19202DBA01B7F107881FDAB5F56210C10FD09CC370A7B2BBF96A555496A11C732983ED4C4FA2E668CF322FD809705A102D6A8BFDD88A9E835DB28E5ED052A19523B80A4C3B9705456CE62838BE7968BF88C9A6A25A410A74CE0132989CAD0FB3334DE8AE68672A5F7C4B26DB03379EE7682B7A5648D060DBCB54C20C836390C7A945CC6B74BCAFFD8E90115159B0FD05891F0E79E0C425C244BA8913BAA7EA33D8CAECF934FCCAD6816EDE194A2FCA5F9E9B1C290196CC73455F02CA0772111042B47305A39C1C42B80AD145151D00CA7006597F116DE47DD370E9BF90ABECC2874C7E09761DE573086FEACA53884D557A6B350C8842CA6EFE92C29F6097FA97FD542F16A3171B20BA6EC14784E25C300C98EE3BD5EA28B6AD4C3BBE92B66A888FB1A995552D9677FBC2A0D586554A5BC91F6C64B4EC94D8EAA3A3B84B4F5095BC67376C68F13C7AB1D93C82C14AAD35014B430F2E5633162C17474463000428D2FDEB309049529A0B45E5802AAAADD8BCCADB07CF9C7F9183DB5C8F24A682D382738B8828EA1F267C244607C6C2BBB925B29556A8E47B309D882ED7B2659655DA8784995445504BD76831914D258D559101A5AC518F503C83E202BDA7154FB9089E208CF8796B7759D112330B5E4A73EA155B6156E5E2660B76B1B6F9B4F7119D36B1AF38EC788D80B78872C4294F351D501AF4F0D371E7B9C8C61C667341936E4688FD5BA7B154826275A01C3D9F0CA1223C407C8629FB4AFD666C0869195FA0CB584C9B370C0238991C55E605472143F7519DA841787813FC9DA1BDB06C0D01A08FC1463C09418015B8D3BC91CD30499D19CCAAA33A9BA387D2983B640724CC3A63B591DA97D1F588CC02AD1CD25456BE5EF149A8EC12BE2BB458CC2138A6566A79E189A7460C118055DC6A53F4260B1F7B89F51412CFC544A2DAB1682D199DF385F7533028DF93314E171762CCB5F30E11AD39CB5A9F7E34101F980BE0808801DC6088032D04EDBF518C9AA0ACD35B8ECC9D0E29D452EF6D300131255D352A03095EDC403B01E790FBC460091C2F7559970B669808C7137A6753996A55E2F10087151F58B8E5D7E232AD02EC347E20F6A2D3B43328C3C4392A6B6BE5781F227333100A2DD5F6FF004C666663D84A11A4DBF3B835D97676C102D6A639130AC976C11C478D15674C58B07C945948ED1559C44986B8DC0BB77252E952B2EAEA19BBACA65D5251D8A010E6B898037658D09C3E980415840DF371B35825ECDC3B36B5846A616461549F7AFC746FFD389A7DBF99FD9779AFF4E27F47DD3F3E7E07E19A3A3B308FBF21A4FEAF9CFEA7B3D25FD9F7747FFFDA0008010203013F10B2047A4C96CC30448B8EF1730807A47F24EE841330FD44A0ACB09C1EE1F58B08E968ED7F129676418B1451AC0102EBEB570CF7F4A8C6CF7180386A6F266163697C4389980CDA6103D5C0CC3F04CD8547833EBA28C2266A9B61A903C7CC00ADFF007717C4065DC21BF412E232B7242DE316EE1FAB1CAF8E8314CF2DB304CC0471E2600DCB1EB10A108E850A7262583C953121EF880F3B81172825CDC7383B5B957C362115A23EFD1E97D4B82620E25C93516BE5A872B3028E806CE806CD6D546DDAEBFBEE2D2ECC445FF18AA12A096A86D1948BE0884787BF0A31DE35AF95CAF94E7FBE229871C3336541C61D22A94A806E0BA88713383BCC6098B66255FDD89B0372E5EA1C872C655073B7CBFF003640F2D4729A0990058740A997A8AB389342C4F916C15E2FBC64F094DF9669442E8140E3F3068E933E1E6260E7F2FEE1A5DF4C77B857C23898082E84A989808030BB4988EFC4622B963CAE330E60834BCC11E92E6A5CCEE33AE5455152BF697BCD7E10C7305C4B27C72E62E618A8100D245F30D5799574C31ABDFEE97996B8DCBA8787B87894A2A921EDC32A1EA1CC197C75D0CB047D38937AF3077A34C4BADEE2B22FBA5123570171D4A0B8F1A65759995F7BFBA64E8AA32A65E625CD08B20CB2645E63074F118628FC913E514284E244790EE1BF754A51C20AE82A04001E20D5906428CCA61C6505F02C16AF7A256F0E7FE41B13809998D4B063302EE021DA072515F8856E3773745E81750E2189EEE090EC2146E133F82A26020D45B8A9630AA260B1214A0DC5098475014C353639596C9A60E8CE646AAE64DE602B56C5EA6BD04976C2C9FF0092CA7C63521CD7C79812A4DA4AB03DD41D70DC6A9DD8753848C53D0629012ECB3B9A47F14EC951CADA3D7BFF0026AD8187CC0969DA1E18311C389B020E87710D350EA73F686F9868A4ACC260C086F1111A25939D76C1392520F331A9302933CB1DA0DAB445FB1029198EED12B18E733853291D41CF169884DE9ED0DC951354363C13630CAED710EACDC4B171028830B981DC3BC16031E6496352B4A582589586A05116611961A2DCC0AFA5CC258AA210BDA38BEF32D3C45CDA21F514E22CBB99C036CBEE191EE0D0688EB6602207DD426012E04B01E222A595A771C09A8E2A4A27B9AA8E153286E2CC16C4D2CA5B72A63B880E48D5BE62BED332944FEAB73F04F54373DD37FCFB9C751AB7F134E671DCDA6D19A436FE9FFB396FFBFA9FD49ABFA7C789F77CFEBC477CCFFFDA0008010303013F101A3F42D84666506F7986882C8B1B022A1A54B8388015707DE297F68A200D4B628668F67799536D410209630F98FE845867E97FB88CBEA5F4C1AA9973059DA15D0C519713D04B1913DC2417DD62C6C44F0E2014ECCCD01C414D84C4007418EB7EBB7B8C6F31AB98019953D05916F110B1806B0829D6184138231ECC637D3B50051A262794FECB72C5733B6100236A3AE928C0A28D9100D85C490E1D4A1383C456B12C6672358F00D13C6199E70CA0622C4543D4D2074576E854AD39847993F51CE200B1D100C65681401A11076199D34E4FF2257469D6547ACC2F989C53BF5B822541569AFD40552DC92E1E1341B497AD3147BFFB2BA2AB8ED2927846C5B82659311A2E1D631025E10AB3308A2D11848A75D434AD3C66580F067DCA18EACE0B8417CDEA04636C71FF001985E96E60416D94F6410984362185C630D8860886A144D751C55BF13472589C9A99D5AA8D6E0F6483939DFA6366DA43CDC1146BCF12C2BB85DC1AB660602B9ACCB5A9E6632783FC975A3652BED4D5EE5E5C0778310DF310133B3EF1C61999781ED0F860B600A350049A4FBC3E8B19F92064DA94D351F4F8B2D46EC56165DE1A128DC67573336FACA382392733397B3B42A9883A04A8C421EF2CAE5A7B302EDFDE2068B4CC043B304B894C6B863CA50A0AE856C193B47DF9B5197752EF47645C9CC35A8B6A838E4A800CEE375DCFCF3FC03CF0FCB2B8D89977C457994CA93E25A9B9CC4E1025CFED294E0431B20A5A59F29E28996E44B831D4B26D732CC9CC32504B5E2500D483964A597636D131CDA5C12B30CB918AAD732D43642351C7BA298BB600178A9A6710F515B70267AE980B079C4170D9F586B05ED116A9ED0B633B7FD8CAB51D8FFD99304152266CCEDD2561C89B99102C9AC687E6643BE8100C2867C261208A2AF2666800F72D815F3FA9BA78AEE7D76824B6C0BF998D344C66D2842590979AB77E20866696598520520AC84B3C443E0C20989520A867298617CA69E8ED2AB10F03366BA2C500BEF02A297B7882D5EAE364EC80649AB6232A1D2EEA39DC47FC768361804C4482452309516EF8995C3807B224AC27611326E0F6AAA2D04114BDCCD72A085FE218A6E21B88ACC41E3282CBCC452D5426F6E0EF12CE1114F9FB4702A1D0A83BCD44C44C5620171500A05B3CEA66E609AE95DA391861B99945896218FCCAD0F78765280085EA640712B4ED15B5001DB1D838E605528A8D937FF62B7C4174F45A1D142A5752E95DA3DEDADC37193999F102CCA457B441B846C332D6189A8C1736A35FE88309B5C5875D2350E48D690B2632A6A56D5363F12A6ECDBA9E9D4D89ABBD7C4D9D3F19A741362684D6699B7DC35F709FFFD900</t>
-  </si>
-  <si>
-    <t>Anne has a BA degree in English from St. Lawrence College.  She is fluent in French and German.</t>
   </si>
   <si>
     <t>2333.33</t>
@@ -347,7 +270,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -901,7 +824,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1179,17 +1102,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="7" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1238,31 +1163,22 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
         <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
       </c>
       <c r="F2" s="1">
         <v>17875</v>
@@ -1271,57 +1187,48 @@
         <v>33725</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K2">
         <v>98122</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N2">
         <v>5467</v>
       </c>
-      <c r="O2" t="s">
-        <v>28</v>
+      <c r="O2">
+        <v>2</v>
       </c>
       <c r="P2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2">
-        <v>2</v>
-      </c>
-      <c r="R2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F3" s="1">
         <v>19043</v>
@@ -1330,57 +1237,48 @@
         <v>33830</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K3">
         <v>98401</v>
       </c>
       <c r="L3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>3457</v>
       </c>
-      <c r="O3" t="s">
-        <v>39</v>
+      <c r="O3">
+        <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3" t="s">
-        <v>41</v>
-      </c>
-      <c r="S3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1">
         <v>23253</v>
@@ -1389,57 +1287,48 @@
         <v>33695</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K4">
         <v>98033</v>
       </c>
       <c r="L4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M4" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="N4">
         <v>3355</v>
       </c>
-      <c r="O4" t="s">
-        <v>48</v>
+      <c r="O4">
+        <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q4">
-        <v>2</v>
-      </c>
-      <c r="R4" t="s">
-        <v>50</v>
-      </c>
-      <c r="S4" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F5" s="1">
         <v>13777</v>
@@ -1448,57 +1337,48 @@
         <v>34092</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K5">
         <v>98052</v>
       </c>
       <c r="L5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="N5">
         <v>5176</v>
       </c>
-      <c r="O5" t="s">
-        <v>58</v>
+      <c r="O5">
+        <v>2</v>
       </c>
       <c r="P5" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q5">
-        <v>2</v>
-      </c>
-      <c r="R5" t="s">
-        <v>60</v>
-      </c>
-      <c r="S5" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F6" s="1">
         <v>20152</v>
@@ -1507,54 +1387,45 @@
         <v>34259</v>
       </c>
       <c r="H6" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="I6" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="K6" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="L6" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M6" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="N6">
         <v>3453</v>
       </c>
-      <c r="O6" t="s">
-        <v>71</v>
+      <c r="O6">
+        <v>2</v>
       </c>
       <c r="P6" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q6">
-        <v>2</v>
-      </c>
-      <c r="R6" t="s">
-        <v>73</v>
-      </c>
-      <c r="S6" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F7" s="1">
         <v>23194</v>
@@ -1563,54 +1434,45 @@
         <v>34259</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="I7" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="K7" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="L7" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M7" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="N7">
         <v>428</v>
       </c>
-      <c r="O7" t="s">
-        <v>80</v>
+      <c r="O7">
+        <v>5</v>
       </c>
       <c r="P7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q7">
-        <v>5</v>
-      </c>
-      <c r="R7" t="s">
-        <v>30</v>
-      </c>
-      <c r="S7" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F8" s="1">
         <v>22065</v>
@@ -1619,54 +1481,45 @@
         <v>34336</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="I8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" t="s">
         <v>67</v>
-      </c>
-      <c r="K8" t="s">
-        <v>86</v>
-      </c>
-      <c r="L8" t="s">
-        <v>69</v>
-      </c>
-      <c r="M8" t="s">
-        <v>87</v>
       </c>
       <c r="N8">
         <v>465</v>
       </c>
-      <c r="O8" t="s">
-        <v>88</v>
+      <c r="O8">
+        <v>5</v>
       </c>
       <c r="P8" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q8">
-        <v>5</v>
-      </c>
-      <c r="R8" t="s">
-        <v>30</v>
-      </c>
-      <c r="S8" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F9" s="1">
         <v>21194</v>
@@ -1675,57 +1528,48 @@
         <v>34398</v>
       </c>
       <c r="H9" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K9">
         <v>98105</v>
       </c>
       <c r="L9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M9" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="N9">
         <v>2344</v>
       </c>
-      <c r="O9" t="s">
-        <v>96</v>
+      <c r="O9">
+        <v>2</v>
       </c>
       <c r="P9" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q9">
-        <v>2</v>
-      </c>
-      <c r="R9" t="s">
-        <v>30</v>
-      </c>
-      <c r="S9" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F10" s="1">
         <v>24134</v>
@@ -1734,37 +1578,28 @@
         <v>34653</v>
       </c>
       <c r="H10" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="I10" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="K10" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="L10" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M10" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="N10">
         <v>452</v>
       </c>
-      <c r="O10" t="s">
-        <v>104</v>
+      <c r="O10">
+        <v>5</v>
       </c>
       <c r="P10" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q10">
-        <v>5</v>
-      </c>
-      <c r="R10" t="s">
-        <v>30</v>
-      </c>
-      <c r="S10" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/employess.xlsx
+++ b/employess.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tue Hellstern\Documents\GitHub\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6817E0-31AE-456E-8324-221089202FA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BB053D-ABC5-4797-ACDC-8F0F62856F52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5070" yWindow="5070" windowWidth="21510" windowHeight="12870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
   <si>
     <t>EmployeeID</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Country</t>
   </si>
   <si>
-    <t>HomePhone</t>
-  </si>
-  <si>
     <t>Extension</t>
   </si>
   <si>
@@ -94,9 +91,6 @@
     <t>USA</t>
   </si>
   <si>
-    <t>(206) 555-9857</t>
-  </si>
-  <si>
     <t>2954.55</t>
   </si>
   <si>
@@ -118,9 +112,6 @@
     <t>Tacoma</t>
   </si>
   <si>
-    <t>(206) 555-9482</t>
-  </si>
-  <si>
     <t>2254.49</t>
   </si>
   <si>
@@ -136,9 +127,6 @@
     <t>Kirkland</t>
   </si>
   <si>
-    <t>(206) 555-3412</t>
-  </si>
-  <si>
     <t>3119.15</t>
   </si>
   <si>
@@ -157,9 +145,6 @@
     <t>Redmond</t>
   </si>
   <si>
-    <t>(206) 555-8122</t>
-  </si>
-  <si>
     <t>1861.08</t>
   </si>
   <si>
@@ -185,9 +170,6 @@
   </si>
   <si>
     <t>UK</t>
-  </si>
-  <si>
-    <t>(71) 555-4848</t>
   </si>
   <si>
     <t>1744.21</t>
@@ -206,9 +188,6 @@
     <t>EC2 7JR</t>
   </si>
   <si>
-    <t>(71) 555-7773</t>
-  </si>
-  <si>
     <t>2004.07</t>
   </si>
   <si>
@@ -225,9 +204,6 @@
     <t>RG1 9SP</t>
   </si>
   <si>
-    <t>(71) 555-5598</t>
-  </si>
-  <si>
     <t>1991.55</t>
   </si>
   <si>
@@ -243,9 +219,6 @@
     <t>4726 - 11th Ave. N.E.</t>
   </si>
   <si>
-    <t>(206) 555-1189</t>
-  </si>
-  <si>
     <t>2100.5</t>
   </si>
   <si>
@@ -259,9 +232,6 @@
   </si>
   <si>
     <t>WG2 7LT</t>
-  </si>
-  <si>
-    <t>(71) 555-4444</t>
   </si>
   <si>
     <t>2333.33</t>
@@ -1103,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,7 +1084,7 @@
     <col min="6" max="7" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1160,25 +1130,22 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
       </c>
       <c r="F2" s="1">
         <v>17875</v>
@@ -1187,48 +1154,45 @@
         <v>33725</v>
       </c>
       <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
       </c>
       <c r="K2">
         <v>98122</v>
       </c>
       <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2">
+        <v>5467</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2" t="s">
         <v>23</v>
       </c>
-      <c r="M2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2">
-        <v>5467</v>
-      </c>
-      <c r="O2">
-        <v>2</v>
-      </c>
-      <c r="P2" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
       </c>
       <c r="F3" s="1">
         <v>19043</v>
@@ -1237,48 +1201,45 @@
         <v>33830</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K3">
         <v>98401</v>
       </c>
       <c r="L3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" t="s">
-        <v>32</v>
+        <v>22</v>
+      </c>
+      <c r="M3">
+        <v>3457</v>
       </c>
       <c r="N3">
-        <v>3457</v>
-      </c>
-      <c r="O3">
         <v>0</v>
       </c>
-      <c r="P3" t="s">
-        <v>33</v>
+      <c r="O3" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
         <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
       </c>
       <c r="F4" s="1">
         <v>23253</v>
@@ -1287,48 +1248,45 @@
         <v>33695</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K4">
         <v>98033</v>
       </c>
       <c r="L4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" t="s">
-        <v>38</v>
+        <v>22</v>
+      </c>
+      <c r="M4">
+        <v>3355</v>
       </c>
       <c r="N4">
-        <v>3355</v>
-      </c>
-      <c r="O4">
         <v>2</v>
       </c>
-      <c r="P4" t="s">
-        <v>39</v>
+      <c r="O4" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F5" s="1">
         <v>13777</v>
@@ -1337,48 +1295,45 @@
         <v>34092</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K5">
         <v>98052</v>
       </c>
       <c r="L5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" t="s">
-        <v>45</v>
+        <v>22</v>
+      </c>
+      <c r="M5">
+        <v>5176</v>
       </c>
       <c r="N5">
-        <v>5176</v>
-      </c>
-      <c r="O5">
         <v>2</v>
       </c>
-      <c r="P5" t="s">
-        <v>46</v>
+      <c r="O5" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F6" s="1">
         <v>20152</v>
@@ -1387,45 +1342,42 @@
         <v>34259</v>
       </c>
       <c r="H6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="L6" t="s">
-        <v>54</v>
-      </c>
-      <c r="M6" t="s">
-        <v>55</v>
+        <v>49</v>
+      </c>
+      <c r="M6">
+        <v>3453</v>
       </c>
       <c r="N6">
-        <v>3453</v>
-      </c>
-      <c r="O6">
         <v>2</v>
       </c>
-      <c r="P6" t="s">
-        <v>56</v>
+      <c r="O6" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F7" s="1">
         <v>23194</v>
@@ -1434,45 +1386,42 @@
         <v>34259</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M7" t="s">
-        <v>61</v>
+        <v>49</v>
+      </c>
+      <c r="M7">
+        <v>428</v>
       </c>
       <c r="N7">
-        <v>428</v>
-      </c>
-      <c r="O7">
         <v>5</v>
       </c>
-      <c r="P7" t="s">
-        <v>62</v>
+      <c r="O7" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F8" s="1">
         <v>22065</v>
@@ -1481,45 +1430,42 @@
         <v>34336</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="I8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K8" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="L8" t="s">
-        <v>54</v>
-      </c>
-      <c r="M8" t="s">
-        <v>67</v>
+        <v>49</v>
+      </c>
+      <c r="M8">
+        <v>465</v>
       </c>
       <c r="N8">
-        <v>465</v>
-      </c>
-      <c r="O8">
         <v>5</v>
       </c>
-      <c r="P8" t="s">
-        <v>68</v>
+      <c r="O8" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="1">
         <v>21194</v>
@@ -1528,48 +1474,45 @@
         <v>34398</v>
       </c>
       <c r="H9" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
         <v>21</v>
-      </c>
-      <c r="J9" t="s">
-        <v>22</v>
       </c>
       <c r="K9">
         <v>98105</v>
       </c>
       <c r="L9" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" t="s">
-        <v>73</v>
+        <v>22</v>
+      </c>
+      <c r="M9">
+        <v>2344</v>
       </c>
       <c r="N9">
-        <v>2344</v>
-      </c>
-      <c r="O9">
         <v>2</v>
       </c>
-      <c r="P9" t="s">
-        <v>74</v>
+      <c r="O9" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
         <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
       </c>
       <c r="F10" s="1">
         <v>24134</v>
@@ -1578,28 +1521,25 @@
         <v>34653</v>
       </c>
       <c r="H10" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K10" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L10" t="s">
-        <v>54</v>
-      </c>
-      <c r="M10" t="s">
-        <v>79</v>
+        <v>49</v>
+      </c>
+      <c r="M10">
+        <v>452</v>
       </c>
       <c r="N10">
-        <v>452</v>
-      </c>
-      <c r="O10">
         <v>5</v>
       </c>
-      <c r="P10" t="s">
-        <v>80</v>
+      <c r="O10" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
